--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L274"/>
+  <dimension ref="A1:L280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,7 +800,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -924,7 +924,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1048,7 +1048,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1172,7 +1172,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>it to me straight.</t>
+          <t>it</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2649,11 +2649,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ex015</t>
+          <t>ex014</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2661,30 +2661,26 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>You, give that to him clearly.</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>You,</t>
+          <t>to me straight.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2705,15 +2701,19 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>You, give that to him clearly.</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>You,</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2724,7 +2724,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2748,23 +2748,23 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>that to him clearly.</t>
+          <t>give</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2773,11 +2773,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ex016</t>
+          <t>ex015</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2785,19 +2785,15 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>You, give this to her honestly.</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>You,</t>
+          <t>that</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2808,7 +2804,7 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -2817,11 +2813,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ex016</t>
+          <t>ex015</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2832,23 +2828,23 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>to him clearly.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -2869,26 +2865,30 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>You, give this to her honestly.</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>this to her honestly.</t>
+          <t>You,</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -2897,11 +2897,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ex017</t>
+          <t>ex016</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2909,19 +2909,15 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>You, give them to us directly.</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>You,</t>
+          <t>give</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2932,7 +2928,7 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -2941,11 +2937,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ex017</t>
+          <t>ex016</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2956,12 +2952,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>this</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2972,7 +2968,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -2981,11 +2977,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ex017</t>
+          <t>ex016</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2996,12 +2992,12 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>them to us directly.</t>
+          <t>to her honestly.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3012,7 +3008,7 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3021,21 +3017,21 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ex018</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>give</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>That reminds me.</t>
+          <t>You, give them to us directly.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3045,7 +3041,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>That</t>
+          <t>You,</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3065,16 +3061,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ex018</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>give</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -3085,7 +3081,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>give</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3105,16 +3101,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ex018</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>give</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -3125,7 +3121,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>me.</t>
+          <t>them</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3145,42 +3141,38 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ex019</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>reminds</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>This reminds you.</t>
-        </is>
-      </c>
+          <t>give</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>This</t>
+          <t>to us directly.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3189,11 +3181,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ex019</t>
+          <t>ex018</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3201,15 +3193,19 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>That reminds me.</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>That</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3220,7 +3216,7 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3229,11 +3225,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ex019</t>
+          <t>ex018</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3244,12 +3240,12 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3260,7 +3256,7 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3269,11 +3265,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ex020</t>
+          <t>ex018</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3281,19 +3277,15 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>It reminds her.</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>It</t>
+          <t>me.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3304,7 +3296,7 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3313,11 +3305,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ex020</t>
+          <t>ex019</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3325,15 +3317,19 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>This reminds you.</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>This</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3344,7 +3340,7 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3353,11 +3349,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ex020</t>
+          <t>ex019</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3368,12 +3364,12 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3384,7 +3380,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -3393,11 +3389,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ex021</t>
+          <t>ex019</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3405,19 +3401,15 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Everything reminds them.</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Everything</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3428,7 +3420,7 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -3437,11 +3429,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ex021</t>
+          <t>ex020</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3449,15 +3441,19 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>It reminds her.</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>It</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3468,7 +3464,7 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -3477,11 +3473,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ex021</t>
+          <t>ex020</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3492,12 +3488,12 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>them.</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3508,7 +3504,7 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3517,31 +3513,27 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex020</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Would you hold the line, please?</t>
-        </is>
-      </c>
+          <t>reminds</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Would</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3552,7 +3544,7 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3561,19 +3553,23 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex021</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>reminds</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Everything reminds them.</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>S</t>
@@ -3581,7 +3577,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>Everything</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3592,7 +3588,7 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3601,16 +3597,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex021</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -3621,7 +3617,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3632,7 +3628,7 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -3641,16 +3637,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex021</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -3661,7 +3657,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>the line, please?</t>
+          <t>them.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3672,7 +3668,7 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -3681,11 +3677,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3695,7 +3691,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Would I hold the call, please?</t>
+          <t>Would you hold the line, please?</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3725,11 +3721,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3745,7 +3741,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3765,11 +3761,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3805,11 +3801,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3825,7 +3821,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>the call, please?</t>
+          <t>the line, please?</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3845,11 +3841,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3859,7 +3855,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Would she hold the phone, please?</t>
+          <t>Would I hold the call, please?</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3889,11 +3885,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3909,7 +3905,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3929,11 +3925,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3969,11 +3965,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3989,7 +3985,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>the phone, please?</t>
+          <t>the call, please?</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4009,11 +4005,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4023,7 +4019,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Would they hold the connection, please?</t>
+          <t>Would she hold the phone, please?</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4053,11 +4049,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4073,7 +4069,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4093,11 +4089,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4133,11 +4129,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4153,7 +4149,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>the connection, please?</t>
+          <t>the phone, please?</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4173,31 +4169,31 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>I haven't seen you for a long time.</t>
+          <t>Would they hold the connection, please?</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Would</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4217,27 +4213,27 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4257,27 +4253,27 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>seen you for a long time.</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4297,31 +4293,27 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>You haven't seen me for ages.</t>
-        </is>
-      </c>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>the connection, please?</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4332,7 +4324,7 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -4341,11 +4333,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4353,15 +4345,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>I haven't seen you for a long time.</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4372,7 +4368,7 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -4381,11 +4377,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4396,12 +4392,12 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>seen me for ages.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4412,7 +4408,7 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4421,11 +4417,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4433,19 +4429,15 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>We haven't seen Ken for months.</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>for a long time.</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4456,7 +4448,7 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4465,11 +4457,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4477,15 +4469,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>You haven't seen me for ages.</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4496,7 +4492,7 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4505,11 +4501,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4520,12 +4516,12 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>seen Ken for months.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4536,7 +4532,7 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -4545,11 +4541,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4557,19 +4553,15 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>They haven't seen him for years.</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>for ages.</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4580,7 +4572,7 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -4589,11 +4581,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4601,15 +4593,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>We haven't seen Ken for months.</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4620,7 +4616,7 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -4629,11 +4625,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4644,12 +4640,12 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>seen him for years.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4660,7 +4656,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4669,31 +4665,27 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>I want something hot.</t>
-        </is>
-      </c>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>for months.</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4704,7 +4696,7 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -4713,27 +4705,31 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>They haven't seen him for years.</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4744,7 +4740,7 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4753,27 +4749,27 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>something hot.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4784,7 +4780,7 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -4793,31 +4789,27 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>You want something spicy.</t>
-        </is>
-      </c>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>for years.</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4828,7 +4820,7 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4837,11 +4829,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4849,15 +4841,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>I want something hot.</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4868,7 +4864,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4877,11 +4873,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4892,12 +4888,12 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>something spicy.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4908,7 +4904,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4917,11 +4913,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4929,19 +4925,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>We want something sweet.</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>something hot.</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4952,7 +4944,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -4961,11 +4953,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4973,15 +4965,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>You want something spicy.</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4992,7 +4988,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -5001,11 +4997,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5016,12 +5012,12 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>something sweet.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5032,7 +5028,7 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -5041,11 +5037,11 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5053,19 +5049,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>They want something fresh.</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>something spicy.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5076,7 +5068,7 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5085,11 +5077,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5097,15 +5089,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>We want something sweet.</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5116,7 +5112,7 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -5125,11 +5121,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5140,12 +5136,12 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>something fresh.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5156,7 +5152,7 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -5165,31 +5161,27 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Could you write it down, please?</t>
-        </is>
-      </c>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>something sweet.</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5200,7 +5192,7 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -5209,19 +5201,23 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>They want something fresh.</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>S</t>
@@ -5229,7 +5225,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5240,7 +5236,7 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -5249,16 +5245,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -5269,7 +5265,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5280,7 +5276,7 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -5289,16 +5285,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -5309,7 +5305,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>it down, please?</t>
+          <t>something fresh.</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5320,7 +5316,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5329,11 +5325,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5343,7 +5339,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Could I write the sentence down, please?</t>
+          <t>Could you write it down, please?</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5373,11 +5369,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5393,7 +5389,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5413,11 +5409,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5453,11 +5449,11 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5473,7 +5469,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>the sentence down, please?</t>
+          <t>it down, please?</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5493,11 +5489,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5507,7 +5503,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Could she write the address down, please?</t>
+          <t>Could I write the sentence down, please?</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5537,11 +5533,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5557,7 +5553,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5577,11 +5573,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5617,11 +5613,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5637,7 +5633,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>the address down, please?</t>
+          <t>the sentence down, please?</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5657,11 +5653,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5671,7 +5667,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Could they write the number down, please?</t>
+          <t>Could she write the address down, please?</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5701,11 +5697,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5721,7 +5717,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5741,11 +5737,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5781,11 +5777,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5801,7 +5797,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>the number down, please?</t>
+          <t>the address down, please?</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5821,31 +5817,31 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>I can't afford it.</t>
+          <t>Could they write the number down, please?</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5865,27 +5861,27 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5905,27 +5901,27 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>afford it.</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5945,31 +5941,27 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>You can't afford the jacket.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>the number down, please?</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5980,7 +5972,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -5989,11 +5981,11 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6001,15 +5993,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>I can't afford it.</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6020,7 +6016,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -6029,11 +6025,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6044,12 +6040,12 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>afford the jacket.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6060,7 +6056,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -6069,11 +6065,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6081,19 +6077,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>She can't afford the car.</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>afford it.</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6104,7 +6096,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -6113,11 +6105,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6125,15 +6117,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>You can't afford the jacket.</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6144,7 +6140,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -6153,11 +6149,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6168,12 +6164,12 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>afford the car.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6184,7 +6180,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -6193,11 +6189,11 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6205,19 +6201,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>They can't afford the house.</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>afford the jacket.</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6228,7 +6220,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -6237,11 +6229,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6249,15 +6241,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>She can't afford the car.</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6268,7 +6264,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -6277,11 +6273,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6292,12 +6288,12 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>afford the house.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6308,7 +6304,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -6317,31 +6313,27 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>I believe you.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>afford the car.</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6352,7 +6344,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -6361,27 +6353,31 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>They can't afford the house.</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6392,7 +6388,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -6401,27 +6397,27 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6432,7 +6428,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -6441,31 +6437,27 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>You believe Tom.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>afford the house.</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6476,7 +6468,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -6485,11 +6477,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6497,15 +6489,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>I believe you.</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6516,7 +6512,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -6525,11 +6521,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6540,12 +6536,12 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Tom.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6556,7 +6552,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -6565,11 +6561,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6577,19 +6573,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>We believe her.</t>
-        </is>
-      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6600,7 +6592,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -6609,11 +6601,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6621,15 +6613,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>You believe Tom.</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6640,7 +6636,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -6649,11 +6645,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6664,12 +6660,12 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6680,7 +6676,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -6689,11 +6685,11 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6701,19 +6697,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>They believe him.</t>
-        </is>
-      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom.</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6724,7 +6716,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -6733,11 +6725,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6745,15 +6737,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>We believe her.</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6764,7 +6760,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -6773,11 +6769,11 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6788,12 +6784,12 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>him.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6804,7 +6800,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -6813,31 +6809,27 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Henry mentioned the fact.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6848,7 +6840,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -6857,27 +6849,31 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>They believe him.</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6888,7 +6884,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6897,27 +6893,27 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>the fact.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6928,7 +6924,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6937,31 +6933,27 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Sarah mentioned the issue.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>him.</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6972,7 +6964,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6981,11 +6973,11 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6993,15 +6985,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Henry mentioned the fact.</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7012,7 +7008,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -7021,11 +7017,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7036,12 +7032,12 @@
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>the issue.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7052,7 +7048,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7061,11 +7057,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7073,19 +7069,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Tom mentioned the problem.</t>
-        </is>
-      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>the fact.</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7096,7 +7088,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -7105,11 +7097,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7117,15 +7109,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Sarah mentioned the issue.</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7136,7 +7132,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -7145,11 +7141,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7160,12 +7156,12 @@
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>the problem.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7176,7 +7172,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7185,11 +7181,11 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7197,19 +7193,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>They mentioned the concern.</t>
-        </is>
-      </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the issue.</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7220,7 +7212,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7229,11 +7221,11 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7241,15 +7233,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Tom mentioned the problem.</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7260,7 +7256,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7269,11 +7265,11 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7284,12 +7280,12 @@
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>the concern.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7300,7 +7296,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -7309,31 +7305,27 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>He entered her room.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>the problem.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7344,7 +7336,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -7353,27 +7345,31 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>They mentioned the concern.</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7384,7 +7380,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -7393,27 +7389,27 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>her room.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7424,7 +7420,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -7433,31 +7429,27 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>She entered his office.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the concern.</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7468,7 +7460,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -7477,11 +7469,11 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7489,15 +7481,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>He entered her room.</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7508,7 +7504,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7517,11 +7513,11 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7532,12 +7528,12 @@
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>his office.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7548,7 +7544,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7557,11 +7553,11 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7569,19 +7565,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Tom entered Sarah's house.</t>
-        </is>
-      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>her room.</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7592,7 +7584,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7601,11 +7593,11 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7613,15 +7605,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>She entered his office.</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7632,7 +7628,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7641,11 +7637,11 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7656,12 +7652,12 @@
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Sarah's house.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7672,7 +7668,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7681,11 +7677,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7693,19 +7689,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>They entered the building.</t>
-        </is>
-      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>his office.</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7716,7 +7708,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7725,11 +7717,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7737,15 +7729,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Tom entered Sarah's house.</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7756,7 +7752,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7765,11 +7761,11 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7780,12 +7776,12 @@
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7796,7 +7792,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7805,31 +7801,27 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>He left New York a few days ago.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Sarah's house.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7840,7 +7832,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7849,27 +7841,31 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>They entered the building.</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7880,7 +7876,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7889,27 +7885,27 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>New York a few days ago.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7920,7 +7916,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7929,31 +7925,27 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>She left Rome last week.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7964,7 +7956,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7973,11 +7965,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7985,15 +7977,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>He left New York a few days ago.</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -8004,7 +8000,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -8013,11 +8009,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8028,12 +8024,12 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Rome last week.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8044,7 +8040,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -8053,11 +8049,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8065,19 +8061,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Tom left Paris yesterday.</t>
-        </is>
-      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>New York a few days ago.</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8088,7 +8080,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8097,11 +8089,11 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8109,15 +8101,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>She left Rome last week.</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8128,7 +8124,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -8137,11 +8133,11 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8152,12 +8148,12 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Paris yesterday.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8168,7 +8164,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -8177,11 +8173,11 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8189,19 +8185,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>They left London this morning.</t>
-        </is>
-      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Rome last week.</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8212,7 +8204,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -8221,11 +8213,11 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8233,15 +8225,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Tom left Paris yesterday.</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8252,7 +8248,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -8261,11 +8257,11 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8276,12 +8272,12 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>London this morning.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8292,7 +8288,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -8301,31 +8297,27 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>He reached Boston the next morning.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Paris yesterday.</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8336,7 +8328,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8345,27 +8337,31 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>They left London this morning.</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8376,7 +8372,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -8385,27 +8381,27 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Boston the next morning.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8416,7 +8412,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -8425,31 +8421,27 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>She reached Milan that evening.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>London this morning.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8460,7 +8452,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -8469,11 +8461,11 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8481,15 +8473,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>He reached Boston the next morning.</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8500,7 +8496,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -8509,11 +8505,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8524,12 +8520,12 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Milan that evening.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8540,7 +8536,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -8549,11 +8545,11 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8561,19 +8557,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Tom reached Tokyo at noon.</t>
-        </is>
-      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Boston the next morning.</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8584,7 +8576,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -8593,11 +8585,11 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8605,15 +8597,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>She reached Milan that evening.</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8624,7 +8620,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -8633,11 +8629,11 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8648,12 +8644,12 @@
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Tokyo at noon.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8664,7 +8660,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8673,11 +8669,11 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8685,19 +8681,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>They reached Berlin at midnight.</t>
-        </is>
-      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Milan that evening.</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8708,7 +8700,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -8717,11 +8709,11 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8729,15 +8721,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Tom reached Tokyo at noon.</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8748,7 +8744,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -8757,11 +8753,11 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8772,12 +8768,12 @@
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Berlin at midnight.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8788,7 +8784,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -8797,31 +8793,27 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>I approach Tokyo.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8832,7 +8824,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -8841,27 +8833,27 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>at noon.</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8872,7 +8864,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -8881,27 +8873,31 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>They reached Berlin at midnight.</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Tokyo.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8912,7 +8908,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -8921,31 +8917,27 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>You approach the station.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8956,7 +8948,7 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -8965,27 +8957,27 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8996,7 +8988,7 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -9005,27 +8997,27 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>the station.</t>
+          <t>at midnight.</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9036,7 +9028,7 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
@@ -9045,11 +9037,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9059,7 +9051,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>We approach the building.</t>
+          <t>I approach Tokyo.</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9069,7 +9061,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9089,11 +9081,11 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9129,11 +9121,11 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9149,7 +9141,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>Tokyo.</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9169,11 +9161,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9183,7 +9175,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>They approach the destination.</t>
+          <t>You approach the station.</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9193,7 +9185,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9213,11 +9205,11 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -9253,11 +9245,11 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -9273,7 +9265,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>the destination.</t>
+          <t>the station.</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9293,21 +9285,21 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>He resembles his mother.</t>
+          <t>We approach the building.</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9317,7 +9309,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9337,16 +9329,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
@@ -9357,7 +9349,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9377,16 +9369,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
@@ -9397,7 +9389,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>his mother.</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9417,21 +9409,21 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>She resembles her father.</t>
+          <t>They approach the destination.</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9441,7 +9433,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9461,16 +9453,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
@@ -9481,7 +9473,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9501,16 +9493,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
@@ -9521,7 +9513,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>her father.</t>
+          <t>the destination.</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9541,11 +9533,11 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9555,7 +9547,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tom resembles his uncle.</t>
+          <t>He resembles his mother.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9565,7 +9557,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9585,11 +9577,11 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9625,11 +9617,11 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9645,7 +9637,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>his uncle.</t>
+          <t>his mother.</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9665,21 +9657,21 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>They resemble their parents.</t>
+          <t>She resembles her father.</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9689,7 +9681,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9709,16 +9701,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
@@ -9729,7 +9721,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9749,16 +9741,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
@@ -9769,7 +9761,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>their parents.</t>
+          <t>her father.</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9789,21 +9781,21 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>She married a bald man.</t>
+          <t>Tom resembles his uncle.</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9813,7 +9805,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9833,16 +9825,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
@@ -9853,7 +9845,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9873,16 +9865,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
@@ -9893,7 +9885,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>a bald man.</t>
+          <t>his uncle.</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9904,7 +9896,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -9913,21 +9905,21 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>He married a quiet woman.</t>
+          <t>They resemble their parents.</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -9937,7 +9929,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9957,16 +9949,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
@@ -9977,7 +9969,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9997,16 +9989,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
@@ -10017,7 +10009,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>a quiet woman.</t>
+          <t>their parents.</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10028,7 +10020,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -10037,11 +10029,11 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -10051,7 +10043,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Sarah married a kind person.</t>
+          <t>She married a bald man.</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10061,7 +10053,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10081,11 +10073,11 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -10121,11 +10113,11 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -10141,7 +10133,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>a kind person.</t>
+          <t>a bald man.</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10161,11 +10153,11 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10175,7 +10167,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>They married their partners.</t>
+          <t>He married a quiet woman.</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10185,7 +10177,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10205,11 +10197,11 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10245,11 +10237,11 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10265,7 +10257,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>their partners.</t>
+          <t>a quiet woman.</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10285,11 +10277,11 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10299,7 +10291,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>She's been married to a bald man for 5 years.</t>
+          <t>Sarah married a kind person.</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10309,7 +10301,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>She's</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10329,11 +10321,11 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10344,12 +10336,12 @@
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10360,7 +10352,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -10369,11 +10361,11 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10384,12 +10376,12 @@
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>a kind person.</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10400,7 +10392,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -10409,11 +10401,11 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -10423,7 +10415,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>He's been married to a kind woman for 3 years.</t>
+          <t>They married their partners.</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10433,7 +10425,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>He's</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10453,11 +10445,11 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10468,12 +10460,12 @@
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10484,7 +10476,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -10493,11 +10485,11 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -10508,12 +10500,12 @@
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>their partners.</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10524,7 +10516,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -10533,11 +10525,11 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10547,7 +10539,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sarah's been married to a nice person for 2 years.</t>
+          <t>She's been married to a bald man for 5 years.</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10557,7 +10549,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Sarah's</t>
+          <t>She's</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10577,11 +10569,11 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -10617,11 +10609,11 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10657,11 +10649,11 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10671,7 +10663,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Tom's been married to a lovely partner for 10 years.</t>
+          <t>He's been married to a kind woman for 3 years.</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10681,7 +10673,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Tom's</t>
+          <t>He's</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10701,11 +10693,11 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10741,11 +10733,11 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10781,21 +10773,21 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>He'll answer your letter soon.</t>
+          <t>Sarah's been married to a nice person for 2 years.</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10805,7 +10797,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>He'll</t>
+          <t>Sarah's</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10825,27 +10817,27 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10856,7 +10848,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10865,27 +10857,27 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>your letter soon.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10896,7 +10888,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -10905,21 +10897,21 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>She'll answer his message tomorrow.</t>
+          <t>Tom's been married to a lovely partner for 10 years.</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -10929,7 +10921,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>She'll</t>
+          <t>Tom's</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10949,27 +10941,27 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10980,7 +10972,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10989,27 +10981,27 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>his message tomorrow.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -11020,7 +11012,7 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -11029,11 +11021,11 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11043,7 +11035,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Tom'll answer the email later.</t>
+          <t>He'll answer your letter soon.</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -11053,7 +11045,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Tom'll</t>
+          <t>He'll</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11073,11 +11065,11 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11113,11 +11105,11 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11133,7 +11125,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>the email later.</t>
+          <t>your letter soon.</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11153,11 +11145,11 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11167,7 +11159,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>They'll answer our call tonight.</t>
+          <t>She'll answer his message tomorrow.</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11177,7 +11169,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>They'll</t>
+          <t>She'll</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11197,11 +11189,11 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11237,11 +11229,11 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11257,7 +11249,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>our call tonight.</t>
+          <t>his message tomorrow.</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11277,21 +11269,21 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>We discuss our schedule.</t>
+          <t>Tom'll answer the email later.</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11301,7 +11293,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>Tom'll</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11321,16 +11313,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
@@ -11341,7 +11333,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11361,16 +11353,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
@@ -11381,7 +11373,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>our schedule.</t>
+          <t>the email later.</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11401,21 +11393,21 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>You discuss your project.</t>
+          <t>They'll answer our call tonight.</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11425,7 +11417,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>They'll</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11445,16 +11437,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
@@ -11465,7 +11457,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11485,16 +11477,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
@@ -11505,7 +11497,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>your project.</t>
+          <t>our call tonight.</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11525,11 +11517,11 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11539,7 +11531,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>They discuss their plan.</t>
+          <t>We discuss our schedule.</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11549,7 +11541,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11569,11 +11561,11 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11609,11 +11601,11 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11629,7 +11621,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>their plan.</t>
+          <t>our schedule.</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11649,11 +11641,11 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11663,7 +11655,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>I discuss my proposal.</t>
+          <t>You discuss your project.</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -11673,7 +11665,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11693,11 +11685,11 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -11733,11 +11725,11 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11753,7 +11745,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>my proposal.</t>
+          <t>your project.</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11771,6 +11763,254 @@
       </c>
       <c r="L274" t="inlineStr"/>
     </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>They discuss their plan.</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>They</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>their plan.</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>I discuss my proposal.</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>my proposal.</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L280"/>
+  <dimension ref="A1:L284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>to me straight.</t>
+          <t>to me</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2689,11 +2689,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ex015</t>
+          <t>ex014</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2701,19 +2701,15 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>You, give that to him clearly.</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>You,</t>
+          <t>straight</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2724,7 +2720,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2745,15 +2741,19 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>You, give that to him clearly.</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>You,</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2764,7 +2764,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2788,12 +2788,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>that</t>
+          <t>give</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2804,7 +2804,7 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -2828,23 +2828,23 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>to him clearly.</t>
+          <t>that</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -2853,11 +2853,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ex016</t>
+          <t>ex015</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2865,30 +2865,26 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>You, give this to her honestly.</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>You,</t>
+          <t>to him</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -2897,11 +2893,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ex016</t>
+          <t>ex015</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2912,12 +2908,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>clearly</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2928,7 +2924,7 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -2949,15 +2945,19 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>You, give this to her honestly.</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>You,</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2968,7 +2968,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -2992,23 +2992,23 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>to her honestly.</t>
+          <t>give</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3017,11 +3017,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ex017</t>
+          <t>ex016</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3029,19 +3029,15 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>You, give them to us directly.</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>You,</t>
+          <t>this</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3052,7 +3048,7 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3061,11 +3057,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ex017</t>
+          <t>ex016</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3076,23 +3072,23 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>to her</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3101,11 +3097,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ex017</t>
+          <t>ex016</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3116,12 +3112,12 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>them</t>
+          <t>honestly</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3132,7 +3128,7 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3153,26 +3149,30 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>You, give them to us directly.</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>to us directly.</t>
+          <t>You,</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3181,31 +3181,27 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ex018</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>reminds</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>That reminds me.</t>
-        </is>
-      </c>
+          <t>give</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>That</t>
+          <t>give</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3216,7 +3212,7 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3225,27 +3221,27 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ex018</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>give</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>them</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3256,7 +3252,7 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3265,38 +3261,38 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ex018</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>give</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>me.</t>
+          <t>to us</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3305,31 +3301,27 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ex019</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>reminds</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>This reminds you.</t>
-        </is>
-      </c>
+          <t>give</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>This</t>
+          <t>directly</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3340,7 +3332,7 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3349,11 +3341,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ex019</t>
+          <t>ex018</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3361,15 +3353,19 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>That reminds me.</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>That</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3380,7 +3376,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -3389,11 +3385,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ex019</t>
+          <t>ex018</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3404,12 +3400,12 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3420,7 +3416,7 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -3429,11 +3425,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ex020</t>
+          <t>ex018</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3441,19 +3437,15 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>It reminds her.</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>It</t>
+          <t>me.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3464,7 +3456,7 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -3473,11 +3465,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ex020</t>
+          <t>ex019</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3485,15 +3477,19 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>This reminds you.</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>This</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3504,7 +3500,7 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3513,11 +3509,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ex020</t>
+          <t>ex019</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3528,12 +3524,12 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3544,7 +3540,7 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3553,11 +3549,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ex021</t>
+          <t>ex019</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3565,19 +3561,15 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Everything reminds them.</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Everything</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3588,7 +3580,7 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3597,11 +3589,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ex021</t>
+          <t>ex020</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3609,15 +3601,19 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>It reminds her.</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>It</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3628,7 +3624,7 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -3637,11 +3633,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ex021</t>
+          <t>ex020</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3652,12 +3648,12 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>them.</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3668,7 +3664,7 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -3677,31 +3673,27 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex020</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Would you hold the line, please?</t>
-        </is>
-      </c>
+          <t>reminds</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Would</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3712,7 +3704,7 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -3721,19 +3713,23 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex021</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>reminds</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Everything reminds them.</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>S</t>
@@ -3741,7 +3737,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>Everything</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3752,7 +3748,7 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -3761,16 +3757,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex021</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -3781,7 +3777,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3792,7 +3788,7 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -3801,16 +3797,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex021</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -3821,7 +3817,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>the line, please?</t>
+          <t>them.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3832,7 +3828,7 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -3841,11 +3837,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3855,7 +3851,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Would I hold the call, please?</t>
+          <t>Would you hold the line, please?</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3885,11 +3881,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3905,7 +3901,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3925,11 +3921,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3965,11 +3961,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3985,7 +3981,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>the call, please?</t>
+          <t>the line, please?</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4005,11 +4001,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4019,7 +4015,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Would she hold the phone, please?</t>
+          <t>Would I hold the call, please?</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4049,11 +4045,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4069,7 +4065,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4089,11 +4085,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4129,11 +4125,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4149,7 +4145,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>the phone, please?</t>
+          <t>the call, please?</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4169,11 +4165,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4183,7 +4179,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Would they hold the connection, please?</t>
+          <t>Would she hold the phone, please?</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4213,11 +4209,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4233,7 +4229,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4253,11 +4249,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4293,11 +4289,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4313,7 +4309,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>the connection, please?</t>
+          <t>the phone, please?</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4333,31 +4329,31 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>I haven't seen you for a long time.</t>
+          <t>Would they hold the connection, please?</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Would</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4377,27 +4373,27 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4417,27 +4413,27 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>for a long time.</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4457,31 +4453,27 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>You haven't seen me for ages.</t>
-        </is>
-      </c>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>the connection, please?</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4492,7 +4484,7 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4501,11 +4493,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4513,15 +4505,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>I haven't seen you for a long time.</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4532,7 +4528,7 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -4541,11 +4537,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4556,12 +4552,12 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>for ages.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4572,7 +4568,7 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -4581,11 +4577,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4593,19 +4589,15 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>We haven't seen Ken for months.</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>for a long time.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4616,7 +4608,7 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -4625,11 +4617,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4637,15 +4629,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>You haven't seen me for ages.</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4656,7 +4652,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4665,11 +4661,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4680,12 +4676,12 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>for months.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4696,7 +4692,7 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -4705,11 +4701,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4717,19 +4713,15 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>They haven't seen him for years.</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>for ages.</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4740,7 +4732,7 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4749,11 +4741,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4761,15 +4753,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>We haven't seen Ken for months.</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4780,7 +4776,7 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -4789,11 +4785,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4804,12 +4800,12 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>for years.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4820,7 +4816,7 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4829,31 +4825,27 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>I want something hot.</t>
-        </is>
-      </c>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>for months.</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4864,7 +4856,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4873,27 +4865,31 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>They haven't seen him for years.</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4904,7 +4900,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4913,27 +4909,27 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>something hot.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4944,7 +4940,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -4953,31 +4949,27 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>You want something spicy.</t>
-        </is>
-      </c>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>for years.</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4988,7 +4980,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -4997,11 +4989,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5009,15 +5001,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>I want something hot.</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5028,7 +5024,7 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -5037,11 +5033,11 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5052,12 +5048,12 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>something spicy.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5068,7 +5064,7 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5077,11 +5073,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5089,19 +5085,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>We want something sweet.</t>
-        </is>
-      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>something hot.</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5112,7 +5104,7 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -5121,11 +5113,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5133,15 +5125,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>You want something spicy.</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5152,7 +5148,7 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -5161,11 +5157,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5176,12 +5172,12 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>something sweet.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5192,7 +5188,7 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -5201,11 +5197,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5213,19 +5209,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>They want something fresh.</t>
-        </is>
-      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>something spicy.</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5236,7 +5228,7 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -5245,11 +5237,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5257,15 +5249,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>We want something sweet.</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5276,7 +5272,7 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -5285,11 +5281,11 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5300,12 +5296,12 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>something fresh.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5316,7 +5312,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5325,31 +5321,27 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Could you write it down, please?</t>
-        </is>
-      </c>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>something sweet.</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5360,7 +5352,7 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -5369,19 +5361,23 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>They want something fresh.</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>S</t>
@@ -5389,7 +5385,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5400,7 +5396,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5409,16 +5405,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -5429,7 +5425,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5440,7 +5436,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5449,16 +5445,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -5469,7 +5465,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>it down, please?</t>
+          <t>something fresh.</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5480,7 +5476,7 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -5489,11 +5485,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5503,7 +5499,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Could I write the sentence down, please?</t>
+          <t>Could you write it down, please?</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5533,11 +5529,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5553,7 +5549,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5573,11 +5569,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5613,11 +5609,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5633,7 +5629,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>the sentence down, please?</t>
+          <t>it down, please?</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5653,11 +5649,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5667,7 +5663,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Could she write the address down, please?</t>
+          <t>Could I write the sentence down, please?</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5697,11 +5693,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5717,7 +5713,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5737,11 +5733,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5777,11 +5773,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5797,7 +5793,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>the address down, please?</t>
+          <t>the sentence down, please?</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5817,11 +5813,11 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5831,7 +5827,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Could they write the number down, please?</t>
+          <t>Could she write the address down, please?</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5861,11 +5857,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5881,7 +5877,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5901,11 +5897,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5941,11 +5937,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5961,7 +5957,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>the number down, please?</t>
+          <t>the address down, please?</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5981,31 +5977,31 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>I can't afford it.</t>
+          <t>Could they write the number down, please?</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6025,27 +6021,27 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6065,27 +6061,27 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>afford it.</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6105,31 +6101,27 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>You can't afford the jacket.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>the number down, please?</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6140,7 +6132,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -6149,11 +6141,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6161,15 +6153,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>I can't afford it.</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6180,7 +6176,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -6189,11 +6185,11 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6204,12 +6200,12 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>afford the jacket.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6220,7 +6216,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -6229,11 +6225,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6241,19 +6237,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>She can't afford the car.</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>afford it.</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6264,7 +6256,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -6273,11 +6265,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6285,15 +6277,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>You can't afford the jacket.</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6304,7 +6300,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -6313,11 +6309,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6328,12 +6324,12 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>afford the car.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6344,7 +6340,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -6353,11 +6349,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6365,19 +6361,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>They can't afford the house.</t>
-        </is>
-      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>afford the jacket.</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6388,7 +6380,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -6397,11 +6389,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6409,15 +6401,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>She can't afford the car.</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6428,7 +6424,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -6437,11 +6433,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6452,12 +6448,12 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>afford the house.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6468,7 +6464,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -6477,31 +6473,27 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>I believe you.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>afford the car.</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6512,7 +6504,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -6521,27 +6513,31 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>They can't afford the house.</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6552,7 +6548,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -6561,27 +6557,27 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6592,7 +6588,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -6601,31 +6597,27 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>You believe Tom.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>afford the house.</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6636,7 +6628,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -6645,11 +6637,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6657,15 +6649,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>I believe you.</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6676,7 +6672,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -6685,11 +6681,11 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6700,12 +6696,12 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Tom.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6716,7 +6712,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -6725,11 +6721,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6737,19 +6733,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>We believe her.</t>
-        </is>
-      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6760,7 +6752,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -6769,11 +6761,11 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6781,15 +6773,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>You believe Tom.</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6800,7 +6796,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -6809,11 +6805,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6824,12 +6820,12 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6840,7 +6836,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -6849,11 +6845,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6861,19 +6857,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>They believe him.</t>
-        </is>
-      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom.</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6884,7 +6876,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6893,11 +6885,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6905,15 +6897,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>We believe her.</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6924,7 +6920,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6933,11 +6929,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6948,12 +6944,12 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>him.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6964,7 +6960,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6973,31 +6969,27 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Henry mentioned the fact.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7008,7 +7000,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -7017,27 +7009,31 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>They believe him.</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7048,7 +7044,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7057,27 +7053,27 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>the fact.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7088,7 +7084,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -7097,31 +7093,27 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Sarah mentioned the issue.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>him.</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7132,7 +7124,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -7141,11 +7133,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7153,15 +7145,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Henry mentioned the fact.</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7172,7 +7168,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7181,11 +7177,11 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7196,12 +7192,12 @@
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>the issue.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7212,7 +7208,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7221,11 +7217,11 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7233,19 +7229,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Tom mentioned the problem.</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>the fact.</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7256,7 +7248,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7265,11 +7257,11 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7277,15 +7269,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Sarah mentioned the issue.</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7296,7 +7292,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -7305,11 +7301,11 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7320,12 +7316,12 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>the problem.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7336,7 +7332,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -7345,11 +7341,11 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7357,19 +7353,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>They mentioned the concern.</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the issue.</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7380,7 +7372,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -7389,11 +7381,11 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7401,15 +7393,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Tom mentioned the problem.</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7420,7 +7416,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -7429,11 +7425,11 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7444,12 +7440,12 @@
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>the concern.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7460,7 +7456,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -7469,31 +7465,27 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>He entered her room.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>the problem.</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7504,7 +7496,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7513,27 +7505,31 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>They mentioned the concern.</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7544,7 +7540,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7553,27 +7549,27 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>her room.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7584,7 +7580,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7593,31 +7589,27 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>She entered his office.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the concern.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7628,7 +7620,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7637,11 +7629,11 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7649,15 +7641,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>He entered her room.</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7668,7 +7664,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7677,11 +7673,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7692,12 +7688,12 @@
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>his office.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7708,7 +7704,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7717,11 +7713,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7729,19 +7725,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Tom entered Sarah's house.</t>
-        </is>
-      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>her room.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7752,7 +7744,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7761,11 +7753,11 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7773,15 +7765,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>She entered his office.</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7792,7 +7788,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7801,11 +7797,11 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7816,12 +7812,12 @@
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Sarah's house.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7832,7 +7828,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7841,11 +7837,11 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7853,19 +7849,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>They entered the building.</t>
-        </is>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>his office.</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7876,7 +7868,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7885,11 +7877,11 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7897,15 +7889,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Tom entered Sarah's house.</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7916,7 +7912,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7925,11 +7921,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7940,12 +7936,12 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7956,7 +7952,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7965,31 +7961,27 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>He left New York a few days ago.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Sarah's house.</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -8000,7 +7992,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -8009,27 +8001,31 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>They entered the building.</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8040,7 +8036,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -8049,27 +8045,27 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>New York a few days ago.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8080,7 +8076,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8089,31 +8085,27 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>She left Rome last week.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8124,7 +8116,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -8133,11 +8125,11 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8145,15 +8137,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>He left New York a few days ago.</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8164,7 +8160,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -8173,11 +8169,11 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8188,12 +8184,12 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Rome last week.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8204,7 +8200,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -8213,11 +8209,11 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8225,19 +8221,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Tom left Paris yesterday.</t>
-        </is>
-      </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>New York a few days ago.</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8248,7 +8240,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -8257,11 +8249,11 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8269,15 +8261,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>She left Rome last week.</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8288,7 +8284,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -8297,11 +8293,11 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8312,12 +8308,12 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Paris yesterday.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8328,7 +8324,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8337,11 +8333,11 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8349,19 +8345,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>They left London this morning.</t>
-        </is>
-      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Rome last week.</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8372,7 +8364,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -8381,11 +8373,11 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8393,15 +8385,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Tom left Paris yesterday.</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8412,7 +8408,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -8421,11 +8417,11 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8436,12 +8432,12 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>London this morning.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8452,7 +8448,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -8461,31 +8457,27 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>He reached Boston the next morning.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Paris yesterday.</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8496,7 +8488,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -8505,27 +8497,31 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>They left London this morning.</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8536,7 +8532,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -8545,27 +8541,27 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Boston the next morning.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8576,7 +8572,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -8585,31 +8581,27 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>She reached Milan that evening.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>London this morning.</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8620,7 +8612,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -8629,11 +8621,11 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8641,15 +8633,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>He reached Boston the next morning.</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8660,7 +8656,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8669,11 +8665,11 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8684,12 +8680,12 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Milan that evening.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8700,7 +8696,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -8709,11 +8705,11 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8721,19 +8717,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Tom reached Tokyo at noon.</t>
-        </is>
-      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Boston the next morning.</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8744,7 +8736,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -8753,11 +8745,11 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8765,15 +8757,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>She reached Milan that evening.</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8784,7 +8780,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -8793,11 +8789,11 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8808,12 +8804,12 @@
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8824,7 +8820,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -8833,11 +8829,11 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8848,12 +8844,12 @@
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>at noon.</t>
+          <t>Milan that evening.</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8864,7 +8860,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -8873,11 +8869,11 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8887,7 +8883,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>They reached Berlin at midnight.</t>
+          <t>Tom reached Tokyo at noon.</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8897,7 +8893,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8917,11 +8913,11 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8957,11 +8953,11 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8977,7 +8973,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8997,11 +8993,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9017,7 +9013,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>at midnight.</t>
+          <t>at noon.</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9037,21 +9033,21 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>I approach Tokyo.</t>
+          <t>They reached Berlin at midnight.</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9061,7 +9057,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9081,16 +9077,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
@@ -9101,7 +9097,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9121,16 +9117,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
@@ -9141,7 +9137,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Tokyo.</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9161,31 +9157,27 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>You approach the station.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>at midnight.</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9196,7 +9188,7 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -9205,11 +9197,11 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -9217,15 +9209,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>I approach Tokyo.</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9236,7 +9232,7 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K213" t="n">
         <v>0</v>
@@ -9245,11 +9241,11 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -9260,12 +9256,12 @@
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>the station.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9276,7 +9272,7 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K214" t="n">
         <v>0</v>
@@ -9285,11 +9281,11 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9297,19 +9293,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>We approach the building.</t>
-        </is>
-      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>Tokyo.</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9320,7 +9312,7 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K215" t="n">
         <v>0</v>
@@ -9329,11 +9321,11 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9341,15 +9333,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>You approach the station.</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9360,7 +9356,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -9369,11 +9365,11 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9384,12 +9380,12 @@
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9400,7 +9396,7 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K217" t="n">
         <v>0</v>
@@ -9409,11 +9405,11 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9421,19 +9417,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>They approach the destination.</t>
-        </is>
-      </c>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the station.</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9444,7 +9436,7 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K218" t="n">
         <v>0</v>
@@ -9453,11 +9445,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9465,15 +9457,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>We approach the building.</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9484,7 +9480,7 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K219" t="n">
         <v>0</v>
@@ -9493,11 +9489,11 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9508,12 +9504,12 @@
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>the destination.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9524,7 +9520,7 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K220" t="n">
         <v>0</v>
@@ -9533,31 +9529,27 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>He resembles his mother.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9568,7 +9560,7 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K221" t="n">
         <v>0</v>
@@ -9577,27 +9569,31 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>They approach the destination.</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9608,7 +9604,7 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K222" t="n">
         <v>0</v>
@@ -9617,27 +9613,27 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>his mother.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9648,7 +9644,7 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K223" t="n">
         <v>0</v>
@@ -9657,31 +9653,27 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>She resembles her father.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the destination.</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9692,7 +9684,7 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -9701,11 +9693,11 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9713,15 +9705,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>He resembles his mother.</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9732,7 +9728,7 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -9741,11 +9737,11 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9756,12 +9752,12 @@
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>her father.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9772,7 +9768,7 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -9781,11 +9777,11 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9793,19 +9789,15 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Tom resembles his uncle.</t>
-        </is>
-      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>his mother.</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9816,7 +9808,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K227" t="n">
         <v>0</v>
@@ -9825,11 +9817,11 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9837,15 +9829,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>She resembles her father.</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9856,7 +9852,7 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -9865,11 +9861,11 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9880,12 +9876,12 @@
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>his uncle.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9896,7 +9892,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -9905,31 +9901,27 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>They resemble their parents.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>her father.</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9940,7 +9932,7 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -9949,27 +9941,31 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Tom resembles his uncle.</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9980,7 +9976,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -9989,27 +9985,27 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>their parents.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10020,7 +10016,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -10029,31 +10025,27 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>She married a bald man.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>his uncle.</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10064,7 +10056,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -10073,27 +10065,31 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>They resemble their parents.</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10104,7 +10100,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -10113,27 +10109,27 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>a bald man.</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10144,7 +10140,7 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -10153,31 +10149,27 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>He married a quiet woman.</t>
-        </is>
-      </c>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>their parents.</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10188,7 +10180,7 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -10197,11 +10189,11 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10209,15 +10201,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>She married a bald man.</t>
+        </is>
+      </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10228,7 +10224,7 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -10237,11 +10233,11 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10252,12 +10248,12 @@
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>a quiet woman.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10268,7 +10264,7 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -10277,11 +10273,11 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10289,19 +10285,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Sarah married a kind person.</t>
-        </is>
-      </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>a bald man.</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10312,7 +10304,7 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -10321,11 +10313,11 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10333,15 +10325,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>He married a quiet woman.</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10352,7 +10348,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -10361,11 +10357,11 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10376,12 +10372,12 @@
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>a kind person.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10392,7 +10388,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -10401,11 +10397,11 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -10413,19 +10409,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>They married their partners.</t>
-        </is>
-      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>a quiet woman.</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10436,7 +10428,7 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -10445,11 +10437,11 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10457,15 +10449,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Sarah married a kind person.</t>
+        </is>
+      </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10476,7 +10472,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -10485,11 +10481,11 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -10500,12 +10496,12 @@
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>their partners.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10516,7 +10512,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -10525,11 +10521,11 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10537,19 +10533,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>She's been married to a bald man for 5 years.</t>
-        </is>
-      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>She's</t>
+          <t>a kind person.</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10560,7 +10552,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -10569,11 +10561,11 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -10581,15 +10573,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>They married their partners.</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10600,7 +10596,7 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -10609,11 +10605,11 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10649,11 +10645,11 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10661,19 +10657,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>He's been married to a kind woman for 3 years.</t>
-        </is>
-      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>He's</t>
+          <t>their partners.</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10684,7 +10676,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -10693,11 +10685,11 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10705,15 +10697,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>She's been married to a bald man for 5 years.</t>
+        </is>
+      </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>She's</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10724,7 +10720,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -10733,11 +10729,11 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10748,12 +10744,12 @@
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10764,7 +10760,7 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -10773,11 +10769,11 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10785,19 +10781,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Sarah's been married to a nice person for 2 years.</t>
-        </is>
-      </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Sarah's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10808,7 +10800,7 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -10817,11 +10809,11 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10829,15 +10821,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>He's been married to a kind woman for 3 years.</t>
+        </is>
+      </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>He's</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10848,7 +10844,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10857,11 +10853,11 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10872,12 +10868,12 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10888,7 +10884,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -10897,11 +10893,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10909,19 +10905,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Tom's been married to a lovely partner for 10 years.</t>
-        </is>
-      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Tom's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10932,7 +10924,7 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -10941,11 +10933,11 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10953,15 +10945,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr"/>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Sarah's been married to a nice person for 2 years.</t>
+        </is>
+      </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>Sarah's</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10972,7 +10968,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10981,11 +10977,11 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10996,12 +10992,12 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -11012,7 +11008,7 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -11021,31 +11017,27 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>He'll answer your letter soon.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>He'll</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11056,7 +11048,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -11065,27 +11057,31 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Tom's been married to a lovely partner for 10 years.</t>
+        </is>
+      </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>Tom's</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11096,7 +11092,7 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -11105,27 +11101,27 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>your letter soon.</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11145,31 +11141,27 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>She'll answer his message tomorrow.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>She'll</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11180,7 +11172,7 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
@@ -11189,11 +11181,11 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11201,15 +11193,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>He'll answer your letter soon.</t>
+        </is>
+      </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>He'll</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11220,7 +11216,7 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K261" t="n">
         <v>0</v>
@@ -11229,11 +11225,11 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11244,12 +11240,12 @@
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>his message tomorrow.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11260,7 +11256,7 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -11269,11 +11265,11 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11281,19 +11277,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Tom'll answer the email later.</t>
-        </is>
-      </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Tom'll</t>
+          <t>your letter soon.</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11304,7 +11296,7 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K263" t="n">
         <v>0</v>
@@ -11313,11 +11305,11 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11325,15 +11317,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>She'll answer his message tomorrow.</t>
+        </is>
+      </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>She'll</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11344,7 +11340,7 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K264" t="n">
         <v>0</v>
@@ -11353,11 +11349,11 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11368,12 +11364,12 @@
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>the email later.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11384,7 +11380,7 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K265" t="n">
         <v>0</v>
@@ -11393,11 +11389,11 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11405,19 +11401,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>They'll answer our call tonight.</t>
-        </is>
-      </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>They'll</t>
+          <t>his message tomorrow.</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11428,7 +11420,7 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -11437,11 +11429,11 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11449,15 +11441,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr"/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Tom'll answer the email later.</t>
+        </is>
+      </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>Tom'll</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11468,7 +11464,7 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -11477,11 +11473,11 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11492,12 +11488,12 @@
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>our call tonight.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11508,7 +11504,7 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K268" t="n">
         <v>0</v>
@@ -11517,31 +11513,27 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>We discuss our schedule.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>the email later.</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11552,7 +11544,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -11561,27 +11553,31 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>They'll answer our call tonight.</t>
+        </is>
+      </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>They'll</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11592,7 +11588,7 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -11601,27 +11597,27 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>our schedule.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11632,7 +11628,7 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
@@ -11641,31 +11637,27 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>You discuss your project.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>our call tonight.</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11676,7 +11668,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
@@ -11685,11 +11677,11 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -11697,15 +11689,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>We discuss our schedule.</t>
+        </is>
+      </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11716,7 +11712,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K273" t="n">
         <v>0</v>
@@ -11725,11 +11721,11 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11740,12 +11736,12 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>your project.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11756,7 +11752,7 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -11765,11 +11761,11 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -11777,19 +11773,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>They discuss their plan.</t>
-        </is>
-      </c>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>our schedule.</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11800,7 +11792,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K275" t="n">
         <v>0</v>
@@ -11809,11 +11801,11 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -11821,15 +11813,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>You discuss your project.</t>
+        </is>
+      </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11840,7 +11836,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -11849,11 +11845,11 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -11864,12 +11860,12 @@
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>their plan.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11880,7 +11876,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K277" t="n">
         <v>0</v>
@@ -11889,11 +11885,11 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -11901,19 +11897,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>I discuss my proposal.</t>
-        </is>
-      </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>your project.</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11924,7 +11916,7 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
@@ -11933,11 +11925,11 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11945,15 +11937,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr"/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>They discuss their plan.</t>
+        </is>
+      </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11964,7 +11960,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -11973,11 +11969,11 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -11988,12 +11984,12 @@
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>my proposal.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -12004,12 +12000,176 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
+        <v>2</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>their plan.</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
         <v>3</v>
       </c>
-      <c r="K280" t="n">
-        <v>0</v>
-      </c>
-      <c r="L280" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>I discuss my proposal.</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>my proposal.</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L284"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,12 +1712,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>Where</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1728,12 +1728,16 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>wh-word</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1752,12 +1756,12 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>did</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1768,7 +1772,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1792,12 +1796,12 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1808,7 +1812,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1832,12 +1836,12 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Where</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1848,16 +1852,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>wh-word</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>it?</t>
+          <t>it</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>Where</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1936,12 +1936,16 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>wh-word</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1960,12 +1964,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>did</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1976,7 +1980,7 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2000,12 +2004,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2016,7 +2020,7 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2040,12 +2044,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Where</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2056,16 +2060,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>wh-word</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>the device?</t>
+          <t>the device</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2128,12 +2128,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>Where</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2144,12 +2144,16 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>wh-word</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2168,12 +2172,12 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>did</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2184,7 +2188,7 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2208,12 +2212,12 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2224,7 +2228,7 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2248,12 +2252,12 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Where</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2264,16 +2268,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>wh-word</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>the book?</t>
+          <t>the book</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2336,12 +2336,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>Where</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2352,12 +2352,16 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>wh-word</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2376,12 +2380,12 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>did</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2392,7 +2396,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2416,12 +2420,12 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2432,7 +2436,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2456,12 +2460,12 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Where</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2472,16 +2476,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>wh-word</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>the information?</t>
+          <t>the information</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>the line, please?</t>
+          <t>the line,</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4001,11 +4001,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4013,19 +4013,15 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Would I hold the call, please?</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Would</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4036,7 +4032,7 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4057,15 +4053,19 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Would I hold the call, please?</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Would</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4076,7 +4076,7 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4100,12 +4100,12 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4116,7 +4116,7 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -4140,12 +4140,12 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>the call, please?</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4156,7 +4156,7 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4165,11 +4165,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4177,19 +4177,15 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Would she hold the phone, please?</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Would</t>
+          <t>the call,</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4200,7 +4196,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -4209,11 +4205,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4224,12 +4220,12 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4240,7 +4236,7 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -4261,15 +4257,19 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Would she hold the phone, please?</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>Would</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4280,7 +4280,7 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -4304,12 +4304,12 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>the phone, please?</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4320,7 +4320,7 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -4329,11 +4329,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4341,19 +4341,15 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Would they hold the connection, please?</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Would</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4364,7 +4360,7 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -4373,11 +4369,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4388,12 +4384,12 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>the phone,</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4404,7 +4400,7 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4413,11 +4409,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4428,12 +4424,12 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4444,7 +4440,7 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4465,15 +4461,19 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Would they hold the connection, please?</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>the connection, please?</t>
+          <t>Would</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4484,7 +4484,7 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4493,23 +4493,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>I haven't seen you for a long time.</t>
-        </is>
-      </c>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>S</t>
@@ -4517,7 +4513,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4528,7 +4524,7 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -4537,16 +4533,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -4557,7 +4553,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4568,7 +4564,7 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -4577,16 +4573,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -4597,7 +4593,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>for a long time.</t>
+          <t>the connection,</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4608,7 +4604,7 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -4617,31 +4613,27 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>You haven't seen me for ages.</t>
-        </is>
-      </c>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4652,7 +4644,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4661,11 +4653,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4673,15 +4665,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>I haven't seen you for a long time.</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4692,7 +4688,7 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -4701,11 +4697,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4716,12 +4712,12 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>for ages.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4732,7 +4728,7 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4741,11 +4737,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4753,19 +4749,15 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>We haven't seen Ken for months.</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>for a long time.</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4776,7 +4768,7 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -4785,11 +4777,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4797,15 +4789,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>You haven't seen me for ages.</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4816,7 +4812,7 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4825,11 +4821,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4840,12 +4836,12 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>for months.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4856,7 +4852,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4865,11 +4861,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4877,19 +4873,15 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>They haven't seen him for years.</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>for ages.</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4900,7 +4892,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4909,11 +4901,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4921,15 +4913,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>We haven't seen Ken for months.</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4940,7 +4936,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -4949,11 +4945,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4964,12 +4960,12 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>for years.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4980,7 +4976,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -4989,31 +4985,27 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>I want something hot.</t>
-        </is>
-      </c>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>for months.</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5024,7 +5016,7 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -5033,27 +5025,31 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>They haven't seen him for years.</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5064,7 +5060,7 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5073,27 +5069,27 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>something hot.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5104,7 +5100,7 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -5113,31 +5109,27 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>You want something spicy.</t>
-        </is>
-      </c>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>for years.</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5148,7 +5140,7 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -5157,11 +5149,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5169,15 +5161,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>I want something hot.</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5188,7 +5184,7 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -5197,11 +5193,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5212,12 +5208,12 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>something spicy.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5228,7 +5224,7 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -5237,11 +5233,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5249,19 +5245,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>We want something sweet.</t>
-        </is>
-      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>something hot.</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5272,7 +5264,7 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -5281,11 +5273,11 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5293,15 +5285,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>You want something spicy.</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5312,7 +5308,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5321,11 +5317,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5336,12 +5332,12 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>something sweet.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5352,7 +5348,7 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -5361,11 +5357,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5373,19 +5369,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>They want something fresh.</t>
-        </is>
-      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>something spicy.</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5396,7 +5388,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5405,11 +5397,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5417,15 +5409,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>We want something sweet.</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5436,7 +5432,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5445,11 +5441,11 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5460,12 +5456,12 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>something fresh.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5476,7 +5472,7 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -5485,31 +5481,27 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Could you write it down, please?</t>
-        </is>
-      </c>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>something sweet.</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5520,7 +5512,7 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -5529,19 +5521,23 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>They want something fresh.</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>S</t>
@@ -5549,7 +5545,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5560,7 +5556,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -5569,16 +5565,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -5589,7 +5585,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5600,7 +5596,7 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -5609,16 +5605,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -5629,7 +5625,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>it down, please?</t>
+          <t>something fresh.</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5640,7 +5636,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -5649,11 +5645,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5663,7 +5659,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Could I write the sentence down, please?</t>
+          <t>Could you write it down, please?</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5693,11 +5689,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5713,7 +5709,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5733,11 +5729,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5773,11 +5769,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5793,7 +5789,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>the sentence down, please?</t>
+          <t>it down,</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5813,11 +5809,11 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5825,19 +5821,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Could she write the address down, please?</t>
-        </is>
-      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5848,7 +5840,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -5857,11 +5849,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5869,15 +5861,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Could I write the sentence down, please?</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5888,7 +5884,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -5897,11 +5893,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5912,12 +5908,12 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5928,7 +5924,7 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -5937,11 +5933,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5952,12 +5948,12 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>the address down, please?</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5968,7 +5964,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -5977,11 +5973,11 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5989,19 +5985,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Could they write the number down, please?</t>
-        </is>
-      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>the sentence down,</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6012,7 +6004,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -6021,11 +6013,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6036,12 +6028,12 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6052,7 +6044,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -6061,11 +6053,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6073,15 +6065,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Could she write the address down, please?</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6092,7 +6088,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -6101,11 +6097,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6116,12 +6112,12 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>the number down, please?</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6132,7 +6128,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -6141,31 +6137,27 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>I can't afford it.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6176,7 +6168,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -6185,27 +6177,27 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>the address down,</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6216,7 +6208,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -6225,27 +6217,27 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>afford it.</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6256,7 +6248,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -6265,31 +6257,31 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>You can't afford the jacket.</t>
+          <t>Could they write the number down, please?</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6309,27 +6301,27 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6349,27 +6341,27 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>afford the jacket.</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6389,31 +6381,27 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>She can't afford the car.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the number down,</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6424,7 +6412,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -6433,27 +6421,27 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6464,7 +6452,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -6473,11 +6461,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6485,15 +6473,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>I can't afford it.</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>afford the car.</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6504,7 +6496,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -6513,11 +6505,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6525,19 +6517,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>They can't afford the house.</t>
-        </is>
-      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6548,7 +6536,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -6557,11 +6545,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6572,12 +6560,12 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>afford it.</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6588,7 +6576,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -6597,11 +6585,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6609,15 +6597,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>You can't afford the jacket.</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>afford the house.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6628,7 +6620,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -6637,31 +6629,27 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>I believe you.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6672,7 +6660,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -6681,27 +6669,27 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>afford the jacket.</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6712,7 +6700,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -6721,27 +6709,31 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>She can't afford the car.</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6752,7 +6744,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -6761,31 +6753,27 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>You believe Tom.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6796,7 +6784,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -6805,27 +6793,27 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>afford the car.</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6836,7 +6824,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -6845,27 +6833,31 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>They can't afford the house.</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Tom.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6876,7 +6868,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6885,31 +6877,27 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>We believe her.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6920,7 +6908,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6929,27 +6917,27 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>afford the house.</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6960,7 +6948,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6969,11 +6957,11 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6981,15 +6969,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>I believe you.</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7000,7 +6992,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -7009,11 +7001,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7021,19 +7013,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>They believe him.</t>
-        </is>
-      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7044,7 +7032,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7053,11 +7041,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7068,12 +7056,12 @@
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7084,7 +7072,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -7093,11 +7081,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7105,15 +7093,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>You believe Tom.</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>him.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7124,7 +7116,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -7133,31 +7125,27 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Henry mentioned the fact.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7168,7 +7156,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7177,27 +7165,27 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Tom.</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7208,7 +7196,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7217,27 +7205,31 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>We believe her.</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>the fact.</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7248,7 +7240,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7257,31 +7249,27 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Sarah mentioned the issue.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7292,7 +7280,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -7301,27 +7289,27 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7332,7 +7320,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -7341,27 +7329,31 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>They believe him.</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>the issue.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7372,7 +7364,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -7381,31 +7373,27 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Tom mentioned the problem.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7416,7 +7404,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -7425,27 +7413,27 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>him.</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7456,7 +7444,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -7465,11 +7453,11 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7477,15 +7465,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Henry mentioned the fact.</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>the problem.</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7496,7 +7488,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7505,11 +7497,11 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7517,19 +7509,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>They mentioned the concern.</t>
-        </is>
-      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7540,7 +7528,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7549,11 +7537,11 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7564,12 +7552,12 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>the fact.</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7580,7 +7568,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7589,11 +7577,11 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7601,15 +7589,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Sarah mentioned the issue.</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>the concern.</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7620,7 +7612,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7629,31 +7621,27 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>He entered her room.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7664,7 +7652,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7673,27 +7661,27 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>the issue.</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7704,7 +7692,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7713,27 +7701,31 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Tom mentioned the problem.</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>her room.</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7744,7 +7736,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7753,31 +7745,27 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>She entered his office.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7788,7 +7776,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7797,27 +7785,27 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>the problem.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7828,7 +7816,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7837,27 +7825,31 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>They mentioned the concern.</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>his office.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7868,7 +7860,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7877,31 +7869,27 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Tom entered Sarah's house.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7912,7 +7900,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7921,27 +7909,27 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>the concern.</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7952,7 +7940,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7961,11 +7949,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7973,15 +7961,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>He entered her room.</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Sarah's house.</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7992,7 +7984,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -8001,11 +7993,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8013,19 +8005,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>They entered the building.</t>
-        </is>
-      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8036,7 +8024,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -8045,11 +8033,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8060,12 +8048,12 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>her room.</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8076,7 +8064,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8085,11 +8073,11 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8097,15 +8085,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>She entered his office.</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8116,7 +8108,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -8125,31 +8117,27 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>He left New York a few days ago.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8160,7 +8148,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -8169,27 +8157,27 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>his office.</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8200,7 +8188,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -8209,27 +8197,31 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Tom entered Sarah's house.</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>New York a few days ago.</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8240,7 +8232,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -8249,31 +8241,27 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>She left Rome last week.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8284,7 +8272,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -8293,27 +8281,27 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Sarah's house.</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8324,7 +8312,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8333,27 +8321,31 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>They entered the building.</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Rome last week.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8364,7 +8356,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -8373,31 +8365,27 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Tom left Paris yesterday.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8408,7 +8396,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -8417,27 +8405,27 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8448,7 +8436,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -8457,11 +8445,11 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8469,15 +8457,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>He left New York a few days ago.</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Paris yesterday.</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8488,7 +8480,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -8497,11 +8489,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8509,19 +8501,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>They left London this morning.</t>
-        </is>
-      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8532,7 +8520,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -8541,11 +8529,11 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8556,12 +8544,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>New York a few days ago.</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8572,7 +8560,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -8581,11 +8569,11 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8593,15 +8581,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>She left Rome last week.</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>London this morning.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8612,7 +8604,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -8621,31 +8613,27 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>He reached Boston the next morning.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8656,7 +8644,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8665,27 +8653,27 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>Rome last week.</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8696,7 +8684,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -8705,27 +8693,31 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Tom left Paris yesterday.</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Boston the next morning.</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8736,7 +8728,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -8745,31 +8737,27 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>She reached Milan that evening.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8780,7 +8768,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -8789,27 +8777,27 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>Paris yesterday.</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8820,7 +8808,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -8829,27 +8817,31 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>They left London this morning.</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Milan that evening.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8860,7 +8852,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -8869,31 +8861,27 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Tom reached Tokyo at noon.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8904,7 +8892,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -8913,27 +8901,27 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>London this morning.</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8944,7 +8932,7 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -8953,11 +8941,11 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8965,15 +8953,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>He reached Boston the next morning.</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8984,7 +8976,7 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -8993,11 +8985,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9008,12 +9000,12 @@
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>at noon.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9024,7 +9016,7 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
@@ -9033,11 +9025,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9045,19 +9037,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>They reached Berlin at midnight.</t>
-        </is>
-      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Boston the next morning.</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9068,7 +9056,7 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
@@ -9077,11 +9065,11 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9089,15 +9077,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>She reached Milan that evening.</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9108,7 +9100,7 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K210" t="n">
         <v>0</v>
@@ -9117,11 +9109,11 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9132,12 +9124,12 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9148,7 +9140,7 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K211" t="n">
         <v>0</v>
@@ -9157,11 +9149,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9172,12 +9164,12 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>at midnight.</t>
+          <t>Milan that evening.</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9188,7 +9180,7 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -9197,21 +9189,21 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>I approach Tokyo.</t>
+          <t>Tom reached Tokyo at noon.</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9221,7 +9213,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9241,16 +9233,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
@@ -9261,7 +9253,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9281,16 +9273,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
@@ -9301,7 +9293,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Tokyo.</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9321,31 +9313,27 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>You approach the station.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>at noon.</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9356,7 +9344,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -9365,27 +9353,31 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>They reached Berlin at midnight.</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9396,7 +9388,7 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K217" t="n">
         <v>0</v>
@@ -9405,27 +9397,27 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>the station.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9436,7 +9428,7 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K218" t="n">
         <v>0</v>
@@ -9445,31 +9437,27 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>We approach the building.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9480,7 +9468,7 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K219" t="n">
         <v>0</v>
@@ -9489,27 +9477,27 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>at midnight.</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9520,7 +9508,7 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K220" t="n">
         <v>0</v>
@@ -9529,11 +9517,11 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9541,15 +9529,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>I approach Tokyo.</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9560,7 +9552,7 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K221" t="n">
         <v>0</v>
@@ -9569,11 +9561,11 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9581,19 +9573,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>They approach the destination.</t>
-        </is>
-      </c>
+      <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9604,7 +9592,7 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K222" t="n">
         <v>0</v>
@@ -9613,11 +9601,11 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9628,12 +9616,12 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>Tokyo.</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9644,7 +9632,7 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K223" t="n">
         <v>0</v>
@@ -9653,11 +9641,11 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9665,15 +9653,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>You approach the station.</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>the destination.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9684,7 +9676,7 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -9693,31 +9685,27 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>He resembles his mother.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9728,7 +9716,7 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -9737,27 +9725,27 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>the station.</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9768,7 +9756,7 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -9777,27 +9765,31 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>We approach the building.</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>his mother.</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9808,7 +9800,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K227" t="n">
         <v>0</v>
@@ -9817,31 +9809,27 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>She resembles her father.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9852,7 +9840,7 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -9861,27 +9849,27 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9892,7 +9880,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -9901,27 +9889,31 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>They approach the destination.</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>her father.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9932,7 +9924,7 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -9941,31 +9933,27 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Tom resembles his uncle.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9976,7 +9964,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -9985,27 +9973,27 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>the destination.</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10016,7 +10004,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -10025,11 +10013,11 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -10037,15 +10025,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>He resembles his mother.</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>his uncle.</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10056,7 +10048,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -10065,31 +10057,27 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>They resemble their parents.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10100,7 +10088,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -10109,27 +10097,27 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>his mother.</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10140,7 +10128,7 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -10149,27 +10137,31 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>She resembles her father.</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>their parents.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10180,7 +10172,7 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -10189,31 +10181,27 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>She married a bald man.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10224,7 +10212,7 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -10233,27 +10221,27 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>her father.</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10264,7 +10252,7 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -10273,27 +10261,31 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Tom resembles his uncle.</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>a bald man.</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10304,7 +10296,7 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -10313,31 +10305,27 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>He married a quiet woman.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10348,7 +10336,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -10357,27 +10345,27 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>his uncle.</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10388,7 +10376,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -10397,27 +10385,31 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr"/>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>They resemble their parents.</t>
+        </is>
+      </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>a quiet woman.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10428,7 +10420,7 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -10437,31 +10429,27 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Sarah married a kind person.</t>
-        </is>
-      </c>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10472,7 +10460,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -10481,27 +10469,27 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>their parents.</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10512,7 +10500,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -10521,11 +10509,11 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10533,15 +10521,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>She married a bald man.</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>a kind person.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10552,7 +10544,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -10561,11 +10553,11 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -10573,19 +10565,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>They married their partners.</t>
-        </is>
-      </c>
+      <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10596,7 +10584,7 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -10605,11 +10593,11 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10620,12 +10608,12 @@
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>a bald man.</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10636,7 +10624,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -10645,11 +10633,11 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10657,15 +10645,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>He married a quiet woman.</t>
+        </is>
+      </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>their partners.</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10676,7 +10668,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -10685,11 +10677,11 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10697,19 +10689,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>She's been married to a bald man for 5 years.</t>
-        </is>
-      </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>She's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10720,7 +10708,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -10729,11 +10717,11 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10744,12 +10732,12 @@
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>a quiet woman.</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10760,7 +10748,7 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -10769,11 +10757,11 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10781,15 +10769,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Sarah married a kind person.</t>
+        </is>
+      </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10800,7 +10792,7 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -10809,11 +10801,11 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10821,19 +10813,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>He's been married to a kind woman for 3 years.</t>
-        </is>
-      </c>
+      <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>He's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10844,7 +10832,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10853,11 +10841,11 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10868,12 +10856,12 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>a kind person.</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10884,7 +10872,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -10893,11 +10881,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10905,15 +10893,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>They married their partners.</t>
+        </is>
+      </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10924,7 +10916,7 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -10933,11 +10925,11 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10945,19 +10937,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Sarah's been married to a nice person for 2 years.</t>
-        </is>
-      </c>
+      <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Sarah's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10968,7 +10956,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10977,11 +10965,11 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10992,12 +10980,12 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>their partners.</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -11008,7 +10996,7 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -11017,11 +11005,11 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11029,15 +11017,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>She's been married to a bald man for 5 years.</t>
+        </is>
+      </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She's</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11048,7 +11040,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -11057,11 +11049,11 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11069,19 +11061,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Tom's been married to a lovely partner for 10 years.</t>
-        </is>
-      </c>
+      <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Tom's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11092,7 +11080,7 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -11101,11 +11089,11 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11141,11 +11129,11 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11153,15 +11141,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>He's been married to a kind woman for 3 years.</t>
+        </is>
+      </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He's</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11172,7 +11164,7 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
@@ -11181,31 +11173,27 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>He'll answer your letter soon.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>He'll</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11216,7 +11204,7 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K261" t="n">
         <v>0</v>
@@ -11225,27 +11213,27 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11256,7 +11244,7 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -11265,27 +11253,31 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Sarah's been married to a nice person for 2 years.</t>
+        </is>
+      </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>your letter soon.</t>
+          <t>Sarah's</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11296,7 +11288,7 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K263" t="n">
         <v>0</v>
@@ -11305,31 +11297,27 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>She'll answer his message tomorrow.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>She'll</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11340,7 +11328,7 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K264" t="n">
         <v>0</v>
@@ -11349,27 +11337,27 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11380,7 +11368,7 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K265" t="n">
         <v>0</v>
@@ -11389,27 +11377,31 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Tom's been married to a lovely partner for 10 years.</t>
+        </is>
+      </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>his message tomorrow.</t>
+          <t>Tom's</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11420,7 +11412,7 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -11429,31 +11421,27 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Tom'll answer the email later.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Tom'll</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11464,7 +11452,7 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -11473,27 +11461,27 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11504,7 +11492,7 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K268" t="n">
         <v>0</v>
@@ -11513,11 +11501,11 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11525,15 +11513,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr"/>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>He'll answer your letter soon.</t>
+        </is>
+      </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>the email later.</t>
+          <t>He'll</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11544,7 +11536,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -11553,11 +11545,11 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11565,19 +11557,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>They'll answer our call tonight.</t>
-        </is>
-      </c>
+      <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>They'll</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11588,7 +11576,7 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -11597,11 +11585,11 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11612,12 +11600,12 @@
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>your letter soon.</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11628,7 +11616,7 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
@@ -11637,11 +11625,11 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11649,15 +11637,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>She'll answer his message tomorrow.</t>
+        </is>
+      </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>our call tonight.</t>
+          <t>She'll</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11668,7 +11660,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
@@ -11677,31 +11669,27 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>We discuss our schedule.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11712,7 +11700,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K273" t="n">
         <v>0</v>
@@ -11721,27 +11709,27 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>his message tomorrow.</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11752,7 +11740,7 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -11761,27 +11749,31 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Tom'll answer the email later.</t>
+        </is>
+      </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>our schedule.</t>
+          <t>Tom'll</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11792,7 +11784,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K275" t="n">
         <v>0</v>
@@ -11801,31 +11793,27 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>You discuss your project.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11836,7 +11824,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -11845,27 +11833,27 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>the email later.</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11876,7 +11864,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K277" t="n">
         <v>0</v>
@@ -11885,27 +11873,31 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>They'll answer our call tonight.</t>
+        </is>
+      </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>your project.</t>
+          <t>They'll</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11916,7 +11908,7 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
@@ -11925,31 +11917,27 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>They discuss their plan.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11960,7 +11948,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -11969,27 +11957,27 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>our call tonight.</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -12000,7 +11988,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K280" t="n">
         <v>0</v>
@@ -12009,11 +11997,11 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -12021,15 +12009,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>We discuss our schedule.</t>
+        </is>
+      </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>their plan.</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12040,7 +12032,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -12049,11 +12041,11 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -12061,19 +12053,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>I discuss my proposal.</t>
-        </is>
-      </c>
+      <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12084,7 +12072,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -12093,11 +12081,11 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -12108,12 +12096,12 @@
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>our schedule.</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12124,7 +12112,7 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K283" t="n">
         <v>0</v>
@@ -12133,11 +12121,11 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -12145,15 +12133,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>You discuss your project.</t>
+        </is>
+      </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>my proposal.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12164,12 +12156,340 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>ex083</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>ex083</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>your project.</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
         <v>3</v>
       </c>
-      <c r="K284" t="n">
-        <v>0</v>
-      </c>
-      <c r="L284" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>They discuss their plan.</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>They</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>their plan.</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>I discuss my proposal.</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>my proposal.</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L292"/>
+  <dimension ref="A1:L284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,12 +1712,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Where</t>
+          <t>did</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1728,16 +1728,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>wh-word</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1756,12 +1752,12 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1772,7 +1768,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1796,12 +1792,12 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1812,7 +1808,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1836,12 +1832,12 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>Where</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1852,12 +1848,16 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>wh-word</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>it?</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Where</t>
+          <t>did</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1936,16 +1936,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>wh-word</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1964,12 +1960,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1980,7 +1976,7 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2004,12 +2000,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2020,7 +2016,7 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2044,12 +2040,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>Where</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2060,12 +2056,16 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>wh-word</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>the device</t>
+          <t>the device?</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2128,12 +2128,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Where</t>
+          <t>did</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2144,16 +2144,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>wh-word</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2172,12 +2168,12 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2188,7 +2184,7 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2212,12 +2208,12 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2228,7 +2224,7 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2252,12 +2248,12 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>Where</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2268,12 +2264,16 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>wh-word</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>the book</t>
+          <t>the book?</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2336,12 +2336,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Where</t>
+          <t>did</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2352,16 +2352,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>wh-word</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2380,12 +2376,12 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2396,7 +2392,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2420,12 +2416,12 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2436,7 +2432,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2460,12 +2456,12 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>Where</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2476,12 +2472,16 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>wh-word</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>the information</t>
+          <t>the information?</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>the line,</t>
+          <t>the line, please?</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4001,11 +4001,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4013,15 +4013,19 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Would I hold the call, please?</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Would</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4032,7 +4036,7 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4053,19 +4057,15 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Would I hold the call, please?</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Would</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4076,7 +4076,7 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4100,12 +4100,12 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4116,7 +4116,7 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -4140,12 +4140,12 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>the call, please?</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4156,7 +4156,7 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4165,11 +4165,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4177,15 +4177,19 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Would she hold the phone, please?</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>the call,</t>
+          <t>Would</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4196,7 +4200,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -4205,11 +4209,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4220,12 +4224,12 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4236,7 +4240,7 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -4257,19 +4261,15 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Would she hold the phone, please?</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Would</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4280,7 +4280,7 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -4304,12 +4304,12 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>the phone, please?</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4320,7 +4320,7 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -4329,11 +4329,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4341,15 +4341,19 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Would they hold the connection, please?</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>Would</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4360,7 +4364,7 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -4369,11 +4373,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4384,12 +4388,12 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>the phone,</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4400,7 +4404,7 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4409,11 +4413,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4424,12 +4428,12 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4440,7 +4444,7 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4461,19 +4465,15 @@
           <t>hold</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Would they hold the connection, please?</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Would</t>
+          <t>the connection, please?</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4484,7 +4484,7 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4493,19 +4493,23 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>I haven't seen you for a long time.</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>S</t>
@@ -4513,7 +4517,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4524,7 +4528,7 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -4533,16 +4537,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -4553,7 +4557,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4564,7 +4568,7 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -4573,16 +4577,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -4593,7 +4597,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>the connection,</t>
+          <t>for a long time.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4604,7 +4608,7 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -4613,27 +4617,31 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>haven't</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>You haven't seen me for ages.</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4644,7 +4652,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4653,11 +4661,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4665,19 +4673,15 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>I haven't seen you for a long time.</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4688,7 +4692,7 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -4697,11 +4701,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4712,12 +4716,12 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>for ages.</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4728,7 +4732,7 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4737,11 +4741,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4749,15 +4753,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>We haven't seen Ken for months.</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>for a long time.</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4768,7 +4776,7 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -4777,11 +4785,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4789,19 +4797,15 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>You haven't seen me for ages.</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4812,7 +4816,7 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4821,11 +4825,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4836,12 +4840,12 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>for months.</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4852,7 +4856,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4861,11 +4865,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4873,15 +4877,19 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>They haven't seen him for years.</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>for ages.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4892,7 +4900,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4901,11 +4909,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4913,19 +4921,15 @@
           <t>haven't</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>We haven't seen Ken for months.</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4936,7 +4940,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -4945,11 +4949,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4960,12 +4964,12 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>for years.</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4976,7 +4980,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -4985,27 +4989,31 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>I want something hot.</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>for months.</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5016,7 +5024,7 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -5025,31 +5033,27 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>They haven't seen him for years.</t>
-        </is>
-      </c>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5060,7 +5064,7 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5069,27 +5073,27 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>something hot.</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5100,7 +5104,7 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -5109,27 +5113,31 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>You want something spicy.</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>for years.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5140,7 +5148,7 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -5149,11 +5157,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5161,19 +5169,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>I want something hot.</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5184,7 +5188,7 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -5193,11 +5197,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5208,12 +5212,12 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>something spicy.</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5224,7 +5228,7 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -5233,11 +5237,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5245,15 +5249,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>We want something sweet.</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>something hot.</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5264,7 +5272,7 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -5273,11 +5281,11 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5285,19 +5293,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>You want something spicy.</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5308,7 +5312,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5317,11 +5321,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5332,12 +5336,12 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>something sweet.</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5348,7 +5352,7 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -5357,11 +5361,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5369,15 +5373,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>They want something fresh.</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>something spicy.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5388,7 +5396,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5397,11 +5405,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5409,19 +5417,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>We want something sweet.</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5432,7 +5436,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5441,11 +5445,11 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5456,12 +5460,12 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>something fresh.</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5472,7 +5476,7 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -5481,27 +5485,31 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Could you write it down, please?</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>something sweet.</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5512,7 +5520,7 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -5521,23 +5529,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>They want something fresh.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>S</t>
@@ -5545,7 +5549,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5556,7 +5560,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -5565,16 +5569,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -5585,7 +5589,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5596,7 +5600,7 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -5605,16 +5609,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -5625,7 +5629,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>something fresh.</t>
+          <t>it down, please?</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5636,7 +5640,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -5645,11 +5649,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5659,7 +5663,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Could you write it down, please?</t>
+          <t>Could I write the sentence down, please?</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5689,11 +5693,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5709,7 +5713,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5729,11 +5733,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5769,11 +5773,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5789,7 +5793,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>it down,</t>
+          <t>the sentence down, please?</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5809,11 +5813,11 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5821,15 +5825,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Could she write the address down, please?</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5840,7 +5848,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -5849,11 +5857,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5861,19 +5869,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Could I write the sentence down, please?</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5884,7 +5888,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -5893,11 +5897,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5908,12 +5912,12 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5924,7 +5928,7 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -5933,11 +5937,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5948,12 +5952,12 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>the address down, please?</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5964,7 +5968,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -5973,11 +5977,11 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5985,15 +5989,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Could they write the number down, please?</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>the sentence down,</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6004,7 +6012,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -6013,11 +6021,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6028,12 +6036,12 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6044,7 +6052,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -6053,11 +6061,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6065,19 +6073,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Could she write the address down, please?</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6088,7 +6092,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -6097,11 +6101,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6112,12 +6116,12 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>the number down, please?</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6128,7 +6132,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -6137,27 +6141,31 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>I can't afford it.</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6168,7 +6176,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -6177,27 +6185,27 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>the address down,</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6208,7 +6216,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -6217,27 +6225,27 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>afford it.</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6248,7 +6256,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -6257,31 +6265,31 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Could they write the number down, please?</t>
+          <t>You can't afford the jacket.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6301,27 +6309,27 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6341,27 +6349,27 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>afford the jacket.</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6381,27 +6389,31 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>She can't afford the car.</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>the number down,</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6412,7 +6424,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -6421,27 +6433,27 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6452,7 +6464,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -6461,11 +6473,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6473,19 +6485,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>I can't afford it.</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>afford the car.</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6496,7 +6504,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -6505,11 +6513,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6517,15 +6525,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>They can't afford the house.</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6536,7 +6548,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -6545,11 +6557,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6560,12 +6572,12 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>afford it.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6576,7 +6588,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -6585,11 +6597,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6597,19 +6609,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>You can't afford the jacket.</t>
-        </is>
-      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>afford the house.</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6620,7 +6628,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -6629,27 +6637,31 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>I believe you.</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6660,7 +6672,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -6669,27 +6681,27 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>afford the jacket.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6700,7 +6712,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -6709,31 +6721,27 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>She can't afford the car.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6744,7 +6752,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -6753,27 +6761,31 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>You believe Tom.</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6784,7 +6796,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -6793,27 +6805,27 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>afford the car.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6824,7 +6836,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -6833,31 +6845,27 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>They can't afford the house.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom.</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6868,7 +6876,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6877,27 +6885,31 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>We believe her.</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6908,7 +6920,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6917,27 +6929,27 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>afford the house.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6948,7 +6960,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6957,11 +6969,11 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6969,19 +6981,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>I believe you.</t>
-        </is>
-      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6992,7 +7000,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -7001,11 +7009,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7013,15 +7021,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>They believe him.</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7032,7 +7044,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7041,11 +7053,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7056,12 +7068,12 @@
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7072,7 +7084,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -7081,11 +7093,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7093,19 +7105,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>You believe Tom.</t>
-        </is>
-      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>him.</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7116,7 +7124,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -7125,27 +7133,31 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Henry mentioned the fact.</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7156,7 +7168,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7165,27 +7177,27 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Tom.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7196,7 +7208,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7205,31 +7217,27 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>We believe her.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>the fact.</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7240,7 +7248,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7249,27 +7257,31 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Sarah mentioned the issue.</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7280,7 +7292,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -7289,27 +7301,27 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7320,7 +7332,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -7329,31 +7341,27 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>They believe him.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the issue.</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7364,7 +7372,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -7373,27 +7381,31 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Tom mentioned the problem.</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7404,7 +7416,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -7413,27 +7425,27 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>him.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7444,7 +7456,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -7453,11 +7465,11 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7465,19 +7477,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Henry mentioned the fact.</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>the problem.</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7488,7 +7496,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7497,11 +7505,11 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7509,15 +7517,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>They mentioned the concern.</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7528,7 +7540,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7537,11 +7549,11 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7552,12 +7564,12 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>the fact.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7568,7 +7580,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7577,11 +7589,11 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7589,19 +7601,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Sarah mentioned the issue.</t>
-        </is>
-      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>the concern.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7612,7 +7620,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7621,27 +7629,31 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>He entered her room.</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7652,7 +7664,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7661,27 +7673,27 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>the issue.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7692,7 +7704,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7701,31 +7713,27 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Tom mentioned the problem.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>her room.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7736,7 +7744,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7745,27 +7753,31 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>She entered his office.</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7776,7 +7788,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7785,27 +7797,27 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>the problem.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7816,7 +7828,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7825,31 +7837,27 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>They mentioned the concern.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>his office.</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7860,7 +7868,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7869,27 +7877,31 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Tom entered Sarah's house.</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7900,7 +7912,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7909,27 +7921,27 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>the concern.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7940,7 +7952,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7949,11 +7961,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7961,19 +7973,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>He entered her room.</t>
-        </is>
-      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Sarah's house.</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7984,7 +7992,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7993,11 +8001,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8005,15 +8013,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>They entered the building.</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8024,7 +8036,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -8033,11 +8045,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8048,12 +8060,12 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>her room.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8064,7 +8076,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8073,11 +8085,11 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8085,19 +8097,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>She entered his office.</t>
-        </is>
-      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8108,7 +8116,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -8117,27 +8125,31 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>He left New York a few days ago.</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8148,7 +8160,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -8157,27 +8169,27 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>his office.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8188,7 +8200,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -8197,31 +8209,27 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Tom entered Sarah's house.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>New York a few days ago.</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8232,7 +8240,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -8241,27 +8249,31 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>She left Rome last week.</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8272,7 +8284,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -8281,27 +8293,27 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Sarah's house.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8312,7 +8324,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8321,31 +8333,27 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>They entered the building.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Rome last week.</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8356,7 +8364,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -8365,27 +8373,31 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Tom left Paris yesterday.</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8396,7 +8408,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -8405,27 +8417,27 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8436,7 +8448,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -8445,11 +8457,11 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8457,19 +8469,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>He left New York a few days ago.</t>
-        </is>
-      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Paris yesterday.</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8480,7 +8488,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -8489,11 +8497,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8501,15 +8509,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>They left London this morning.</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8520,7 +8532,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -8529,11 +8541,11 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8544,12 +8556,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>New York a few days ago.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8560,7 +8572,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -8569,11 +8581,11 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8581,19 +8593,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>She left Rome last week.</t>
-        </is>
-      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>London this morning.</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8604,7 +8612,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -8613,27 +8621,31 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>He reached Boston the next morning.</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8644,7 +8656,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8653,27 +8665,27 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Rome last week.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8684,7 +8696,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -8693,31 +8705,27 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Tom left Paris yesterday.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Boston the next morning.</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8728,7 +8736,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -8737,27 +8745,31 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>She reached Milan that evening.</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8768,7 +8780,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -8777,27 +8789,27 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Paris yesterday.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8808,7 +8820,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -8817,31 +8829,27 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>They left London this morning.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Milan that evening.</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8852,7 +8860,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -8861,27 +8869,31 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Tom reached Tokyo at noon.</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8892,7 +8904,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -8901,27 +8913,27 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>London this morning.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8932,7 +8944,7 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -8941,11 +8953,11 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8953,19 +8965,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>He reached Boston the next morning.</t>
-        </is>
-      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8976,7 +8984,7 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -8985,11 +8993,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9000,12 +9008,12 @@
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>at noon.</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9016,7 +9024,7 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
@@ -9025,11 +9033,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9037,15 +9045,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>They reached Berlin at midnight.</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Boston the next morning.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9056,7 +9068,7 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
@@ -9065,11 +9077,11 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9077,19 +9089,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>She reached Milan that evening.</t>
-        </is>
-      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9100,7 +9108,7 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K210" t="n">
         <v>0</v>
@@ -9109,11 +9117,11 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9124,12 +9132,12 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9140,7 +9148,7 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K211" t="n">
         <v>0</v>
@@ -9149,11 +9157,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9164,12 +9172,12 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Milan that evening.</t>
+          <t>at midnight.</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9180,7 +9188,7 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -9189,21 +9197,21 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Tom reached Tokyo at noon.</t>
+          <t>I approach Tokyo.</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9213,7 +9221,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9233,16 +9241,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
@@ -9253,7 +9261,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9273,16 +9281,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
@@ -9293,7 +9301,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Tokyo.</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9313,27 +9321,31 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>You approach the station.</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>at noon.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9344,7 +9356,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -9353,31 +9365,27 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>They reached Berlin at midnight.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9388,7 +9396,7 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K217" t="n">
         <v>0</v>
@@ -9397,27 +9405,27 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>the station.</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9428,7 +9436,7 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K218" t="n">
         <v>0</v>
@@ -9437,27 +9445,31 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>We approach the building.</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9468,7 +9480,7 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K219" t="n">
         <v>0</v>
@@ -9477,27 +9489,27 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>at midnight.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9508,7 +9520,7 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K220" t="n">
         <v>0</v>
@@ -9517,11 +9529,11 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9529,19 +9541,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>I approach Tokyo.</t>
-        </is>
-      </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9552,7 +9560,7 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K221" t="n">
         <v>0</v>
@@ -9561,11 +9569,11 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9573,15 +9581,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>They approach the destination.</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9592,7 +9604,7 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K222" t="n">
         <v>0</v>
@@ -9601,11 +9613,11 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9616,12 +9628,12 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Tokyo.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9632,7 +9644,7 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K223" t="n">
         <v>0</v>
@@ -9641,11 +9653,11 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9653,19 +9665,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>You approach the station.</t>
-        </is>
-      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>the destination.</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9676,7 +9684,7 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -9685,27 +9693,31 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>He resembles his mother.</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9716,7 +9728,7 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -9725,27 +9737,27 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>the station.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9756,7 +9768,7 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -9765,31 +9777,27 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>We approach the building.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>his mother.</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9800,7 +9808,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K227" t="n">
         <v>0</v>
@@ -9809,27 +9817,31 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>She resembles her father.</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9840,7 +9852,7 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -9849,27 +9861,27 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9880,7 +9892,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -9889,31 +9901,27 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>They approach the destination.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>her father.</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9924,7 +9932,7 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -9933,27 +9941,31 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Tom resembles his uncle.</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9964,7 +9976,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -9973,27 +9985,27 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>the destination.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10004,7 +10016,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -10013,11 +10025,11 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -10025,19 +10037,15 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>He resembles his mother.</t>
-        </is>
-      </c>
+      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>his uncle.</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10048,7 +10056,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -10057,27 +10065,31 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>They resemble their parents.</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10088,7 +10100,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -10097,27 +10109,27 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>his mother.</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10128,7 +10140,7 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -10137,31 +10149,27 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>She resembles her father.</t>
-        </is>
-      </c>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>their parents.</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10172,7 +10180,7 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -10181,27 +10189,31 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>She married a bald man.</t>
+        </is>
+      </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10212,7 +10224,7 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -10221,27 +10233,27 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>her father.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10252,7 +10264,7 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -10261,31 +10273,27 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Tom resembles his uncle.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>a bald man.</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10296,7 +10304,7 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -10305,27 +10313,31 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>He married a quiet woman.</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10336,7 +10348,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -10345,27 +10357,27 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>his uncle.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10376,7 +10388,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -10385,31 +10397,27 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>They resemble their parents.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>a quiet woman.</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10420,7 +10428,7 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -10429,27 +10437,31 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Sarah married a kind person.</t>
+        </is>
+      </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10460,7 +10472,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -10469,27 +10481,27 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>their parents.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10500,7 +10512,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -10509,11 +10521,11 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10521,19 +10533,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>She married a bald man.</t>
-        </is>
-      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>a kind person.</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10544,7 +10552,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -10553,11 +10561,11 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -10565,15 +10573,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>They married their partners.</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10584,7 +10596,7 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -10593,11 +10605,11 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10608,12 +10620,12 @@
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>a bald man.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10624,7 +10636,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -10633,11 +10645,11 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10645,19 +10657,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>He married a quiet woman.</t>
-        </is>
-      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>their partners.</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10668,7 +10676,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -10677,11 +10685,11 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10689,15 +10697,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>She's been married to a bald man for 5 years.</t>
+        </is>
+      </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She's</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10708,7 +10720,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -10717,11 +10729,11 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10732,12 +10744,12 @@
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>a quiet woman.</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10748,7 +10760,7 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -10757,11 +10769,11 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10769,19 +10781,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Sarah married a kind person.</t>
-        </is>
-      </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10792,7 +10800,7 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -10801,11 +10809,11 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10813,15 +10821,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>He's been married to a kind woman for 3 years.</t>
+        </is>
+      </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He's</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10832,7 +10844,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10841,11 +10853,11 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10856,12 +10868,12 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>a kind person.</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10872,7 +10884,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -10881,11 +10893,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10893,19 +10905,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>They married their partners.</t>
-        </is>
-      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10916,7 +10924,7 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -10925,11 +10933,11 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10937,15 +10945,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr"/>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Sarah's been married to a nice person for 2 years.</t>
+        </is>
+      </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Sarah's</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10956,7 +10968,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10965,11 +10977,11 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10980,12 +10992,12 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>their partners.</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10996,7 +11008,7 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -11005,11 +11017,11 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11017,19 +11029,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>She's been married to a bald man for 5 years.</t>
-        </is>
-      </c>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>She's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11040,7 +11048,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -11049,11 +11057,11 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11061,15 +11069,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr"/>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Tom's been married to a lovely partner for 10 years.</t>
+        </is>
+      </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Tom's</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11080,7 +11092,7 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -11089,11 +11101,11 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11129,11 +11141,11 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11141,19 +11153,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>He's been married to a kind woman for 3 years.</t>
-        </is>
-      </c>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>He's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11164,7 +11172,7 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
@@ -11173,27 +11181,31 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>He'll answer your letter soon.</t>
+        </is>
+      </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He'll</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11204,7 +11216,7 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K261" t="n">
         <v>0</v>
@@ -11213,27 +11225,27 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11244,7 +11256,7 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -11253,31 +11265,27 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Sarah's been married to a nice person for 2 years.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Sarah's</t>
+          <t>your letter soon.</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11288,7 +11296,7 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K263" t="n">
         <v>0</v>
@@ -11297,27 +11305,31 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>She'll answer his message tomorrow.</t>
+        </is>
+      </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She'll</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11328,7 +11340,7 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K264" t="n">
         <v>0</v>
@@ -11337,27 +11349,27 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11368,7 +11380,7 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K265" t="n">
         <v>0</v>
@@ -11377,31 +11389,27 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Tom's been married to a lovely partner for 10 years.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Tom's</t>
+          <t>his message tomorrow.</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11412,7 +11420,7 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -11421,27 +11429,31 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Tom'll answer the email later.</t>
+        </is>
+      </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Tom'll</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11452,7 +11464,7 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -11461,27 +11473,27 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11492,7 +11504,7 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K268" t="n">
         <v>0</v>
@@ -11501,11 +11513,11 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11513,19 +11525,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>He'll answer your letter soon.</t>
-        </is>
-      </c>
+      <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>He'll</t>
+          <t>the email later.</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11536,7 +11544,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -11545,11 +11553,11 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11557,15 +11565,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr"/>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>They'll answer our call tonight.</t>
+        </is>
+      </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>They'll</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11576,7 +11588,7 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -11585,11 +11597,11 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11600,12 +11612,12 @@
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>your letter soon.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11616,7 +11628,7 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
@@ -11625,11 +11637,11 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11637,19 +11649,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>She'll answer his message tomorrow.</t>
-        </is>
-      </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>She'll</t>
+          <t>our call tonight.</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11660,7 +11668,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
@@ -11669,27 +11677,31 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr"/>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>We discuss our schedule.</t>
+        </is>
+      </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11700,7 +11712,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K273" t="n">
         <v>0</v>
@@ -11709,27 +11721,27 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>his message tomorrow.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11740,7 +11752,7 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -11749,31 +11761,27 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Tom'll answer the email later.</t>
-        </is>
-      </c>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Tom'll</t>
+          <t>our schedule.</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11784,7 +11792,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K275" t="n">
         <v>0</v>
@@ -11793,27 +11801,31 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr"/>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>You discuss your project.</t>
+        </is>
+      </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11824,7 +11836,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -11833,27 +11845,27 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>the email later.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11864,7 +11876,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K277" t="n">
         <v>0</v>
@@ -11873,31 +11885,27 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>They'll answer our call tonight.</t>
-        </is>
-      </c>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>They'll</t>
+          <t>your project.</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11908,7 +11916,7 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
@@ -11917,27 +11925,31 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr"/>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>They discuss their plan.</t>
+        </is>
+      </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11948,7 +11960,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -11957,27 +11969,27 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>our call tonight.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11988,7 +12000,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K280" t="n">
         <v>0</v>
@@ -11997,11 +12009,11 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -12009,19 +12021,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>We discuss our schedule.</t>
-        </is>
-      </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>their plan.</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12032,7 +12040,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -12041,11 +12049,11 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex085</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -12053,15 +12061,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr"/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>I discuss my proposal.</t>
+        </is>
+      </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12072,7 +12084,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -12081,11 +12093,11 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex085</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -12096,12 +12108,12 @@
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>our schedule.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12112,7 +12124,7 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K283" t="n">
         <v>0</v>
@@ -12121,11 +12133,11 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex085</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -12133,19 +12145,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>You discuss your project.</t>
-        </is>
-      </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>my proposal.</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12156,340 +12164,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
       </c>
       <c r="L284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>ex083</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr"/>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H285" t="inlineStr"/>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2</v>
-      </c>
-      <c r="K285" t="n">
-        <v>0</v>
-      </c>
-      <c r="L285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>ex083</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr"/>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>your project.</t>
-        </is>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>3</v>
-      </c>
-      <c r="K286" t="n">
-        <v>0</v>
-      </c>
-      <c r="L286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>ex084</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>They discuss their plan.</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>They</t>
-        </is>
-      </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>1</v>
-      </c>
-      <c r="K287" t="n">
-        <v>0</v>
-      </c>
-      <c r="L287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>ex084</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr"/>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2</v>
-      </c>
-      <c r="K288" t="n">
-        <v>0</v>
-      </c>
-      <c r="L288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>ex084</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr"/>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>their plan.</t>
-        </is>
-      </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>3</v>
-      </c>
-      <c r="K289" t="n">
-        <v>0</v>
-      </c>
-      <c r="L289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>ex085</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>I discuss my proposal.</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1</v>
-      </c>
-      <c r="K290" t="n">
-        <v>0</v>
-      </c>
-      <c r="L290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>ex085</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2</v>
-      </c>
-      <c r="K291" t="n">
-        <v>0</v>
-      </c>
-      <c r="L291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>ex085</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>my proposal.</t>
-        </is>
-      </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>3</v>
-      </c>
-      <c r="K292" t="n">
-        <v>0</v>
-      </c>
-      <c r="L292" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -978,7 +978,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H188" t="inlineStr"/>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H189" t="inlineStr"/>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H190" t="inlineStr"/>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H192" t="inlineStr"/>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
@@ -8514,7 +8514,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H201" t="inlineStr"/>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H202" t="inlineStr"/>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H203" t="inlineStr"/>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H204" t="inlineStr"/>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H206" t="inlineStr"/>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H207" t="inlineStr"/>
@@ -9010,7 +9010,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H209" t="inlineStr"/>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H212" t="inlineStr"/>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H213" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H214" t="inlineStr"/>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H215" t="inlineStr"/>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
@@ -9794,7 +9794,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
@@ -9874,7 +9874,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
@@ -10166,7 +10166,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H237" t="inlineStr"/>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H239" t="inlineStr"/>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
@@ -10414,7 +10414,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H244" t="inlineStr"/>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H247" t="inlineStr"/>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H249" t="inlineStr"/>
@@ -10742,7 +10742,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H250" t="inlineStr"/>
@@ -10786,7 +10786,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H251" t="inlineStr"/>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H252" t="inlineStr"/>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H253" t="inlineStr"/>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
@@ -10950,7 +10950,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H255" t="inlineStr"/>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
@@ -11034,7 +11034,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H260" t="inlineStr"/>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
@@ -11238,7 +11238,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H263" t="inlineStr"/>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H264" t="inlineStr"/>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H265" t="inlineStr"/>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H266" t="inlineStr"/>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H268" t="inlineStr"/>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H269" t="inlineStr"/>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H270" t="inlineStr"/>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H271" t="inlineStr"/>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H272" t="inlineStr"/>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H273" t="inlineStr"/>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H274" t="inlineStr"/>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H275" t="inlineStr"/>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H277" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H278" t="inlineStr"/>
@@ -11942,7 +11942,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H279" t="inlineStr"/>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H280" t="inlineStr"/>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H281" t="inlineStr"/>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H282" t="inlineStr"/>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H283" t="inlineStr"/>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H284" t="inlineStr"/>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H285" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H286" t="inlineStr"/>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H287" t="inlineStr"/>
@@ -12314,7 +12314,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H288" t="inlineStr"/>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H289" t="inlineStr"/>
@@ -12398,7 +12398,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H290" t="inlineStr"/>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H291" t="inlineStr"/>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H292" t="inlineStr"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -978,7 +978,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H188" t="inlineStr"/>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H189" t="inlineStr"/>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H190" t="inlineStr"/>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H192" t="inlineStr"/>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
@@ -8514,7 +8514,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H201" t="inlineStr"/>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H202" t="inlineStr"/>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H203" t="inlineStr"/>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H204" t="inlineStr"/>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H206" t="inlineStr"/>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H207" t="inlineStr"/>
@@ -9010,7 +9010,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H209" t="inlineStr"/>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H212" t="inlineStr"/>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H213" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H214" t="inlineStr"/>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H215" t="inlineStr"/>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
@@ -9794,7 +9794,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
@@ -9874,7 +9874,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
@@ -10166,7 +10166,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H237" t="inlineStr"/>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H239" t="inlineStr"/>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
@@ -10414,7 +10414,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H244" t="inlineStr"/>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H247" t="inlineStr"/>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H249" t="inlineStr"/>
@@ -10742,7 +10742,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H250" t="inlineStr"/>
@@ -10786,7 +10786,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H251" t="inlineStr"/>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H252" t="inlineStr"/>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H253" t="inlineStr"/>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
@@ -10950,7 +10950,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H255" t="inlineStr"/>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
@@ -11034,7 +11034,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H260" t="inlineStr"/>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
@@ -11238,7 +11238,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H263" t="inlineStr"/>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H264" t="inlineStr"/>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H265" t="inlineStr"/>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H266" t="inlineStr"/>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H268" t="inlineStr"/>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H269" t="inlineStr"/>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H270" t="inlineStr"/>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H271" t="inlineStr"/>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H272" t="inlineStr"/>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H273" t="inlineStr"/>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H274" t="inlineStr"/>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H275" t="inlineStr"/>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H277" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H278" t="inlineStr"/>
@@ -11942,7 +11942,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H279" t="inlineStr"/>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H280" t="inlineStr"/>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H281" t="inlineStr"/>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H282" t="inlineStr"/>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H283" t="inlineStr"/>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H284" t="inlineStr"/>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H285" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H286" t="inlineStr"/>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H287" t="inlineStr"/>
@@ -12314,7 +12314,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H288" t="inlineStr"/>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H289" t="inlineStr"/>
@@ -12398,7 +12398,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H290" t="inlineStr"/>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H291" t="inlineStr"/>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H292" t="inlineStr"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L292"/>
+  <dimension ref="A1:L296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Would I hold the call, please?</t>
+          <t>Would you hold the call, please?</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Would she hold the phone, please?</t>
+          <t>Would you hold the phone, please?</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Would they hold the connection, please?</t>
+          <t>Would you hold the connection, please?</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4746,13 +4746,13 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4777,31 +4777,27 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>You haven't seen me for ages.</t>
-        </is>
-      </c>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>have not</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4812,7 +4808,7 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4830,18 +4826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>You haven't seen me for ages.</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4852,7 +4852,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4870,18 +4870,18 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>for ages.</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4892,7 +4892,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4901,31 +4901,27 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>We haven't seen Ken for months.</t>
-        </is>
-      </c>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>for ages.</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4936,7 +4932,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -4945,27 +4941,27 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>have not</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4976,7 +4972,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -4994,18 +4990,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>We haven't seen Ken for months.</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>for months.</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5016,7 +5016,7 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -5025,31 +5025,27 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>haven't</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>They haven't seen him for years.</t>
-        </is>
-      </c>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5060,7 +5056,7 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5069,27 +5065,27 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>for months.</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5100,7 +5096,7 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -5109,27 +5105,27 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>haven't</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>for years.</t>
+          <t>have not</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5140,7 +5136,7 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -5149,21 +5145,21 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>I want something hot.</t>
+          <t>They haven't seen him for years.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5173,7 +5169,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5193,16 +5189,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -5213,7 +5209,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5233,27 +5229,27 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>something hot.</t>
+          <t>for years.</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5273,31 +5269,27 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>You want something spicy.</t>
-        </is>
-      </c>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>have not</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5308,7 +5300,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5317,11 +5309,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5329,15 +5321,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>I want something hot.</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5348,7 +5344,7 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -5357,11 +5353,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5372,12 +5368,12 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>something spicy.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5388,7 +5384,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5397,11 +5393,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5409,19 +5405,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>We want something sweet.</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>something hot.</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5432,7 +5424,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5441,11 +5433,11 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5453,15 +5445,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>You want something spicy.</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5472,7 +5468,7 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -5481,11 +5477,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5496,12 +5492,12 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>something sweet.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5512,7 +5508,7 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -5521,11 +5517,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5533,19 +5529,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>They want something fresh.</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>something spicy.</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5556,7 +5548,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -5565,11 +5557,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5577,15 +5569,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>We want something sweet.</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5596,7 +5592,7 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -5605,11 +5601,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5620,12 +5616,12 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>something fresh.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5636,7 +5632,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -5645,31 +5641,27 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Could you write it down, please?</t>
-        </is>
-      </c>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>something sweet.</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5680,7 +5672,7 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -5689,19 +5681,23 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>They want something fresh.</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>S</t>
@@ -5709,7 +5705,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5720,7 +5716,7 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -5729,16 +5725,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -5749,7 +5745,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5760,7 +5756,7 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -5769,16 +5765,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -5789,7 +5785,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>it down,</t>
+          <t>something fresh.</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5800,7 +5796,7 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -5821,15 +5817,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Could you write it down, please?</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5840,7 +5840,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -5849,11 +5849,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5861,19 +5861,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Could I write the sentence down, please?</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5884,7 +5880,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -5893,11 +5889,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5908,12 +5904,12 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5924,7 +5920,7 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -5933,11 +5929,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5948,12 +5944,12 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>it down,</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5964,7 +5960,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -5973,11 +5969,11 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5988,12 +5984,12 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>the sentence down,</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6004,7 +6000,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -6025,15 +6021,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Could I write the sentence down, please?</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6044,7 +6044,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -6053,11 +6053,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6065,19 +6065,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Could she write the address down, please?</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6088,7 +6084,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -6097,11 +6093,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6112,12 +6108,12 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6128,7 +6124,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -6137,11 +6133,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6152,12 +6148,12 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>the sentence down,</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6168,7 +6164,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -6177,11 +6173,11 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6192,12 +6188,12 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>the address down,</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6208,7 +6204,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -6229,15 +6225,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Could she write the address down, please?</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6248,7 +6248,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -6257,11 +6257,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6269,19 +6269,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Could they write the number down, please?</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6292,7 +6288,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -6301,11 +6297,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6316,12 +6312,12 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6332,7 +6328,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -6341,11 +6337,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6356,12 +6352,12 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>the address down,</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6372,7 +6368,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -6381,11 +6377,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6396,12 +6392,12 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>the number down,</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6412,7 +6408,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -6433,15 +6429,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Could they write the number down, please?</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6452,7 +6452,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -6461,23 +6461,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>I can't afford it.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
           <t>S</t>
@@ -6485,7 +6481,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6496,7 +6492,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -6505,16 +6501,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -6525,7 +6521,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6536,7 +6532,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -6545,16 +6541,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -6565,7 +6561,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>afford it.</t>
+          <t>the number down,</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6576,7 +6572,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -6585,31 +6581,27 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>You can't afford the jacket.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6620,7 +6612,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -6629,11 +6621,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6641,15 +6633,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>I can't afford it.</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6660,7 +6656,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -6669,11 +6665,11 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6684,12 +6680,12 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>afford the jacket.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6700,7 +6696,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -6709,11 +6705,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6721,19 +6717,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>She can't afford the car.</t>
-        </is>
-      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>afford it.</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6744,7 +6736,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -6753,11 +6745,11 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6765,15 +6757,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>You can't afford the jacket.</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6784,7 +6780,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -6793,11 +6789,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6808,12 +6804,12 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>afford the car.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6824,7 +6820,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -6833,11 +6829,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6845,19 +6841,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>They can't afford the house.</t>
-        </is>
-      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>afford the jacket.</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6868,7 +6860,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6877,11 +6869,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6889,15 +6881,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>She can't afford the car.</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6908,7 +6904,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6917,11 +6913,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6932,12 +6928,12 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>afford the house.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6948,7 +6944,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6957,31 +6953,27 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>I believe you.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>afford the car.</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6992,7 +6984,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -7001,27 +6993,31 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>They can't afford the house.</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7032,7 +7028,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7041,27 +7037,27 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7072,7 +7068,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -7081,31 +7077,27 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>You believe Tom.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>afford the house.</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7116,7 +7108,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -7125,11 +7117,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7137,15 +7129,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>I believe you.</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7156,7 +7152,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7165,11 +7161,11 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7180,12 +7176,12 @@
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Tom.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7196,7 +7192,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7205,11 +7201,11 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7217,19 +7213,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>We believe her.</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7240,7 +7232,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7249,11 +7241,11 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7261,15 +7253,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>You believe Tom.</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7280,7 +7276,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -7289,11 +7285,11 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7304,12 +7300,12 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7320,7 +7316,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -7329,11 +7325,11 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7341,19 +7337,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>They believe him.</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom.</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7364,7 +7356,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -7373,11 +7365,11 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7385,15 +7377,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>We believe her.</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7404,7 +7400,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -7413,11 +7409,11 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7428,12 +7424,12 @@
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>him.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7444,7 +7440,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -7453,31 +7449,27 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Henry mentioned the fact.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7488,7 +7480,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7497,27 +7489,31 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>They believe him.</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7528,7 +7524,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7537,27 +7533,27 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>the fact.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7568,7 +7564,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7577,31 +7573,27 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Sarah mentioned the issue.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>him.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7612,7 +7604,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7621,11 +7613,11 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7633,15 +7625,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Henry mentioned the fact.</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7652,7 +7648,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7661,11 +7657,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7676,12 +7672,12 @@
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>the issue.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7692,7 +7688,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7701,11 +7697,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7713,19 +7709,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Tom mentioned the problem.</t>
-        </is>
-      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>the fact.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7736,7 +7728,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7745,11 +7737,11 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7757,15 +7749,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Sarah mentioned the issue.</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7776,7 +7772,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7785,11 +7781,11 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7800,12 +7796,12 @@
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>the problem.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7816,7 +7812,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7825,11 +7821,11 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7837,19 +7833,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>They mentioned the concern.</t>
-        </is>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the issue.</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7860,7 +7852,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7869,11 +7861,11 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7881,15 +7873,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Tom mentioned the problem.</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7900,7 +7896,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7909,11 +7905,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7924,12 +7920,12 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>the concern.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7940,7 +7936,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7949,31 +7945,27 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>He entered her room.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>the problem.</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7984,7 +7976,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7993,27 +7985,31 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>They mentioned the concern.</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8024,7 +8020,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -8033,27 +8029,27 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>her room.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8064,7 +8060,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8073,31 +8069,27 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>She entered his office.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the concern.</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8108,7 +8100,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -8117,11 +8109,11 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8129,15 +8121,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>He entered her room.</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8148,7 +8144,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -8157,11 +8153,11 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8172,12 +8168,12 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>his office.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8188,7 +8184,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -8197,11 +8193,11 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8209,19 +8205,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Tom entered Sarah's house.</t>
-        </is>
-      </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>her room.</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8232,7 +8224,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -8241,11 +8233,11 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8253,15 +8245,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>She entered his office.</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8272,7 +8268,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -8281,11 +8277,11 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8296,12 +8292,12 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Sarah's house.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8312,7 +8308,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8321,11 +8317,11 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8333,19 +8329,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>They entered the building.</t>
-        </is>
-      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>his office.</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8356,7 +8348,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -8365,11 +8357,11 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8377,15 +8369,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Tom entered Sarah's house.</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8396,7 +8392,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -8405,11 +8401,11 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8420,12 +8416,12 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8436,7 +8432,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -8445,31 +8441,27 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>He left New York a few days ago.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Sarah's house.</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8480,7 +8472,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -8489,27 +8481,31 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>They entered the building.</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8520,7 +8516,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -8529,27 +8525,27 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>New York a few days ago.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8560,7 +8556,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -8569,31 +8565,27 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>She left Rome last week.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8604,7 +8596,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -8613,11 +8605,11 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8625,15 +8617,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>He left New York a few days ago.</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8644,7 +8640,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8653,11 +8649,11 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8668,12 +8664,12 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Rome last week.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8684,7 +8680,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -8693,11 +8689,11 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8705,19 +8701,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Tom left Paris yesterday.</t>
-        </is>
-      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>New York a few days ago.</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8728,7 +8720,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -8737,11 +8729,11 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8749,15 +8741,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>She left Rome last week.</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8768,7 +8764,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -8777,11 +8773,11 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8792,12 +8788,12 @@
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Paris yesterday.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8808,7 +8804,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -8817,11 +8813,11 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8829,19 +8825,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>They left London this morning.</t>
-        </is>
-      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Rome last week.</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8852,7 +8844,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -8861,11 +8853,11 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8873,15 +8865,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Tom left Paris yesterday.</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8892,7 +8888,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -8901,11 +8897,11 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8916,12 +8912,12 @@
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>London this morning.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8932,7 +8928,7 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -8941,31 +8937,27 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>He reached Boston the next morning.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Paris yesterday.</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8976,7 +8968,7 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -8985,27 +8977,31 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>They left London this morning.</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9016,7 +9012,7 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
@@ -9025,27 +9021,27 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Boston the next morning.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9056,7 +9052,7 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
@@ -9065,31 +9061,27 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>She reached Milan that evening.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>London this morning.</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9100,7 +9092,7 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K210" t="n">
         <v>0</v>
@@ -9109,11 +9101,11 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9121,15 +9113,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>He reached Boston the next morning.</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9140,7 +9136,7 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K211" t="n">
         <v>0</v>
@@ -9149,11 +9145,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9164,12 +9160,12 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Milan that evening.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9180,7 +9176,7 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -9189,11 +9185,11 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -9201,19 +9197,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Tom reached Tokyo at noon.</t>
-        </is>
-      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Boston the next morning.</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9224,7 +9216,7 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K213" t="n">
         <v>0</v>
@@ -9233,11 +9225,11 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -9245,15 +9237,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>She reached Milan that evening.</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9264,7 +9260,7 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K214" t="n">
         <v>0</v>
@@ -9273,11 +9269,11 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9288,12 +9284,12 @@
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9304,7 +9300,7 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K215" t="n">
         <v>0</v>
@@ -9313,11 +9309,11 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9328,12 +9324,12 @@
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>at noon.</t>
+          <t>Milan that evening.</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9344,7 +9340,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -9353,11 +9349,11 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9367,7 +9363,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>They reached Berlin at midnight.</t>
+          <t>Tom reached Tokyo at noon.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9377,7 +9373,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9397,11 +9393,11 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9437,11 +9433,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9457,7 +9453,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9477,11 +9473,11 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9497,7 +9493,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>at midnight.</t>
+          <t>at noon.</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9517,21 +9513,21 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>I approach Tokyo.</t>
+          <t>They reached Berlin at midnight.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9541,7 +9537,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9561,16 +9557,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
@@ -9581,7 +9577,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9601,16 +9597,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
@@ -9621,7 +9617,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Tokyo.</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9641,31 +9637,27 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>You approach the station.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>at midnight.</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9676,7 +9668,7 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -9685,11 +9677,11 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9697,15 +9689,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>I approach Tokyo.</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9716,7 +9712,7 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -9725,11 +9721,11 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9740,12 +9736,12 @@
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>the station.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9756,7 +9752,7 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -9765,11 +9761,11 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9777,19 +9773,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>We approach the building.</t>
-        </is>
-      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>Tokyo.</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9800,7 +9792,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K227" t="n">
         <v>0</v>
@@ -9809,11 +9801,11 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9821,15 +9813,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>You approach the station.</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9840,7 +9836,7 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -9849,11 +9845,11 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9864,12 +9860,12 @@
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9880,7 +9876,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -9889,11 +9885,11 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9901,19 +9897,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>They approach the destination.</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the station.</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9924,7 +9916,7 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -9933,11 +9925,11 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9945,15 +9937,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>We approach the building.</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9964,7 +9960,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -9973,11 +9969,11 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9988,12 +9984,12 @@
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>the destination.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10004,7 +10000,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -10013,31 +10009,27 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>He resembles his mother.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10048,7 +10040,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -10057,27 +10049,31 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>They approach the destination.</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10088,7 +10084,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -10097,27 +10093,27 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>his mother.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10128,7 +10124,7 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -10137,31 +10133,27 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>She resembles her father.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the destination.</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10172,7 +10164,7 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -10181,11 +10173,11 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10193,15 +10185,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>He resembles his mother.</t>
+        </is>
+      </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10212,7 +10208,7 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -10221,11 +10217,11 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10236,12 +10232,12 @@
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>her father.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10252,7 +10248,7 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -10261,11 +10257,11 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10273,19 +10269,15 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Tom resembles his uncle.</t>
-        </is>
-      </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>his mother.</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10296,7 +10288,7 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -10305,11 +10297,11 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10317,15 +10309,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>She resembles her father.</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10336,7 +10332,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -10345,11 +10341,11 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10360,12 +10356,12 @@
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>his uncle.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10376,7 +10372,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -10385,31 +10381,27 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>They resemble their parents.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>her father.</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10420,7 +10412,7 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -10429,27 +10421,31 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Tom resembles his uncle.</t>
+        </is>
+      </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10460,7 +10456,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -10469,27 +10465,27 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>their parents.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10500,7 +10496,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -10509,31 +10505,27 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>She married a bald man.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>his uncle.</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10544,7 +10536,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -10553,27 +10545,31 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr"/>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>They resemble their parents.</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10584,7 +10580,7 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -10593,27 +10589,27 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>a bald man.</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10624,7 +10620,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -10633,31 +10629,27 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>He married a quiet woman.</t>
-        </is>
-      </c>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>their parents.</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10668,7 +10660,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -10677,11 +10669,11 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10689,15 +10681,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>She married a bald man.</t>
+        </is>
+      </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10708,7 +10704,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -10717,11 +10713,11 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10732,12 +10728,12 @@
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>a quiet woman.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10748,7 +10744,7 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -10757,11 +10753,11 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10769,19 +10765,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Sarah married a kind person.</t>
-        </is>
-      </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>a bald man.</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10792,7 +10784,7 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -10801,11 +10793,11 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10813,15 +10805,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>He married a quiet woman.</t>
+        </is>
+      </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10832,7 +10828,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10841,11 +10837,11 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10856,12 +10852,12 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>a kind person.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10872,7 +10868,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -10881,11 +10877,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10893,19 +10889,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>They married their partners.</t>
-        </is>
-      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>a quiet woman.</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10916,7 +10908,7 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -10925,11 +10917,11 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10937,15 +10929,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr"/>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Sarah married a kind person.</t>
+        </is>
+      </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10956,7 +10952,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10965,11 +10961,11 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10980,12 +10976,12 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>their partners.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10996,7 +10992,7 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -11005,11 +11001,11 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11017,19 +11013,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>She's been married to a bald man for 5 years.</t>
-        </is>
-      </c>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>She's</t>
+          <t>a kind person.</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11040,7 +11032,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -11049,11 +11041,11 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11061,15 +11053,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr"/>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>They married their partners.</t>
+        </is>
+      </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11080,7 +11076,7 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -11089,11 +11085,11 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11104,12 +11100,12 @@
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11120,7 +11116,7 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -11129,11 +11125,11 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11141,19 +11137,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>He's been married to a kind woman for 3 years.</t>
-        </is>
-      </c>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>He's</t>
+          <t>their partners.</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11164,7 +11156,7 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
@@ -11173,11 +11165,11 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11185,15 +11177,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>She's been married to a bald man for 5 years.</t>
+        </is>
+      </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She's</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11204,7 +11200,7 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K261" t="n">
         <v>0</v>
@@ -11213,11 +11209,11 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11228,12 +11224,12 @@
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11244,7 +11240,7 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -11253,11 +11249,11 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11265,19 +11261,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Sarah's been married to a nice person for 2 years.</t>
-        </is>
-      </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Sarah's</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11288,7 +11280,7 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K263" t="n">
         <v>0</v>
@@ -11297,11 +11289,11 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11309,15 +11301,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>He's been married to a kind woman for 3 years.</t>
+        </is>
+      </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He's</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11328,7 +11324,7 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K264" t="n">
         <v>0</v>
@@ -11337,11 +11333,11 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11352,12 +11348,12 @@
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11368,7 +11364,7 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K265" t="n">
         <v>0</v>
@@ -11377,11 +11373,11 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11389,19 +11385,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Tom's been married to a lovely partner for 10 years.</t>
-        </is>
-      </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Tom's</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11412,7 +11404,7 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -11421,11 +11413,11 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11433,15 +11425,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr"/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Sarah's been married to a nice person for 2 years.</t>
+        </is>
+      </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Sarah's</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11452,7 +11448,7 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -11461,11 +11457,11 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11476,12 +11472,12 @@
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11492,7 +11488,7 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K268" t="n">
         <v>0</v>
@@ -11501,31 +11497,27 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>He'll answer your letter soon.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>He'll</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11536,7 +11528,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -11545,27 +11537,31 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Tom's been married to a lovely partner for 10 years.</t>
+        </is>
+      </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>Tom's</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11576,7 +11572,7 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -11585,27 +11581,27 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>your letter soon.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11616,7 +11612,7 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
@@ -11625,31 +11621,27 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>She'll answer his message tomorrow.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>She'll</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11660,7 +11652,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
@@ -11669,11 +11661,11 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -11681,15 +11673,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>He'll answer your letter soon.</t>
+        </is>
+      </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>He'll</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11700,7 +11696,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K273" t="n">
         <v>0</v>
@@ -11709,11 +11705,11 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11724,12 +11720,12 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>his message tomorrow.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11740,7 +11736,7 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -11749,11 +11745,11 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -11761,19 +11757,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Tom'll answer the email later.</t>
-        </is>
-      </c>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Tom'll</t>
+          <t>your letter soon.</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11784,7 +11776,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K275" t="n">
         <v>0</v>
@@ -11793,11 +11785,11 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -11805,15 +11797,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>She'll answer his message tomorrow.</t>
+        </is>
+      </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>She'll</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11824,7 +11820,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -11833,11 +11829,11 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -11848,12 +11844,12 @@
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>the email later.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11864,7 +11860,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K277" t="n">
         <v>0</v>
@@ -11873,11 +11869,11 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -11885,19 +11881,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>They'll answer our call tonight.</t>
-        </is>
-      </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>They'll</t>
+          <t>his message tomorrow.</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11908,7 +11900,7 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
@@ -11917,11 +11909,11 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11929,15 +11921,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr"/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Tom'll answer the email later.</t>
+        </is>
+      </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>Tom'll</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11948,7 +11944,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -11957,11 +11953,11 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -11972,12 +11968,12 @@
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>our call tonight.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11988,7 +11984,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K280" t="n">
         <v>0</v>
@@ -11997,31 +11993,27 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>We discuss our schedule.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>the email later.</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12032,7 +12024,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -12041,27 +12033,31 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>They'll answer our call tonight.</t>
+        </is>
+      </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>They'll</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12072,7 +12068,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -12081,27 +12077,27 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>our schedule.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12112,7 +12108,7 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K283" t="n">
         <v>0</v>
@@ -12121,31 +12117,27 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>You discuss your project.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>our call tonight.</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12156,7 +12148,7 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
@@ -12165,11 +12157,11 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -12177,15 +12169,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr"/>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>We discuss our schedule.</t>
+        </is>
+      </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12196,7 +12192,7 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K285" t="n">
         <v>0</v>
@@ -12205,11 +12201,11 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -12220,12 +12216,12 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>your project.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12236,7 +12232,7 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K286" t="n">
         <v>0</v>
@@ -12245,11 +12241,11 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -12257,19 +12253,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>They discuss their plan.</t>
-        </is>
-      </c>
+      <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>our schedule.</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12280,7 +12272,7 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K287" t="n">
         <v>0</v>
@@ -12289,11 +12281,11 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -12301,15 +12293,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr"/>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>You discuss your project.</t>
+        </is>
+      </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12320,7 +12316,7 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K288" t="n">
         <v>0</v>
@@ -12329,11 +12325,11 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -12344,12 +12340,12 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>their plan.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12360,7 +12356,7 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K289" t="n">
         <v>0</v>
@@ -12369,11 +12365,11 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -12381,19 +12377,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>I discuss my proposal.</t>
-        </is>
-      </c>
+      <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>your project.</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12404,7 +12396,7 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K290" t="n">
         <v>0</v>
@@ -12413,11 +12405,11 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -12425,15 +12417,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>They discuss their plan.</t>
+        </is>
+      </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12444,7 +12440,7 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K291" t="n">
         <v>0</v>
@@ -12453,11 +12449,11 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -12468,12 +12464,12 @@
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>my proposal.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12484,12 +12480,176 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
+        <v>2</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>their plan.</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
         <v>3</v>
       </c>
-      <c r="K292" t="n">
-        <v>0</v>
-      </c>
-      <c r="L292" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>I discuss my proposal.</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>my proposal.</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L296"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +636,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4712,12 +4712,12 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4752,12 +4752,12 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>for a long time.</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4792,12 +4792,12 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>have not</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4808,7 +4808,7 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4817,11 +4817,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4829,19 +4829,15 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>You haven't seen me for ages.</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>for a long time.</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4852,7 +4848,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4873,15 +4869,19 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>You haven't seen me for ages.</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4892,7 +4892,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4916,12 +4916,12 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>for ages.</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4932,7 +4932,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -4956,12 +4956,12 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>have not</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4972,7 +4972,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -4981,11 +4981,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4993,19 +4993,15 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>We haven't seen Ken for months.</t>
-        </is>
-      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>me</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5016,7 +5012,7 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -5025,11 +5021,11 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5040,12 +5036,12 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>for ages.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5056,7 +5052,7 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5077,15 +5073,19 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>We haven't seen Ken for months.</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>for months.</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5096,7 +5096,7 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>have not</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5136,7 +5136,7 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -5145,11 +5145,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5157,19 +5157,15 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>They haven't seen him for years.</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5180,7 +5176,7 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -5189,11 +5185,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5204,12 +5200,12 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>Ken</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5220,7 +5216,7 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -5229,11 +5225,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5249,7 +5245,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>for years.</t>
+          <t>for months.</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5260,7 +5256,7 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -5281,15 +5277,19 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>They haven't seen him for years.</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>have not</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5300,7 +5300,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5309,31 +5309,27 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>I want something hot.</t>
-        </is>
-      </c>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>haven't</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5344,7 +5340,7 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -5353,16 +5349,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -5373,7 +5369,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5384,7 +5380,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5393,16 +5389,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -5413,7 +5409,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>something hot.</t>
+          <t>him</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5424,7 +5420,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5433,31 +5429,27 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>You want something spicy.</t>
-        </is>
-      </c>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>for years.</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5468,7 +5460,7 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -5477,11 +5469,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5489,15 +5481,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>I want something hot.</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5508,7 +5504,7 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -5517,11 +5513,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5532,12 +5528,12 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>something spicy.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5548,7 +5544,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -5557,11 +5553,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5569,19 +5565,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>We want something sweet.</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>something hot.</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5592,7 +5584,7 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -5601,11 +5593,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5613,15 +5605,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>You want something spicy.</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5632,7 +5628,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -5641,11 +5637,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5656,12 +5652,12 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>something sweet.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5672,7 +5668,7 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -5681,11 +5677,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5693,19 +5689,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>They want something fresh.</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>something spicy.</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5716,7 +5708,7 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -5725,11 +5717,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5737,15 +5729,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>We want something sweet.</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5756,7 +5752,7 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -5765,11 +5761,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5780,12 +5776,12 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>something fresh.</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5796,7 +5792,7 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -5805,31 +5801,27 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Could you write it down, please?</t>
-        </is>
-      </c>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>something sweet.</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5840,7 +5832,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -5849,19 +5841,23 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>They want something fresh.</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>S</t>
@@ -5869,7 +5865,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5880,7 +5876,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -5889,16 +5885,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -5909,7 +5905,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5920,7 +5916,7 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -5929,16 +5925,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -5949,7 +5945,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>it down,</t>
+          <t>something fresh.</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5960,7 +5956,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -5981,15 +5977,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Could you write it down, please?</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6000,7 +6000,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -6009,11 +6009,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6021,19 +6021,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Could I write the sentence down, please?</t>
-        </is>
-      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6044,7 +6040,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -6053,11 +6049,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6068,12 +6064,12 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6084,7 +6080,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -6093,11 +6089,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6108,12 +6104,12 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>it down,</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6124,7 +6120,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -6133,11 +6129,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6148,12 +6144,12 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>the sentence down,</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6164,7 +6160,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -6185,15 +6181,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Could I write the sentence down, please?</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6204,7 +6204,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -6213,11 +6213,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6225,19 +6225,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Could she write the address down, please?</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6248,7 +6244,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -6257,11 +6253,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6272,12 +6268,12 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6288,7 +6284,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -6297,11 +6293,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6312,12 +6308,12 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>the sentence down,</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6328,7 +6324,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -6337,11 +6333,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6352,12 +6348,12 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>the address down,</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6368,7 +6364,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -6389,15 +6385,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Could she write the address down, please?</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6408,7 +6408,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -6417,11 +6417,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6429,19 +6429,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Could they write the number down, please?</t>
-        </is>
-      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6452,7 +6448,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -6461,11 +6457,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6476,12 +6472,12 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6492,7 +6488,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -6501,11 +6497,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6516,12 +6512,12 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>the address down,</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6532,7 +6528,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -6541,11 +6537,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6556,12 +6552,12 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>the number down,</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6572,7 +6568,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -6593,15 +6589,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Could they write the number down, please?</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6612,7 +6612,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -6621,23 +6621,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>I can't afford it.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
           <t>S</t>
@@ -6645,7 +6641,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6656,7 +6652,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -6665,16 +6661,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -6685,7 +6681,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6696,7 +6692,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -6705,16 +6701,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -6725,7 +6721,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>afford it.</t>
+          <t>the number down,</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6736,7 +6732,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -6745,31 +6741,27 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>You can't afford the jacket.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>please</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6780,7 +6772,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -6789,11 +6781,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6801,15 +6793,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>I can't afford it.</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6820,7 +6816,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -6829,11 +6825,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6844,12 +6840,12 @@
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>afford the jacket.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6860,7 +6856,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6869,11 +6865,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6881,19 +6877,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>She can't afford the car.</t>
-        </is>
-      </c>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>afford it.</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6904,7 +6896,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6913,11 +6905,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6925,15 +6917,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>You can't afford the jacket.</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6944,7 +6940,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6953,11 +6949,11 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6968,12 +6964,12 @@
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>afford the car.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6984,7 +6980,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -6993,11 +6989,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7005,19 +7001,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>They can't afford the house.</t>
-        </is>
-      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>afford the jacket.</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7028,7 +7020,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7037,11 +7029,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7049,15 +7041,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>She can't afford the car.</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7068,7 +7064,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -7077,11 +7073,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7092,12 +7088,12 @@
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>afford the house.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7108,7 +7104,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -7117,31 +7113,27 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>I believe you.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>afford the car.</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7152,7 +7144,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7161,27 +7153,31 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>They can't afford the house.</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7192,7 +7188,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7201,27 +7197,27 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7232,7 +7228,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7241,31 +7237,27 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>You believe Tom.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>afford the house.</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7276,7 +7268,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -7285,11 +7277,11 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7297,15 +7289,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>I believe you.</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7316,7 +7312,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -7325,11 +7321,11 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7340,12 +7336,12 @@
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Tom.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7356,7 +7352,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -7365,11 +7361,11 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7377,19 +7373,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>We believe her.</t>
-        </is>
-      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7400,7 +7392,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -7409,11 +7401,11 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7421,15 +7413,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>You believe Tom.</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7440,7 +7436,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -7449,11 +7445,11 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7464,12 +7460,12 @@
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7480,7 +7476,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7489,11 +7485,11 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7501,19 +7497,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>They believe him.</t>
-        </is>
-      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom.</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7524,7 +7516,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7533,11 +7525,11 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7545,15 +7537,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>We believe her.</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7564,7 +7560,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7573,11 +7569,11 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7588,12 +7584,12 @@
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>him.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7604,7 +7600,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7613,31 +7609,27 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Henry mentioned the fact.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7648,7 +7640,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7657,27 +7649,31 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>They believe him.</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7688,7 +7684,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7697,27 +7693,27 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>the fact.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7728,7 +7724,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7737,31 +7733,27 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Sarah mentioned the issue.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>him.</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7772,7 +7764,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7781,11 +7773,11 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7793,15 +7785,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Henry mentioned the fact.</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7812,7 +7808,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7821,11 +7817,11 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7836,12 +7832,12 @@
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>the issue.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7852,7 +7848,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7861,11 +7857,11 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7873,19 +7869,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Tom mentioned the problem.</t>
-        </is>
-      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>the fact.</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7896,7 +7888,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7905,11 +7897,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7917,15 +7909,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Sarah mentioned the issue.</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7936,7 +7932,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7945,11 +7941,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7960,12 +7956,12 @@
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>the problem.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7976,7 +7972,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7985,11 +7981,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7997,19 +7993,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>They mentioned the concern.</t>
-        </is>
-      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the issue.</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8020,7 +8012,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -8029,11 +8021,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8041,15 +8033,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Tom mentioned the problem.</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8060,7 +8056,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8069,11 +8065,11 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8084,12 +8080,12 @@
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>the concern.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8100,7 +8096,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -8109,31 +8105,27 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>He entered her room.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>the problem.</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8144,7 +8136,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -8153,27 +8145,31 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>They mentioned the concern.</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8184,7 +8180,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -8193,27 +8189,27 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>her room.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8224,7 +8220,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -8233,31 +8229,27 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>She entered his office.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the concern.</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8268,7 +8260,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -8277,11 +8269,11 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8289,15 +8281,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>He entered her room.</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8308,7 +8304,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8317,11 +8313,11 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8332,12 +8328,12 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>his office.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8348,7 +8344,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -8357,11 +8353,11 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8369,19 +8365,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Tom entered Sarah's house.</t>
-        </is>
-      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>her room.</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8392,7 +8384,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -8401,11 +8393,11 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8413,15 +8405,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>She entered his office.</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8432,7 +8428,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -8441,11 +8437,11 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8456,12 +8452,12 @@
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Sarah's house.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8472,7 +8468,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -8481,11 +8477,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8493,19 +8489,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>They entered the building.</t>
-        </is>
-      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>his office.</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8516,7 +8508,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -8525,11 +8517,11 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8537,15 +8529,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Tom entered Sarah's house.</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8556,7 +8552,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -8565,11 +8561,11 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8580,12 +8576,12 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8596,7 +8592,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -8605,31 +8601,27 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>He left New York a few days ago.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Sarah's house.</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8640,7 +8632,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8649,27 +8641,31 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>They entered the building.</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8680,7 +8676,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -8689,27 +8685,27 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>New York a few days ago.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8720,7 +8716,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -8729,31 +8725,27 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>She left Rome last week.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8764,7 +8756,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -8773,11 +8765,11 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8785,15 +8777,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>He left New York a few days ago.</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8804,7 +8800,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -8813,11 +8809,11 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8828,12 +8824,12 @@
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Rome last week.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8844,7 +8840,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -8853,11 +8849,11 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8865,19 +8861,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Tom left Paris yesterday.</t>
-        </is>
-      </c>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>New York a few days ago.</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8888,7 +8880,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -8897,11 +8889,11 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8909,15 +8901,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>She left Rome last week.</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8928,7 +8924,7 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -8937,11 +8933,11 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8952,12 +8948,12 @@
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Paris yesterday.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8968,7 +8964,7 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -8977,11 +8973,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8989,19 +8985,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>They left London this morning.</t>
-        </is>
-      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Rome last week.</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9012,7 +9004,7 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
@@ -9021,11 +9013,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9033,15 +9025,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Tom left Paris yesterday.</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9052,7 +9048,7 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
@@ -9061,11 +9057,11 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9076,12 +9072,12 @@
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>London this morning.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9092,7 +9088,7 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K210" t="n">
         <v>0</v>
@@ -9101,31 +9097,27 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>He reached Boston the next morning.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Paris yesterday.</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9136,7 +9128,7 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K211" t="n">
         <v>0</v>
@@ -9145,27 +9137,31 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>They left London this morning.</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9176,7 +9172,7 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -9185,27 +9181,27 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Boston the next morning.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9216,7 +9212,7 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K213" t="n">
         <v>0</v>
@@ -9225,31 +9221,27 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>She reached Milan that evening.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>London this morning.</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9260,7 +9252,7 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K214" t="n">
         <v>0</v>
@@ -9269,11 +9261,11 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9281,15 +9273,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>He reached Boston the next morning.</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9300,7 +9296,7 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K215" t="n">
         <v>0</v>
@@ -9309,11 +9305,11 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9324,12 +9320,12 @@
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Milan that evening.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9340,7 +9336,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -9349,11 +9345,11 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9361,19 +9357,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Tom reached Tokyo at noon.</t>
-        </is>
-      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Boston the next morning.</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9384,7 +9376,7 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K217" t="n">
         <v>0</v>
@@ -9393,11 +9385,11 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9405,15 +9397,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>She reached Milan that evening.</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9424,7 +9420,7 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K218" t="n">
         <v>0</v>
@@ -9433,11 +9429,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9448,12 +9444,12 @@
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9464,7 +9460,7 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K219" t="n">
         <v>0</v>
@@ -9473,11 +9469,11 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9488,12 +9484,12 @@
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>at noon.</t>
+          <t>Milan that evening.</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9504,7 +9500,7 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K220" t="n">
         <v>0</v>
@@ -9513,11 +9509,11 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9527,7 +9523,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>They reached Berlin at midnight.</t>
+          <t>Tom reached Tokyo at noon.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9537,7 +9533,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9557,11 +9553,11 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9597,11 +9593,11 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9617,7 +9613,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9637,11 +9633,11 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9657,7 +9653,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>at midnight.</t>
+          <t>at noon.</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9677,21 +9673,21 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>I approach Tokyo.</t>
+          <t>They reached Berlin at midnight.</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9701,7 +9697,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9721,16 +9717,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
@@ -9741,7 +9737,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9761,16 +9757,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
@@ -9781,7 +9777,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Tokyo.</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9801,31 +9797,27 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>You approach the station.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>at midnight.</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9836,7 +9828,7 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -9845,11 +9837,11 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9857,15 +9849,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>I approach Tokyo.</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9876,7 +9872,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -9885,11 +9881,11 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9900,12 +9896,12 @@
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>the station.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9916,7 +9912,7 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -9925,11 +9921,11 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9937,19 +9933,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>We approach the building.</t>
-        </is>
-      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>Tokyo.</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9960,7 +9952,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -9969,11 +9961,11 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9981,15 +9973,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>You approach the station.</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10000,7 +9996,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -10009,11 +10005,11 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -10024,12 +10020,12 @@
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10040,7 +10036,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -10049,11 +10045,11 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -10061,19 +10057,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>They approach the destination.</t>
-        </is>
-      </c>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the station.</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10084,7 +10076,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -10093,11 +10085,11 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -10105,15 +10097,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>We approach the building.</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10124,7 +10120,7 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -10133,11 +10129,11 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10148,12 +10144,12 @@
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>the destination.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10164,7 +10160,7 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -10173,31 +10169,27 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>He resembles his mother.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10208,7 +10200,7 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -10217,27 +10209,31 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>They approach the destination.</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10248,7 +10244,7 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -10257,27 +10253,27 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>his mother.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10288,7 +10284,7 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -10297,31 +10293,27 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>She resembles her father.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the destination.</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10332,7 +10324,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -10341,11 +10333,11 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10353,15 +10345,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>He resembles his mother.</t>
+        </is>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10372,7 +10368,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -10381,11 +10377,11 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -10396,12 +10392,12 @@
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>her father.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10412,7 +10408,7 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -10421,11 +10417,11 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10433,19 +10429,15 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Tom resembles his uncle.</t>
-        </is>
-      </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>his mother.</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10456,7 +10448,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -10465,11 +10457,11 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -10477,15 +10469,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>She resembles her father.</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10496,7 +10492,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -10505,11 +10501,11 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10520,12 +10516,12 @@
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>his uncle.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10536,7 +10532,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -10545,31 +10541,27 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>They resemble their parents.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>her father.</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10580,7 +10572,7 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -10589,27 +10581,31 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Tom resembles his uncle.</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10620,7 +10616,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -10629,27 +10625,27 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>their parents.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10660,7 +10656,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -10669,31 +10665,27 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>She married a bald man.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>his uncle.</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10704,7 +10696,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -10713,27 +10705,31 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr"/>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>They resemble their parents.</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10744,7 +10740,7 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -10753,27 +10749,27 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>a bald man.</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10784,7 +10780,7 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -10793,31 +10789,27 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>He married a quiet woman.</t>
-        </is>
-      </c>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>their parents.</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10828,7 +10820,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10837,11 +10829,11 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10849,15 +10841,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>She married a bald man.</t>
+        </is>
+      </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10868,7 +10864,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -10877,11 +10873,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10892,12 +10888,12 @@
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>a quiet woman.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10908,7 +10904,7 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -10917,11 +10913,11 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10929,19 +10925,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Sarah married a kind person.</t>
-        </is>
-      </c>
+      <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>a bald man.</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10952,7 +10944,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10961,11 +10953,11 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10973,15 +10965,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr"/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>He married a quiet woman.</t>
+        </is>
+      </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10992,7 +10988,7 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -11001,11 +10997,11 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11016,12 +11012,12 @@
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>a kind person.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11032,7 +11028,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -11041,11 +11037,11 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11053,19 +11049,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>They married their partners.</t>
-        </is>
-      </c>
+      <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>a quiet woman.</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11076,7 +11068,7 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -11085,11 +11077,11 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11097,15 +11089,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Sarah married a kind person.</t>
+        </is>
+      </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11116,7 +11112,7 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -11125,11 +11121,11 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11140,12 +11136,12 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>their partners.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11156,7 +11152,7 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
@@ -11165,11 +11161,11 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11177,19 +11173,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>She's been married to a bald man for 5 years.</t>
-        </is>
-      </c>
+      <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>She's</t>
+          <t>a kind person.</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11200,7 +11192,7 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K261" t="n">
         <v>0</v>
@@ -11209,11 +11201,11 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11221,15 +11213,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>They married their partners.</t>
+        </is>
+      </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11240,7 +11236,7 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -11249,11 +11245,11 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11264,12 +11260,12 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11280,7 +11276,7 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K263" t="n">
         <v>0</v>
@@ -11289,11 +11285,11 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11301,19 +11297,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>He's been married to a kind woman for 3 years.</t>
-        </is>
-      </c>
+      <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>He's</t>
+          <t>their partners.</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11324,7 +11316,7 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K264" t="n">
         <v>0</v>
@@ -11333,11 +11325,11 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11345,15 +11337,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>She's been married to a bald man for 5 years.</t>
+        </is>
+      </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She's</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11364,7 +11360,7 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K265" t="n">
         <v>0</v>
@@ -11373,11 +11369,11 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11388,12 +11384,12 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11404,7 +11400,7 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -11413,11 +11409,11 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11425,19 +11421,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Sarah's been married to a nice person for 2 years.</t>
-        </is>
-      </c>
+      <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Sarah's</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11448,7 +11440,7 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -11457,11 +11449,11 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11469,15 +11461,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr"/>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>He's been married to a kind woman for 3 years.</t>
+        </is>
+      </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He's</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11488,7 +11484,7 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K268" t="n">
         <v>0</v>
@@ -11497,11 +11493,11 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11512,12 +11508,12 @@
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11528,7 +11524,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -11537,11 +11533,11 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11549,19 +11545,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Tom's been married to a lovely partner for 10 years.</t>
-        </is>
-      </c>
+      <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Tom's</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11572,7 +11564,7 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -11581,11 +11573,11 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11593,15 +11585,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr"/>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Sarah's been married to a nice person for 2 years.</t>
+        </is>
+      </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Sarah's</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11612,7 +11608,7 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
@@ -11621,11 +11617,11 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11636,12 +11632,12 @@
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11652,7 +11648,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
@@ -11661,31 +11657,27 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>He'll answer your letter soon.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>He'll</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11696,7 +11688,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K273" t="n">
         <v>0</v>
@@ -11705,27 +11697,31 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Tom's been married to a lovely partner for 10 years.</t>
+        </is>
+      </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>Tom's</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11736,7 +11732,7 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -11745,27 +11741,27 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>your letter soon.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11776,7 +11772,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K275" t="n">
         <v>0</v>
@@ -11785,31 +11781,27 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>She'll answer his message tomorrow.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>She'll</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11820,7 +11812,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -11829,11 +11821,11 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -11841,15 +11833,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>He'll answer your letter soon.</t>
+        </is>
+      </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>He'll</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11860,7 +11856,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K277" t="n">
         <v>0</v>
@@ -11869,11 +11865,11 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -11884,12 +11880,12 @@
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>his message tomorrow.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11900,7 +11896,7 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
@@ -11909,11 +11905,11 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11921,19 +11917,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Tom'll answer the email later.</t>
-        </is>
-      </c>
+      <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Tom'll</t>
+          <t>your letter soon.</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11944,7 +11936,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -11953,11 +11945,11 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -11965,15 +11957,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>She'll answer his message tomorrow.</t>
+        </is>
+      </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>She'll</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11984,7 +11980,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K280" t="n">
         <v>0</v>
@@ -11993,11 +11989,11 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -12008,12 +12004,12 @@
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>the email later.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12024,7 +12020,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -12033,11 +12029,11 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -12045,19 +12041,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>They'll answer our call tonight.</t>
-        </is>
-      </c>
+      <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>They'll</t>
+          <t>his message tomorrow.</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12068,7 +12060,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -12077,11 +12069,11 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -12089,15 +12081,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr"/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Tom'll answer the email later.</t>
+        </is>
+      </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>Tom'll</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12108,7 +12104,7 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K283" t="n">
         <v>0</v>
@@ -12117,11 +12113,11 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -12132,12 +12128,12 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>our call tonight.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12148,7 +12144,7 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
@@ -12157,31 +12153,27 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>We discuss our schedule.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>the email later.</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12192,7 +12184,7 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K285" t="n">
         <v>0</v>
@@ -12201,27 +12193,31 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>They'll answer our call tonight.</t>
+        </is>
+      </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>They'll</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12232,7 +12228,7 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K286" t="n">
         <v>0</v>
@@ -12241,27 +12237,27 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>our schedule.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12272,7 +12268,7 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K287" t="n">
         <v>0</v>
@@ -12281,31 +12277,27 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>You discuss your project.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>our call tonight.</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12316,7 +12308,7 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K288" t="n">
         <v>0</v>
@@ -12325,11 +12317,11 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -12337,15 +12329,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr"/>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>We discuss our schedule.</t>
+        </is>
+      </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12356,7 +12352,7 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K289" t="n">
         <v>0</v>
@@ -12365,11 +12361,11 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -12380,12 +12376,12 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>your project.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12396,7 +12392,7 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K290" t="n">
         <v>0</v>
@@ -12405,11 +12401,11 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -12417,19 +12413,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>They discuss their plan.</t>
-        </is>
-      </c>
+      <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>our schedule.</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12440,7 +12432,7 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K291" t="n">
         <v>0</v>
@@ -12449,11 +12441,11 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -12461,15 +12453,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>You discuss your project.</t>
+        </is>
+      </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12480,7 +12476,7 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K292" t="n">
         <v>0</v>
@@ -12489,11 +12485,11 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -12504,12 +12500,12 @@
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>their plan.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -12520,7 +12516,7 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K293" t="n">
         <v>0</v>
@@ -12529,11 +12525,11 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -12541,19 +12537,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>I discuss my proposal.</t>
-        </is>
-      </c>
+      <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>your project.</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -12564,7 +12556,7 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K294" t="n">
         <v>0</v>
@@ -12573,11 +12565,11 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -12585,15 +12577,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>They discuss their plan.</t>
+        </is>
+      </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -12604,7 +12600,7 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K295" t="n">
         <v>0</v>
@@ -12613,11 +12609,11 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -12628,12 +12624,12 @@
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>my proposal.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -12644,12 +12640,176 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
+        <v>2</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>their plan.</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
         <v>3</v>
       </c>
-      <c r="K296" t="n">
-        <v>0</v>
-      </c>
-      <c r="L296" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>I discuss my proposal.</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>my proposal.</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L300"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6024,12 +6024,12 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6064,12 +6064,12 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>down</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6089,11 +6089,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6101,15 +6101,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Could I write the sentence down, please?</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>it down,</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6120,7 +6124,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -6129,11 +6133,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6144,12 +6148,12 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6160,7 +6164,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -6181,19 +6185,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Could I write the sentence down, please?</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>down</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6204,7 +6204,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -6213,11 +6213,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6225,15 +6225,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Could she write the address down, please?</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6244,7 +6248,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -6253,11 +6257,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6284,7 +6288,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -6293,11 +6297,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6308,12 +6312,12 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>the sentence down,</t>
+          <t>down</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6324,7 +6328,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -6333,11 +6337,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6345,15 +6349,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Could they write the number down, please?</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6364,7 +6372,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -6373,11 +6381,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6385,19 +6393,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Could she write the address down, please?</t>
-        </is>
-      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6408,7 +6412,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -6417,11 +6421,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6432,12 +6436,12 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>down</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6448,7 +6452,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -6457,27 +6461,31 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>I can't afford it.</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6488,7 +6496,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -6497,27 +6505,27 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>the address down,</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6528,7 +6536,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -6537,27 +6545,27 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>afford it.</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6568,7 +6576,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -6577,31 +6585,31 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Could they write the number down, please?</t>
+          <t>You can't afford the jacket.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6621,27 +6629,27 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6661,27 +6669,27 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>afford the jacket.</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6701,27 +6709,31 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>She can't afford the car.</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>the number down,</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6732,7 +6744,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -6741,27 +6753,27 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6772,7 +6784,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -6781,11 +6793,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6793,19 +6805,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>I can't afford it.</t>
-        </is>
-      </c>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>afford the car.</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6816,7 +6824,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -6825,11 +6833,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6837,15 +6845,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>They can't afford the house.</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6856,7 +6868,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6865,11 +6877,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6880,12 +6892,12 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>afford it.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6896,7 +6908,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6905,11 +6917,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6917,19 +6929,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>You can't afford the jacket.</t>
-        </is>
-      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>afford the house.</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6940,7 +6948,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6949,27 +6957,31 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>I believe you.</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6980,7 +6992,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -6989,27 +7001,27 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>afford the jacket.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7020,7 +7032,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7029,31 +7041,27 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>She can't afford the car.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7064,7 +7072,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -7073,27 +7081,31 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>You believe Tom.</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7104,7 +7116,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -7113,27 +7125,27 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>afford the car.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7144,7 +7156,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7153,31 +7165,27 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>They can't afford the house.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom.</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7188,7 +7196,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7197,27 +7205,31 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>We believe her.</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7228,7 +7240,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7237,27 +7249,27 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>afford the house.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7268,7 +7280,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -7277,11 +7289,11 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7289,19 +7301,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>I believe you.</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7312,7 +7320,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -7321,11 +7329,11 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7333,15 +7341,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>They believe him.</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7352,7 +7364,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -7361,11 +7373,11 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7376,12 +7388,12 @@
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7392,7 +7404,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -7401,11 +7413,11 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7413,19 +7425,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>You believe Tom.</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>him.</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7436,7 +7444,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -7445,27 +7453,31 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Henry mentioned the fact.</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7476,7 +7488,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7485,27 +7497,27 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Tom.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7516,7 +7528,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7525,31 +7537,27 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>We believe her.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>the fact.</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7560,7 +7568,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7569,27 +7577,31 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Sarah mentioned the issue.</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7600,7 +7612,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7609,27 +7621,27 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7640,7 +7652,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7649,31 +7661,27 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>They believe him.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the issue.</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7684,7 +7692,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7693,27 +7701,31 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Tom mentioned the problem.</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7724,7 +7736,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7733,27 +7745,27 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>him.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7764,7 +7776,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7773,11 +7785,11 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7785,19 +7797,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Henry mentioned the fact.</t>
-        </is>
-      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>the problem.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7808,7 +7816,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7817,11 +7825,11 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7829,15 +7837,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>They mentioned the concern.</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7848,7 +7860,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7857,11 +7869,11 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7872,12 +7884,12 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>the fact.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7888,7 +7900,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7897,11 +7909,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7909,19 +7921,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Sarah mentioned the issue.</t>
-        </is>
-      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>the concern.</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7932,7 +7940,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7941,27 +7949,31 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>He entered her room.</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7972,7 +7984,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7981,27 +7993,27 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>the issue.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8012,7 +8024,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -8021,31 +8033,27 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Tom mentioned the problem.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>her room.</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8056,7 +8064,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8065,27 +8073,31 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>She entered his office.</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8096,7 +8108,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -8105,27 +8117,27 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>the problem.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8136,7 +8148,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -8145,31 +8157,27 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>They mentioned the concern.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>his office.</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8180,7 +8188,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -8189,27 +8197,31 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Tom entered Sarah's house.</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8220,7 +8232,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -8229,27 +8241,27 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>the concern.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8260,7 +8272,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -8269,11 +8281,11 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8281,19 +8293,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>He entered her room.</t>
-        </is>
-      </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Sarah's house.</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8304,7 +8312,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8313,11 +8321,11 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8325,15 +8333,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>They entered the building.</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8344,7 +8356,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -8353,11 +8365,11 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8368,12 +8380,12 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>her room.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8384,7 +8396,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -8393,11 +8405,11 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8405,19 +8417,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>She entered his office.</t>
-        </is>
-      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8428,7 +8436,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -8437,27 +8445,31 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>He left New York a few days ago.</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8468,7 +8480,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -8477,27 +8489,27 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>his office.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8508,7 +8520,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -8517,31 +8529,27 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Tom entered Sarah's house.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>New York a few days ago.</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8552,7 +8560,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -8561,27 +8569,31 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>She left Rome last week.</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8592,7 +8604,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -8601,27 +8613,27 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Sarah's house.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8632,7 +8644,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8641,31 +8653,27 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>They entered the building.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Rome last week.</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8676,7 +8684,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -8685,27 +8693,31 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Tom left Paris yesterday.</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8716,7 +8728,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -8725,27 +8737,27 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8756,7 +8768,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -8765,11 +8777,11 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8777,19 +8789,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>He left New York a few days ago.</t>
-        </is>
-      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Paris yesterday.</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8800,7 +8808,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -8809,11 +8817,11 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8821,15 +8829,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>They left London this morning.</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8840,7 +8852,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -8849,11 +8861,11 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8864,12 +8876,12 @@
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>New York a few days ago.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8880,7 +8892,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -8889,11 +8901,11 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8901,19 +8913,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>She left Rome last week.</t>
-        </is>
-      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>London this morning.</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8924,7 +8932,7 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -8933,27 +8941,31 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>He reached Boston the next morning.</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8964,7 +8976,7 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -8973,27 +8985,27 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Rome last week.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9004,7 +9016,7 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
@@ -9013,31 +9025,27 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Tom left Paris yesterday.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Boston the next morning.</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9048,7 +9056,7 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
@@ -9057,27 +9065,31 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>She reached Milan that evening.</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9088,7 +9100,7 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K210" t="n">
         <v>0</v>
@@ -9097,27 +9109,27 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Paris yesterday.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9128,7 +9140,7 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K211" t="n">
         <v>0</v>
@@ -9137,31 +9149,27 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>They left London this morning.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Milan that evening.</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9172,7 +9180,7 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -9181,27 +9189,31 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Tom reached Tokyo at noon.</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9212,7 +9224,7 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K213" t="n">
         <v>0</v>
@@ -9221,27 +9233,27 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>London this morning.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9252,7 +9264,7 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K214" t="n">
         <v>0</v>
@@ -9261,11 +9273,11 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9273,19 +9285,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>He reached Boston the next morning.</t>
-        </is>
-      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9296,7 +9304,7 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K215" t="n">
         <v>0</v>
@@ -9305,11 +9313,11 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9320,12 +9328,12 @@
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>at noon.</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9336,7 +9344,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -9345,11 +9353,11 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9357,15 +9365,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>They reached Berlin at midnight.</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Boston the next morning.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9376,7 +9388,7 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K217" t="n">
         <v>0</v>
@@ -9385,11 +9397,11 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9397,19 +9409,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>She reached Milan that evening.</t>
-        </is>
-      </c>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9420,7 +9428,7 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K218" t="n">
         <v>0</v>
@@ -9429,11 +9437,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9444,12 +9452,12 @@
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9460,7 +9468,7 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K219" t="n">
         <v>0</v>
@@ -9469,11 +9477,11 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9484,12 +9492,12 @@
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Milan that evening.</t>
+          <t>at midnight.</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9500,7 +9508,7 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K220" t="n">
         <v>0</v>
@@ -9509,21 +9517,21 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tom reached Tokyo at noon.</t>
+          <t>I approach Tokyo.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9533,7 +9541,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9553,16 +9561,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
@@ -9573,7 +9581,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9593,16 +9601,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
@@ -9613,7 +9621,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Tokyo.</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9633,27 +9641,31 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>You approach the station.</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>at noon.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9664,7 +9676,7 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -9673,31 +9685,27 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>They reached Berlin at midnight.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9708,7 +9716,7 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -9717,27 +9725,27 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>the station.</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9748,7 +9756,7 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -9757,27 +9765,31 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>We approach the building.</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9788,7 +9800,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K227" t="n">
         <v>0</v>
@@ -9797,27 +9809,27 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>at midnight.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9828,7 +9840,7 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -9837,11 +9849,11 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9849,19 +9861,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>I approach Tokyo.</t>
-        </is>
-      </c>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9872,7 +9880,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -9881,11 +9889,11 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9893,15 +9901,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>They approach the destination.</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9912,7 +9924,7 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -9921,11 +9933,11 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9936,12 +9948,12 @@
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Tokyo.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9952,7 +9964,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -9961,11 +9973,11 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9973,19 +9985,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>You approach the station.</t>
-        </is>
-      </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>the destination.</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9996,7 +10004,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -10005,27 +10013,31 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>He resembles his mother.</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10036,7 +10048,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -10045,27 +10057,27 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>the station.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10076,7 +10088,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -10085,31 +10097,27 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>We approach the building.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>his mother.</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10120,7 +10128,7 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -10129,27 +10137,31 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>She resembles her father.</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10160,7 +10172,7 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -10169,27 +10181,27 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10200,7 +10212,7 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -10209,31 +10221,27 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>They approach the destination.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>her father.</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10244,7 +10252,7 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -10253,27 +10261,31 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Tom resembles his uncle.</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10284,7 +10296,7 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -10293,27 +10305,27 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>the destination.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10324,7 +10336,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -10333,11 +10345,11 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10345,19 +10357,15 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>He resembles his mother.</t>
-        </is>
-      </c>
+      <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>his uncle.</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10368,7 +10376,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -10377,27 +10385,31 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr"/>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>They resemble their parents.</t>
+        </is>
+      </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10408,7 +10420,7 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -10417,27 +10429,27 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>his mother.</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10448,7 +10460,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -10457,31 +10469,27 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>She resembles her father.</t>
-        </is>
-      </c>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>their parents.</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10492,7 +10500,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -10501,27 +10509,31 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>She married a bald man.</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10532,7 +10544,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -10541,27 +10553,27 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>her father.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10572,7 +10584,7 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -10581,31 +10593,27 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Tom resembles his uncle.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>a bald man.</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10616,7 +10624,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -10625,27 +10633,31 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>He married a quiet woman.</t>
+        </is>
+      </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10656,7 +10668,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -10665,27 +10677,27 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>his uncle.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10696,7 +10708,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -10705,31 +10717,27 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>They resemble their parents.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>a quiet woman.</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10740,7 +10748,7 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -10749,27 +10757,31 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Sarah married a kind person.</t>
+        </is>
+      </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10780,7 +10792,7 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -10789,27 +10801,27 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>their parents.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10820,7 +10832,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10829,11 +10841,11 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10841,19 +10853,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>She married a bald man.</t>
-        </is>
-      </c>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>a kind person.</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10864,7 +10872,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -10873,11 +10881,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10885,15 +10893,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>They married their partners.</t>
+        </is>
+      </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10904,7 +10916,7 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -10913,11 +10925,11 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10928,12 +10940,12 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>a bald man.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10944,7 +10956,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10953,11 +10965,11 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10965,19 +10977,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>He married a quiet woman.</t>
-        </is>
-      </c>
+      <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>their partners.</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10988,7 +10996,7 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -10997,11 +11005,11 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11009,15 +11017,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>She's been married to a bald man for 5 years.</t>
+        </is>
+      </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She's</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11028,7 +11040,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -11037,11 +11049,11 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11052,12 +11064,12 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>a quiet woman.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11068,7 +11080,7 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -11077,11 +11089,11 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11089,19 +11101,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Sarah married a kind person.</t>
-        </is>
-      </c>
+      <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11112,7 +11120,7 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -11121,11 +11129,11 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11133,15 +11141,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>He's been married to a kind woman for 3 years.</t>
+        </is>
+      </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He's</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11152,7 +11164,7 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
@@ -11161,11 +11173,11 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11176,12 +11188,12 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>a kind person.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11192,7 +11204,7 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K261" t="n">
         <v>0</v>
@@ -11201,11 +11213,11 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11213,19 +11225,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>They married their partners.</t>
-        </is>
-      </c>
+      <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11236,7 +11244,7 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -11245,11 +11253,11 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11257,15 +11265,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Sarah's been married to a nice person for 2 years.</t>
+        </is>
+      </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Sarah's</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11276,7 +11288,7 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K263" t="n">
         <v>0</v>
@@ -11285,11 +11297,11 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11300,12 +11312,12 @@
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>their partners.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11316,7 +11328,7 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K264" t="n">
         <v>0</v>
@@ -11325,11 +11337,11 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11337,19 +11349,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>She's been married to a bald man for 5 years.</t>
-        </is>
-      </c>
+      <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>She's</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11360,7 +11368,7 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K265" t="n">
         <v>0</v>
@@ -11369,11 +11377,11 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11381,15 +11389,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Tom's been married to a lovely partner for 10 years.</t>
+        </is>
+      </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Tom's</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11400,7 +11412,7 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -11409,11 +11421,11 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11424,12 +11436,12 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11440,7 +11452,7 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -11449,11 +11461,11 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11461,19 +11473,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>He's been married to a kind woman for 3 years.</t>
-        </is>
-      </c>
+      <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>He's</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11484,7 +11492,7 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K268" t="n">
         <v>0</v>
@@ -11493,27 +11501,31 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>He'll answer your letter soon.</t>
+        </is>
+      </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He'll</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11524,7 +11536,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -11533,27 +11545,27 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11564,7 +11576,7 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -11573,31 +11585,27 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Sarah's been married to a nice person for 2 years.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Sarah's</t>
+          <t>your letter soon.</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11608,7 +11616,7 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
@@ -11617,27 +11625,31 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>She'll answer his message tomorrow.</t>
+        </is>
+      </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She'll</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11648,7 +11660,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
@@ -11657,27 +11669,27 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11688,7 +11700,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K273" t="n">
         <v>0</v>
@@ -11697,31 +11709,27 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Tom's been married to a lovely partner for 10 years.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Tom's</t>
+          <t>his message tomorrow.</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11732,7 +11740,7 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -11741,27 +11749,31 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Tom'll answer the email later.</t>
+        </is>
+      </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Tom'll</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11772,7 +11784,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K275" t="n">
         <v>0</v>
@@ -11781,27 +11793,27 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11812,7 +11824,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -11821,11 +11833,11 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -11833,19 +11845,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>He'll answer your letter soon.</t>
-        </is>
-      </c>
+      <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>He'll</t>
+          <t>the email later.</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11856,7 +11864,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K277" t="n">
         <v>0</v>
@@ -11865,11 +11873,11 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -11877,15 +11885,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr"/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>They'll answer our call tonight.</t>
+        </is>
+      </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>They'll</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11896,7 +11908,7 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
@@ -11905,11 +11917,11 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11920,12 +11932,12 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>your letter soon.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11936,7 +11948,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -11945,11 +11957,11 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -11957,19 +11969,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>She'll answer his message tomorrow.</t>
-        </is>
-      </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>She'll</t>
+          <t>our call tonight.</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11980,7 +11988,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K280" t="n">
         <v>0</v>
@@ -11989,27 +11997,31 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr"/>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>We discuss our schedule.</t>
+        </is>
+      </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12020,7 +12032,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -12029,27 +12041,27 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>his message tomorrow.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12060,7 +12072,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -12069,31 +12081,27 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Tom'll answer the email later.</t>
-        </is>
-      </c>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Tom'll</t>
+          <t>our schedule.</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12104,7 +12112,7 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K283" t="n">
         <v>0</v>
@@ -12113,27 +12121,31 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr"/>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>You discuss your project.</t>
+        </is>
+      </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12144,7 +12156,7 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
@@ -12153,27 +12165,27 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>the email later.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12184,7 +12196,7 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K285" t="n">
         <v>0</v>
@@ -12193,31 +12205,27 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>They'll answer our call tonight.</t>
-        </is>
-      </c>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>They'll</t>
+          <t>your project.</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12228,7 +12236,7 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K286" t="n">
         <v>0</v>
@@ -12237,27 +12245,31 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr"/>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>They discuss their plan.</t>
+        </is>
+      </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12268,7 +12280,7 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K287" t="n">
         <v>0</v>
@@ -12277,27 +12289,27 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>our call tonight.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12308,7 +12320,7 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K288" t="n">
         <v>0</v>
@@ -12317,11 +12329,11 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -12329,19 +12341,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>We discuss our schedule.</t>
-        </is>
-      </c>
+      <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>their plan.</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12352,7 +12360,7 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K289" t="n">
         <v>0</v>
@@ -12361,11 +12369,11 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex085</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -12373,15 +12381,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr"/>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>I discuss my proposal.</t>
+        </is>
+      </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12392,7 +12404,7 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K290" t="n">
         <v>0</v>
@@ -12401,11 +12413,11 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex085</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -12416,12 +12428,12 @@
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>our schedule.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12432,7 +12444,7 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K291" t="n">
         <v>0</v>
@@ -12441,11 +12453,11 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex085</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -12453,19 +12465,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>You discuss your project.</t>
-        </is>
-      </c>
+      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>my proposal.</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12476,340 +12484,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K292" t="n">
         <v>0</v>
       </c>
       <c r="L292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>ex083</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2</v>
-      </c>
-      <c r="K293" t="n">
-        <v>0</v>
-      </c>
-      <c r="L293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>ex083</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr"/>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>your project.</t>
-        </is>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>3</v>
-      </c>
-      <c r="K294" t="n">
-        <v>0</v>
-      </c>
-      <c r="L294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>ex084</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>They discuss their plan.</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>They</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1</v>
-      </c>
-      <c r="K295" t="n">
-        <v>0</v>
-      </c>
-      <c r="L295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>ex084</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr"/>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2</v>
-      </c>
-      <c r="K296" t="n">
-        <v>0</v>
-      </c>
-      <c r="L296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>ex084</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr"/>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>their plan.</t>
-        </is>
-      </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>3</v>
-      </c>
-      <c r="K297" t="n">
-        <v>0</v>
-      </c>
-      <c r="L297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>ex085</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>I discuss my proposal.</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1</v>
-      </c>
-      <c r="K298" t="n">
-        <v>0</v>
-      </c>
-      <c r="L298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>ex085</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr"/>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H299" t="inlineStr"/>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2</v>
-      </c>
-      <c r="K299" t="n">
-        <v>0</v>
-      </c>
-      <c r="L299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>ex085</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr"/>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>my proposal.</t>
-        </is>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>3</v>
-      </c>
-      <c r="K300" t="n">
-        <v>0</v>
-      </c>
-      <c r="L300" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L292"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6024,12 +6024,12 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6064,12 +6064,12 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6089,11 +6089,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6101,19 +6101,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Could I write the sentence down, please?</t>
-        </is>
-      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>it</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6124,7 +6120,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -6133,11 +6129,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6148,12 +6144,12 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>down</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6164,7 +6160,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -6185,15 +6181,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Could I write the sentence down, please?</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6204,7 +6204,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -6213,11 +6213,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6225,19 +6225,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Could she write the address down, please?</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6248,7 +6244,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -6257,11 +6253,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6288,7 +6284,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -6297,11 +6293,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6312,12 +6308,12 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>the sentence</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6328,7 +6324,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -6337,11 +6333,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6349,19 +6345,15 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Could they write the number down, please?</t>
-        </is>
-      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>down</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6372,7 +6364,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -6381,11 +6373,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6393,15 +6385,19 @@
           <t>write</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Could she write the address down, please?</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6412,7 +6408,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -6421,11 +6417,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6436,12 +6432,12 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6452,7 +6448,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -6461,31 +6457,27 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>I can't afford it.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6496,7 +6488,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -6505,27 +6497,27 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>the address</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6536,7 +6528,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -6545,27 +6537,27 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>afford it.</t>
+          <t>down</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6576,7 +6568,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -6585,31 +6577,31 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>You can't afford the jacket.</t>
+          <t>Could they write the number down, please?</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6629,27 +6621,27 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6669,27 +6661,27 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>afford the jacket.</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6709,31 +6701,27 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>She can't afford the car.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the number</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6744,7 +6732,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -6753,27 +6741,27 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>down</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6784,7 +6772,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -6793,11 +6781,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6805,15 +6793,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>I can't afford it.</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>afford the car.</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6824,7 +6816,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -6833,11 +6825,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6845,19 +6837,15 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>They can't afford the house.</t>
-        </is>
-      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6868,7 +6856,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6877,11 +6865,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6892,12 +6880,12 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>afford it.</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6908,7 +6896,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6917,11 +6905,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6929,15 +6917,19 @@
           <t>can't</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>You can't afford the jacket.</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>afford the house.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6948,7 +6940,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6957,31 +6949,27 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>I believe you.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6992,7 +6980,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -7001,27 +6989,27 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>afford the jacket.</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7032,7 +7020,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7041,27 +7029,31 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>She can't afford the car.</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7072,7 +7064,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -7081,31 +7073,27 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>You believe Tom.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7116,7 +7104,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -7125,27 +7113,27 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>afford the car.</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7156,7 +7144,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7165,27 +7153,31 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>They can't afford the house.</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Tom.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7196,7 +7188,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7205,31 +7197,27 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>We believe her.</t>
-        </is>
-      </c>
+          <t>can't</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7240,7 +7228,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7249,27 +7237,27 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>afford the house.</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7280,7 +7268,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -7289,11 +7277,11 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7301,15 +7289,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>I believe you.</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7320,7 +7312,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -7329,11 +7321,11 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7341,19 +7333,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>They believe him.</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7364,7 +7352,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -7373,11 +7361,11 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7388,12 +7376,12 @@
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7404,7 +7392,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -7413,11 +7401,11 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7425,15 +7413,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>You believe Tom.</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>him.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7444,7 +7436,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -7453,31 +7445,27 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Henry mentioned the fact.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7488,7 +7476,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7497,27 +7485,27 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Tom.</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7528,7 +7516,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7537,27 +7525,31 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>We believe her.</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>the fact.</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7568,7 +7560,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7577,31 +7569,27 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Sarah mentioned the issue.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7612,7 +7600,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7621,27 +7609,27 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7652,7 +7640,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7661,27 +7649,31 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>They believe him.</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>the issue.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7692,7 +7684,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7701,31 +7693,27 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Tom mentioned the problem.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7736,7 +7724,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7745,27 +7733,27 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>him.</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7776,7 +7764,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7785,11 +7773,11 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7797,15 +7785,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Henry mentioned the fact.</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>the problem.</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7816,7 +7808,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7825,11 +7817,11 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7837,19 +7829,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>They mentioned the concern.</t>
-        </is>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7860,7 +7848,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7869,11 +7857,11 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7884,12 +7872,12 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>the fact.</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7900,7 +7888,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7909,11 +7897,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7921,15 +7909,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Sarah mentioned the issue.</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>the concern.</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7940,7 +7932,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7949,31 +7941,27 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>He entered her room.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7984,7 +7972,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7993,27 +7981,27 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>the issue.</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8024,7 +8012,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -8033,27 +8021,31 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Tom mentioned the problem.</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>her room.</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8064,7 +8056,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8073,31 +8065,27 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>She entered his office.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8108,7 +8096,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -8117,27 +8105,27 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>the problem.</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8148,7 +8136,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -8157,27 +8145,31 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>They mentioned the concern.</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>his office.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8188,7 +8180,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -8197,31 +8189,27 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Tom entered Sarah's house.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8232,7 +8220,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -8241,27 +8229,27 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>the concern.</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8272,7 +8260,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -8281,11 +8269,11 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8293,15 +8281,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>He entered her room.</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Sarah's house.</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8312,7 +8304,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8321,11 +8313,11 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8333,19 +8325,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>They entered the building.</t>
-        </is>
-      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8356,7 +8344,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -8365,11 +8353,11 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8380,12 +8368,12 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>her room.</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8396,7 +8384,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -8405,11 +8393,11 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8417,15 +8405,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>She entered his office.</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8436,7 +8428,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -8445,31 +8437,27 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>He left New York a few days ago.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8480,7 +8468,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -8489,27 +8477,27 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>his office.</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8520,7 +8508,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -8529,27 +8517,31 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Tom entered Sarah's house.</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>New York a few days ago.</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8560,7 +8552,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -8569,31 +8561,27 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>She left Rome last week.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8604,7 +8592,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -8613,27 +8601,27 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Sarah's house.</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8644,7 +8632,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8653,27 +8641,31 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>They entered the building.</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Rome last week.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8684,7 +8676,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -8693,31 +8685,27 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Tom left Paris yesterday.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8728,7 +8716,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -8737,27 +8725,27 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8768,7 +8756,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -8777,11 +8765,11 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8789,15 +8777,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>He left New York a few days ago.</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Paris yesterday.</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8808,7 +8800,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -8817,11 +8809,11 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8829,19 +8821,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>They left London this morning.</t>
-        </is>
-      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8852,7 +8840,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -8861,11 +8849,11 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8876,12 +8864,12 @@
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>New York a few days ago.</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8892,7 +8880,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -8901,11 +8889,11 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8913,15 +8901,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>She left Rome last week.</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>London this morning.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8932,7 +8924,7 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -8941,31 +8933,27 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>He reached Boston the next morning.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8976,7 +8964,7 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -8985,27 +8973,27 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>Rome last week.</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9016,7 +9004,7 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
@@ -9025,27 +9013,31 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Tom left Paris yesterday.</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Boston the next morning.</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9056,7 +9048,7 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
@@ -9065,31 +9057,27 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>She reached Milan that evening.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9100,7 +9088,7 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K210" t="n">
         <v>0</v>
@@ -9109,27 +9097,27 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>Paris yesterday.</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9140,7 +9128,7 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K211" t="n">
         <v>0</v>
@@ -9149,27 +9137,31 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>They left London this morning.</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Milan that evening.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9180,7 +9172,7 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -9189,31 +9181,27 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Tom reached Tokyo at noon.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9224,7 +9212,7 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K213" t="n">
         <v>0</v>
@@ -9233,27 +9221,27 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>London this morning.</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9264,7 +9252,7 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K214" t="n">
         <v>0</v>
@@ -9273,11 +9261,11 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9285,15 +9273,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>He reached Boston the next morning.</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9304,7 +9296,7 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K215" t="n">
         <v>0</v>
@@ -9313,11 +9305,11 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9328,12 +9320,12 @@
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>at noon.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9344,7 +9336,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -9353,11 +9345,11 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9365,19 +9357,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>They reached Berlin at midnight.</t>
-        </is>
-      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Boston the next morning.</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9388,7 +9376,7 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K217" t="n">
         <v>0</v>
@@ -9397,11 +9385,11 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9409,15 +9397,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>She reached Milan that evening.</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9428,7 +9420,7 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K218" t="n">
         <v>0</v>
@@ -9437,11 +9429,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9452,12 +9444,12 @@
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9468,7 +9460,7 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K219" t="n">
         <v>0</v>
@@ -9477,11 +9469,11 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9492,12 +9484,12 @@
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>at midnight.</t>
+          <t>Milan that evening.</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9508,7 +9500,7 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K220" t="n">
         <v>0</v>
@@ -9517,21 +9509,21 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>I approach Tokyo.</t>
+          <t>Tom reached Tokyo at noon.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9541,7 +9533,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9561,16 +9553,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
@@ -9581,7 +9573,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9601,16 +9593,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
@@ -9621,7 +9613,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Tokyo.</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9641,31 +9633,27 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>You approach the station.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>at noon.</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9676,7 +9664,7 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -9685,27 +9673,31 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>They reached Berlin at midnight.</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9716,7 +9708,7 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -9725,27 +9717,27 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>the station.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9756,7 +9748,7 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -9765,31 +9757,27 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>We approach the building.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9800,7 +9788,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K227" t="n">
         <v>0</v>
@@ -9809,27 +9797,27 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>at midnight.</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9840,7 +9828,7 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -9849,11 +9837,11 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9861,15 +9849,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>I approach Tokyo.</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9880,7 +9872,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -9889,11 +9881,11 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9901,19 +9893,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>They approach the destination.</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9924,7 +9912,7 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -9933,11 +9921,11 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9948,12 +9936,12 @@
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>Tokyo.</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9964,7 +9952,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -9973,11 +9961,11 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9985,15 +9973,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>You approach the station.</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>the destination.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10004,7 +9996,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -10013,31 +10005,27 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>He resembles his mother.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10048,7 +10036,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -10057,27 +10045,27 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>the station.</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10088,7 +10076,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -10097,27 +10085,31 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>We approach the building.</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>his mother.</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10128,7 +10120,7 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -10137,31 +10129,27 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>She resembles her father.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10172,7 +10160,7 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -10181,27 +10169,27 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10212,7 +10200,7 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -10221,27 +10209,31 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>They approach the destination.</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>her father.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10252,7 +10244,7 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -10261,31 +10253,27 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Tom resembles his uncle.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10296,7 +10284,7 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -10305,27 +10293,27 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>the destination.</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10336,7 +10324,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -10345,11 +10333,11 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10357,15 +10345,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>He resembles his mother.</t>
+        </is>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>his uncle.</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10376,7 +10368,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -10385,31 +10377,27 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>They resemble their parents.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10420,7 +10408,7 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -10429,27 +10417,27 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>his mother.</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10460,7 +10448,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -10469,27 +10457,31 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>She resembles her father.</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>their parents.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10500,7 +10492,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -10509,31 +10501,27 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>She married a bald man.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10544,7 +10532,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -10553,27 +10541,27 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>her father.</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10584,7 +10572,7 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -10593,27 +10581,31 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Tom resembles his uncle.</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>a bald man.</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10624,7 +10616,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -10633,31 +10625,27 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>He married a quiet woman.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10668,7 +10656,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -10677,27 +10665,27 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>his uncle.</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10708,7 +10696,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -10717,27 +10705,31 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr"/>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>They resemble their parents.</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>a quiet woman.</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10748,7 +10740,7 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -10757,31 +10749,27 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Sarah married a kind person.</t>
-        </is>
-      </c>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10792,7 +10780,7 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -10801,27 +10789,27 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>their parents.</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10832,7 +10820,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10841,11 +10829,11 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10853,15 +10841,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>She married a bald man.</t>
+        </is>
+      </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>a kind person.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10872,7 +10864,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -10881,11 +10873,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10893,19 +10885,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>They married their partners.</t>
-        </is>
-      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10916,7 +10904,7 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -10925,11 +10913,11 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10940,12 +10928,12 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>a bald man.</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10956,7 +10944,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10965,11 +10953,11 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10977,15 +10965,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr"/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>He married a quiet woman.</t>
+        </is>
+      </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>their partners.</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10996,7 +10988,7 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -11005,11 +10997,11 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11017,19 +11009,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>She's been married to a bald man for 5 years.</t>
-        </is>
-      </c>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>She's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11040,7 +11028,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -11049,11 +11037,11 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11064,12 +11052,12 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>a quiet woman.</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11080,7 +11068,7 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -11089,11 +11077,11 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11101,15 +11089,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Sarah married a kind person.</t>
+        </is>
+      </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11120,7 +11112,7 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -11129,11 +11121,11 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11141,19 +11133,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>He's been married to a kind woman for 3 years.</t>
-        </is>
-      </c>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>He's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11164,7 +11152,7 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
@@ -11173,11 +11161,11 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11188,12 +11176,12 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>a kind person.</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11204,7 +11192,7 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K261" t="n">
         <v>0</v>
@@ -11213,11 +11201,11 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11225,15 +11213,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>They married their partners.</t>
+        </is>
+      </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11244,7 +11236,7 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -11253,11 +11245,11 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11265,19 +11257,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Sarah's been married to a nice person for 2 years.</t>
-        </is>
-      </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Sarah's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11288,7 +11276,7 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K263" t="n">
         <v>0</v>
@@ -11297,11 +11285,11 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11312,12 +11300,12 @@
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>their partners.</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11328,7 +11316,7 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K264" t="n">
         <v>0</v>
@@ -11337,11 +11325,11 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11349,15 +11337,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>She's been married to a bald man for 5 years.</t>
+        </is>
+      </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>She's</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11368,7 +11360,7 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K265" t="n">
         <v>0</v>
@@ -11377,11 +11369,11 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11389,19 +11381,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Tom's been married to a lovely partner for 10 years.</t>
-        </is>
-      </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Tom's</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11412,7 +11400,7 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -11421,11 +11409,11 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11436,12 +11424,12 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11452,7 +11440,7 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -11461,11 +11449,11 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11473,15 +11461,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr"/>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>He's been married to a kind woman for 3 years.</t>
+        </is>
+      </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>He's</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11492,7 +11484,7 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K268" t="n">
         <v>0</v>
@@ -11501,31 +11493,27 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>He'll answer your letter soon.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>He'll</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11536,7 +11524,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -11545,27 +11533,27 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11576,7 +11564,7 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -11585,27 +11573,31 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Sarah's been married to a nice person for 2 years.</t>
+        </is>
+      </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>your letter soon.</t>
+          <t>Sarah's</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11616,7 +11608,7 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
@@ -11625,31 +11617,27 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>She'll answer his message tomorrow.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>She'll</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11660,7 +11648,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
@@ -11669,27 +11657,27 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11700,7 +11688,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K273" t="n">
         <v>0</v>
@@ -11709,27 +11697,31 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Tom's been married to a lovely partner for 10 years.</t>
+        </is>
+      </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>his message tomorrow.</t>
+          <t>Tom's</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11740,7 +11732,7 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -11749,31 +11741,27 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Tom'll answer the email later.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Tom'll</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11784,7 +11772,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K275" t="n">
         <v>0</v>
@@ -11793,27 +11781,27 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11824,7 +11812,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -11833,11 +11821,11 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -11845,15 +11833,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>He'll answer your letter soon.</t>
+        </is>
+      </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>the email later.</t>
+          <t>He'll</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11864,7 +11856,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K277" t="n">
         <v>0</v>
@@ -11873,11 +11865,11 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -11885,19 +11877,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>They'll answer our call tonight.</t>
-        </is>
-      </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>They'll</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11908,7 +11896,7 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
@@ -11917,11 +11905,11 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11932,12 +11920,12 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>your letter soon.</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11948,7 +11936,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -11957,11 +11945,11 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -11969,15 +11957,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>She'll answer his message tomorrow.</t>
+        </is>
+      </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>our call tonight.</t>
+          <t>She'll</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11988,7 +11980,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K280" t="n">
         <v>0</v>
@@ -11997,31 +11989,27 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>We discuss our schedule.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12032,7 +12020,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -12041,27 +12029,27 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>his message tomorrow.</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12072,7 +12060,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -12081,27 +12069,31 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Tom'll answer the email later.</t>
+        </is>
+      </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>our schedule.</t>
+          <t>Tom'll</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12112,7 +12104,7 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K283" t="n">
         <v>0</v>
@@ -12121,31 +12113,27 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>You discuss your project.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12156,7 +12144,7 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
@@ -12165,27 +12153,27 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>the email later.</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12196,7 +12184,7 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K285" t="n">
         <v>0</v>
@@ -12205,27 +12193,31 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>They'll answer our call tonight.</t>
+        </is>
+      </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>your project.</t>
+          <t>They'll</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12236,7 +12228,7 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K286" t="n">
         <v>0</v>
@@ -12245,31 +12237,27 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>They discuss their plan.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12280,7 +12268,7 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K287" t="n">
         <v>0</v>
@@ -12289,27 +12277,27 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>our call tonight.</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12320,7 +12308,7 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K288" t="n">
         <v>0</v>
@@ -12329,11 +12317,11 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -12341,15 +12329,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr"/>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>We discuss our schedule.</t>
+        </is>
+      </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>their plan.</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12360,7 +12352,7 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K289" t="n">
         <v>0</v>
@@ -12369,11 +12361,11 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -12381,19 +12373,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>I discuss my proposal.</t>
-        </is>
-      </c>
+      <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12404,7 +12392,7 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K290" t="n">
         <v>0</v>
@@ -12413,11 +12401,11 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -12428,12 +12416,12 @@
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>our schedule.</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12444,7 +12432,7 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K291" t="n">
         <v>0</v>
@@ -12453,11 +12441,11 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -12465,15 +12453,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>You discuss your project.</t>
+        </is>
+      </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>my proposal.</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12484,12 +12476,340 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
+        <v>1</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>ex083</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>ex083</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>your project.</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
         <v>3</v>
       </c>
-      <c r="K292" t="n">
-        <v>0</v>
-      </c>
-      <c r="L292" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>They discuss their plan.</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>They</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>their plan.</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>I discuss my proposal.</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>my proposal.</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L300"/>
+  <dimension ref="A1:L304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6834,13 +6834,13 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6874,18 +6874,18 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>afford it.</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6905,31 +6905,27 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>You can't afford the jacket.</t>
-        </is>
-      </c>
+          <t>afford</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>it</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6940,7 +6936,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6958,18 +6954,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+          <t>afford</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>You can't afford the jacket.</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6980,7 +6980,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -6998,18 +6998,18 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>afford the jacket.</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7020,7 +7020,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7029,31 +7029,27 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>She can't afford the car.</t>
-        </is>
-      </c>
+          <t>afford</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7064,7 +7060,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -7073,27 +7069,27 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>the jacket</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7104,7 +7100,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -7122,18 +7118,22 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>can't</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>afford</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>She can't afford the car.</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>afford the car.</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7144,7 +7144,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7153,31 +7153,27 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>afford</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Aux</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
           <t>can't</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>They can't afford the house.</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>They</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7188,7 +7184,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7197,16 +7193,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -7217,7 +7213,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7228,7 +7224,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7237,16 +7233,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>can't</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -7257,7 +7253,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>afford the house.</t>
+          <t>the car</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7268,7 +7264,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -7277,21 +7273,21 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>I believe you.</t>
+          <t>They can't afford the house.</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7301,7 +7297,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7321,27 +7317,27 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>can't</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7361,27 +7357,27 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>you.</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7401,31 +7397,27 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>You believe Tom.</t>
-        </is>
-      </c>
+          <t>afford</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>the house</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7436,7 +7428,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -7445,11 +7437,11 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7457,15 +7449,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>I believe you.</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7476,7 +7472,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7485,11 +7481,11 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7500,12 +7496,12 @@
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Tom.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7516,7 +7512,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7525,11 +7521,11 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7537,19 +7533,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>We believe her.</t>
-        </is>
-      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>you.</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7560,7 +7552,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7569,11 +7561,11 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7581,15 +7573,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>You believe Tom.</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7600,7 +7596,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7609,11 +7605,11 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7624,12 +7620,12 @@
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>her.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7640,7 +7636,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7649,11 +7645,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7661,19 +7657,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>They believe him.</t>
-        </is>
-      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom.</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7684,7 +7676,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7693,11 +7685,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7705,15 +7697,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>We believe her.</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7724,7 +7720,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7733,11 +7729,11 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7748,12 +7744,12 @@
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>him.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7764,7 +7760,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7773,31 +7769,27 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Henry mentioned the fact.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>her.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7808,7 +7800,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7817,27 +7809,31 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>They believe him.</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7848,7 +7844,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7857,27 +7853,27 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>the fact.</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7888,7 +7884,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7897,31 +7893,27 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Sarah mentioned the issue.</t>
-        </is>
-      </c>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>him.</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7932,7 +7924,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7941,11 +7933,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7953,15 +7945,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Henry mentioned the fact.</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7972,7 +7968,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7981,11 +7977,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7996,12 +7992,12 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>the issue.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8012,7 +8008,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -8021,11 +8017,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8033,19 +8029,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Tom mentioned the problem.</t>
-        </is>
-      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>the fact.</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8056,7 +8048,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8065,11 +8057,11 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8077,15 +8069,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Sarah mentioned the issue.</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8096,7 +8092,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -8105,11 +8101,11 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8120,12 +8116,12 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>the problem.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8136,7 +8132,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -8145,11 +8141,11 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8157,19 +8153,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>They mentioned the concern.</t>
-        </is>
-      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the issue.</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8180,7 +8172,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -8189,11 +8181,11 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8201,15 +8193,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Tom mentioned the problem.</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8220,7 +8216,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -8229,11 +8225,11 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8244,12 +8240,12 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>the concern.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8260,7 +8256,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -8269,31 +8265,27 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>He entered her room.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>the problem.</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8304,7 +8296,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8313,27 +8305,31 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>They mentioned the concern.</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8344,7 +8340,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -8353,27 +8349,27 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>her room.</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8384,7 +8380,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -8393,31 +8389,27 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>She entered his office.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the concern.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8428,7 +8420,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -8437,11 +8429,11 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8449,15 +8441,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>He entered her room.</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8468,7 +8464,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -8477,11 +8473,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8492,12 +8488,12 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>his office.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8508,7 +8504,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -8517,11 +8513,11 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8529,19 +8525,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Tom entered Sarah's house.</t>
-        </is>
-      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>her room.</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8552,7 +8544,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -8561,11 +8553,11 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8573,15 +8565,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>She entered his office.</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8592,7 +8588,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -8601,11 +8597,11 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8616,12 +8612,12 @@
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Sarah's house.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8632,7 +8628,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8641,11 +8637,11 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8653,19 +8649,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>They entered the building.</t>
-        </is>
-      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>his office.</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8676,7 +8668,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -8685,11 +8677,11 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8697,15 +8689,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Tom entered Sarah's house.</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8716,7 +8712,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -8725,11 +8721,11 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8740,12 +8736,12 @@
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8756,7 +8752,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -8765,31 +8761,27 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>He left New York a few days ago.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Sarah's house.</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8800,7 +8792,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -8809,27 +8801,31 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>They entered the building.</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8840,7 +8836,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -8849,27 +8845,27 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>New York a few days ago.</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8880,7 +8876,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -8889,31 +8885,27 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>She left Rome last week.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8924,7 +8916,7 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -8933,11 +8925,11 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8945,15 +8937,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>He left New York a few days ago.</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8964,7 +8960,7 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -8973,11 +8969,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8988,12 +8984,12 @@
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Rome last week.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9004,7 +9000,7 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
@@ -9013,11 +9009,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9025,19 +9021,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Tom left Paris yesterday.</t>
-        </is>
-      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>New York a few days ago.</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9048,7 +9040,7 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
@@ -9057,11 +9049,11 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9069,15 +9061,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>She left Rome last week.</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9088,7 +9084,7 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K210" t="n">
         <v>0</v>
@@ -9097,11 +9093,11 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9112,12 +9108,12 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Paris yesterday.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9128,7 +9124,7 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K211" t="n">
         <v>0</v>
@@ -9137,11 +9133,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9149,19 +9145,15 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>They left London this morning.</t>
-        </is>
-      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Rome last week.</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9172,7 +9164,7 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -9181,11 +9173,11 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -9193,15 +9185,19 @@
           <t>left</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Tom left Paris yesterday.</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9212,7 +9208,7 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K213" t="n">
         <v>0</v>
@@ -9221,11 +9217,11 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -9236,12 +9232,12 @@
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>London this morning.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9252,7 +9248,7 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K214" t="n">
         <v>0</v>
@@ -9261,31 +9257,27 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>He reached Boston the next morning.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Paris yesterday.</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9296,7 +9288,7 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K215" t="n">
         <v>0</v>
@@ -9305,27 +9297,31 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>They left London this morning.</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9336,7 +9332,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -9345,27 +9341,27 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Boston the next morning.</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9376,7 +9372,7 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K217" t="n">
         <v>0</v>
@@ -9385,31 +9381,27 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>She reached Milan that evening.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>London this morning.</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9420,7 +9412,7 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K218" t="n">
         <v>0</v>
@@ -9429,11 +9421,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9441,15 +9433,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>He reached Boston the next morning.</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9460,7 +9456,7 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K219" t="n">
         <v>0</v>
@@ -9469,11 +9465,11 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9484,12 +9480,12 @@
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Milan that evening.</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9500,7 +9496,7 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K220" t="n">
         <v>0</v>
@@ -9509,11 +9505,11 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9521,19 +9517,15 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Tom reached Tokyo at noon.</t>
-        </is>
-      </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Boston the next morning.</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9544,7 +9536,7 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K221" t="n">
         <v>0</v>
@@ -9553,11 +9545,11 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9565,15 +9557,19 @@
           <t>reached</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>She reached Milan that evening.</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9584,7 +9580,7 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K222" t="n">
         <v>0</v>
@@ -9593,11 +9589,11 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9608,12 +9604,12 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9624,7 +9620,7 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K223" t="n">
         <v>0</v>
@@ -9633,11 +9629,11 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9648,12 +9644,12 @@
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>at noon.</t>
+          <t>Milan that evening.</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9664,7 +9660,7 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -9673,11 +9669,11 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9687,7 +9683,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>They reached Berlin at midnight.</t>
+          <t>Tom reached Tokyo at noon.</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9697,7 +9693,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9717,11 +9713,11 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9757,11 +9753,11 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9777,7 +9773,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9797,11 +9793,11 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9817,7 +9813,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>at midnight.</t>
+          <t>at noon.</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9837,21 +9833,21 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>I approach Tokyo.</t>
+          <t>They reached Berlin at midnight.</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9861,7 +9857,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9881,16 +9877,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
@@ -9901,7 +9897,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9921,16 +9917,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
@@ -9941,7 +9937,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Tokyo.</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9961,31 +9957,27 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>You approach the station.</t>
-        </is>
-      </c>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>at midnight.</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9996,7 +9988,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -10005,11 +9997,11 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -10017,15 +10009,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>I approach Tokyo.</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10036,7 +10032,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -10045,11 +10041,11 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -10060,12 +10056,12 @@
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>the station.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10076,7 +10072,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -10085,11 +10081,11 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -10097,19 +10093,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>We approach the building.</t>
-        </is>
-      </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>Tokyo.</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10120,7 +10112,7 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -10129,11 +10121,11 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10141,15 +10133,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>You approach the station.</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10160,7 +10156,7 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -10169,11 +10165,11 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10184,12 +10180,12 @@
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>the building.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10200,7 +10196,7 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -10209,11 +10205,11 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10221,19 +10217,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>They approach the destination.</t>
-        </is>
-      </c>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>the station.</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10244,7 +10236,7 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -10253,11 +10245,11 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10265,15 +10257,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>We approach the building.</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10284,7 +10280,7 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -10293,11 +10289,11 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10308,12 +10304,12 @@
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>the destination.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10324,7 +10320,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -10333,31 +10329,27 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>He resembles his mother.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>the building.</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10368,7 +10360,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -10377,27 +10369,31 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>They approach the destination.</t>
+        </is>
+      </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10408,7 +10404,7 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -10417,27 +10413,27 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>his mother.</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10448,7 +10444,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -10457,31 +10453,27 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>She resembles her father.</t>
-        </is>
-      </c>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>the destination.</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10492,7 +10484,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -10501,11 +10493,11 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10513,15 +10505,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>He resembles his mother.</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10532,7 +10528,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -10541,11 +10537,11 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -10556,12 +10552,12 @@
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>her father.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10572,7 +10568,7 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -10581,11 +10577,11 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10593,19 +10589,15 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Tom resembles his uncle.</t>
-        </is>
-      </c>
+      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>his mother.</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10616,7 +10608,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -10625,11 +10617,11 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10637,15 +10629,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>She resembles her father.</t>
+        </is>
+      </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10656,7 +10652,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -10665,11 +10661,11 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10680,12 +10676,12 @@
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>his uncle.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10696,7 +10692,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -10705,31 +10701,27 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>They resemble their parents.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>her father.</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10740,7 +10732,7 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -10749,27 +10741,31 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Tom resembles his uncle.</t>
+        </is>
+      </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10780,7 +10776,7 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -10789,27 +10785,27 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>their parents.</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10820,7 +10816,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10829,31 +10825,27 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>She married a bald man.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>his uncle.</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10864,7 +10856,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -10873,27 +10865,31 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr"/>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>They resemble their parents.</t>
+        </is>
+      </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10904,7 +10900,7 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -10913,27 +10909,27 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>a bald man.</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10944,7 +10940,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10953,31 +10949,27 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>He married a quiet woman.</t>
-        </is>
-      </c>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>their parents.</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10988,7 +10980,7 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -10997,11 +10989,11 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11009,15 +11001,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>She married a bald man.</t>
+        </is>
+      </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11028,7 +11024,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -11037,11 +11033,11 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11052,12 +11048,12 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>a quiet woman.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11068,7 +11064,7 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -11077,11 +11073,11 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11089,19 +11085,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Sarah married a kind person.</t>
-        </is>
-      </c>
+      <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>a bald man.</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11112,7 +11104,7 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -11121,11 +11113,11 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11133,15 +11125,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>He married a quiet woman.</t>
+        </is>
+      </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11152,7 +11148,7 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
@@ -11161,11 +11157,11 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11176,12 +11172,12 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>a kind person.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11192,7 +11188,7 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K261" t="n">
         <v>0</v>
@@ -11201,11 +11197,11 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11213,19 +11209,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>They married their partners.</t>
-        </is>
-      </c>
+      <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>a quiet woman.</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11236,7 +11228,7 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -11245,11 +11237,11 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11257,15 +11249,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Sarah married a kind person.</t>
+        </is>
+      </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11276,7 +11272,7 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K263" t="n">
         <v>0</v>
@@ -11285,11 +11281,11 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11300,12 +11296,12 @@
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>their partners.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11316,7 +11312,7 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K264" t="n">
         <v>0</v>
@@ -11325,11 +11321,11 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11337,19 +11333,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>She's been married to a bald man for 5 years.</t>
-        </is>
-      </c>
+      <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>She's</t>
+          <t>a kind person.</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11360,7 +11352,7 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K265" t="n">
         <v>0</v>
@@ -11369,11 +11361,11 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11381,15 +11373,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>They married their partners.</t>
+        </is>
+      </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11400,7 +11396,7 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -11409,11 +11405,11 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11424,12 +11420,12 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11440,7 +11436,7 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -11449,11 +11445,11 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11461,19 +11457,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>He's been married to a kind woman for 3 years.</t>
-        </is>
-      </c>
+      <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>He's</t>
+          <t>their partners.</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11484,7 +11476,7 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K268" t="n">
         <v>0</v>
@@ -11493,11 +11485,11 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11505,15 +11497,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr"/>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>She's been married to a bald man for 5 years.</t>
+        </is>
+      </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>She's</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11524,7 +11520,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -11533,11 +11529,11 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11548,12 +11544,12 @@
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11564,7 +11560,7 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -11573,11 +11569,11 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11585,19 +11581,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Sarah's been married to a nice person for 2 years.</t>
-        </is>
-      </c>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Sarah's</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11608,7 +11600,7 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
@@ -11617,11 +11609,11 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11629,15 +11621,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>He's been married to a kind woman for 3 years.</t>
+        </is>
+      </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>He's</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11648,7 +11644,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
@@ -11657,11 +11653,11 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -11672,12 +11668,12 @@
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11688,7 +11684,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K273" t="n">
         <v>0</v>
@@ -11697,11 +11693,11 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11709,19 +11705,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Tom's been married to a lovely partner for 10 years.</t>
-        </is>
-      </c>
+      <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Tom's</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11732,7 +11724,7 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -11741,11 +11733,11 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -11753,15 +11745,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Sarah's been married to a nice person for 2 years.</t>
+        </is>
+      </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>Sarah's</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11772,7 +11768,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K275" t="n">
         <v>0</v>
@@ -11781,11 +11777,11 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -11796,12 +11792,12 @@
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>been</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11812,7 +11808,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -11821,31 +11817,27 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>He'll answer your letter soon.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>He'll</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11856,7 +11848,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K277" t="n">
         <v>0</v>
@@ -11865,27 +11857,31 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Tom's been married to a lovely partner for 10 years.</t>
+        </is>
+      </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>Tom's</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11896,7 +11892,7 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
@@ -11905,27 +11901,27 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>your letter soon.</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11936,7 +11932,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -11945,31 +11941,27 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>She'll answer his message tomorrow.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>She'll</t>
+          <t>been</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11980,7 +11972,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K280" t="n">
         <v>0</v>
@@ -11989,11 +11981,11 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -12001,15 +11993,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>He'll answer your letter soon.</t>
+        </is>
+      </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>He'll</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12020,7 +12016,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -12029,11 +12025,11 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -12044,12 +12040,12 @@
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>his message tomorrow.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12060,7 +12056,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -12069,11 +12065,11 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -12081,19 +12077,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Tom'll answer the email later.</t>
-        </is>
-      </c>
+      <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Tom'll</t>
+          <t>your letter soon.</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12104,7 +12096,7 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K283" t="n">
         <v>0</v>
@@ -12113,11 +12105,11 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -12125,15 +12117,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>She'll answer his message tomorrow.</t>
+        </is>
+      </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>She'll</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12144,7 +12140,7 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
@@ -12153,11 +12149,11 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -12168,12 +12164,12 @@
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>the email later.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12184,7 +12180,7 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K285" t="n">
         <v>0</v>
@@ -12193,11 +12189,11 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -12205,19 +12201,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>They'll answer our call tonight.</t>
-        </is>
-      </c>
+      <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>They'll</t>
+          <t>his message tomorrow.</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12228,7 +12220,7 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K286" t="n">
         <v>0</v>
@@ -12237,11 +12229,11 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -12249,15 +12241,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr"/>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Tom'll answer the email later.</t>
+        </is>
+      </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>Tom'll</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12268,7 +12264,7 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K287" t="n">
         <v>0</v>
@@ -12277,11 +12273,11 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -12292,12 +12288,12 @@
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>our call tonight.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12308,7 +12304,7 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K288" t="n">
         <v>0</v>
@@ -12317,31 +12313,27 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>We discuss our schedule.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>the email later.</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12352,7 +12344,7 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K289" t="n">
         <v>0</v>
@@ -12361,27 +12353,31 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr"/>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>They'll answer our call tonight.</t>
+        </is>
+      </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>They'll</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12392,7 +12388,7 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K290" t="n">
         <v>0</v>
@@ -12401,27 +12397,27 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>our schedule.</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12432,7 +12428,7 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K291" t="n">
         <v>0</v>
@@ -12441,31 +12437,27 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>You discuss your project.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>our call tonight.</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12476,7 +12468,7 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K292" t="n">
         <v>0</v>
@@ -12485,11 +12477,11 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -12497,15 +12489,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr"/>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>We discuss our schedule.</t>
+        </is>
+      </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -12516,7 +12512,7 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K293" t="n">
         <v>0</v>
@@ -12525,11 +12521,11 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -12540,12 +12536,12 @@
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>your project.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -12556,7 +12552,7 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K294" t="n">
         <v>0</v>
@@ -12565,11 +12561,11 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -12577,19 +12573,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>They discuss their plan.</t>
-        </is>
-      </c>
+      <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>our schedule.</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -12600,7 +12592,7 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K295" t="n">
         <v>0</v>
@@ -12609,11 +12601,11 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -12621,15 +12613,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>You discuss your project.</t>
+        </is>
+      </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -12640,7 +12636,7 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K296" t="n">
         <v>0</v>
@@ -12649,11 +12645,11 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -12664,12 +12660,12 @@
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>their plan.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -12680,7 +12676,7 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K297" t="n">
         <v>0</v>
@@ -12689,11 +12685,11 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -12701,19 +12697,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>I discuss my proposal.</t>
-        </is>
-      </c>
+      <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>your project.</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -12724,7 +12716,7 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K298" t="n">
         <v>0</v>
@@ -12733,11 +12725,11 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -12745,15 +12737,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>They discuss their plan.</t>
+        </is>
+      </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -12764,7 +12760,7 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K299" t="n">
         <v>0</v>
@@ -12773,11 +12769,11 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ex085</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -12788,12 +12784,12 @@
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>my proposal.</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -12804,12 +12800,176 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
+        <v>2</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>ex084</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>their plan.</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
         <v>3</v>
       </c>
-      <c r="K300" t="n">
-        <v>0</v>
-      </c>
-      <c r="L300" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>I discuss my proposal.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>ex085</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>my proposal.</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L296"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +636,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -760,7 +760,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -884,7 +884,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1008,7 +1008,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1132,7 +1132,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2433,11 +2433,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ex014</t>
+          <t>ex015</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2445,15 +2445,19 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>You, give that to him clearly.</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>to me</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2464,7 +2468,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2485,19 +2489,15 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>You, give that to him clearly.</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>give</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2532,12 +2532,12 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>that</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2548,7 +2548,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2557,11 +2557,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ex015</t>
+          <t>ex016</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2569,15 +2569,19 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>You, give this to her honestly.</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>that</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2588,7 +2592,7 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2597,11 +2601,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ex015</t>
+          <t>ex016</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2612,12 +2616,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>to him</t>
+          <t>give</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2628,7 +2632,7 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2649,19 +2653,15 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>You, give this to her honestly.</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>this</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2672,7 +2672,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2681,11 +2681,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ex016</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2693,15 +2693,19 @@
           <t>give</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>You, give them to us directly.</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2712,7 +2716,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2721,11 +2725,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ex016</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2736,12 +2740,12 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>give</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2752,7 +2756,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2761,11 +2765,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ex016</t>
+          <t>ex017</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2776,12 +2780,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>to her</t>
+          <t>them</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2792,7 +2796,7 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -2801,21 +2805,21 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ex017</t>
+          <t>ex018</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>You, give them to us directly.</t>
+          <t>That reminds me.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2825,7 +2829,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>That</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2845,16 +2849,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ex017</t>
+          <t>ex018</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2865,7 +2869,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2885,16 +2889,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ex017</t>
+          <t>ex018</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2905,7 +2909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>them</t>
+          <t>me</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2925,27 +2929,31 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ex017</t>
+          <t>ex019</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>give</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>reminds</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>This reminds you.</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>to us</t>
+          <t>This</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2956,7 +2964,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -2965,11 +2973,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ex018</t>
+          <t>ex019</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2977,19 +2985,15 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>That reminds me.</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>That</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3000,7 +3004,7 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3009,11 +3013,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ex018</t>
+          <t>ex019</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3024,12 +3028,12 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3040,7 +3044,7 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3049,11 +3053,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ex018</t>
+          <t>ex020</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3061,15 +3065,19 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>It reminds her.</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>It</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3080,7 +3088,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3089,11 +3097,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ex019</t>
+          <t>ex020</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3101,19 +3109,15 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>This reminds you.</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>This</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3124,7 +3128,7 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3133,11 +3137,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ex019</t>
+          <t>ex020</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3148,12 +3152,12 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>her</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3164,7 +3168,7 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3173,11 +3177,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ex019</t>
+          <t>ex021</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3185,15 +3189,19 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Everything reminds them.</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>Everything</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3204,7 +3212,7 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3213,11 +3221,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ex020</t>
+          <t>ex021</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3225,19 +3233,15 @@
           <t>reminds</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>It reminds her.</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>It</t>
+          <t>reminds</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3248,7 +3252,7 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3257,11 +3261,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ex020</t>
+          <t>ex021</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3272,12 +3276,12 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>them</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3288,7 +3292,7 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3297,27 +3301,31 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ex020</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>reminds</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Would you hold the line, please?</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>her</t>
+          <t>Would</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3328,7 +3336,7 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3337,23 +3345,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ex021</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>reminds</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Everything reminds them.</t>
-        </is>
-      </c>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>S</t>
@@ -3361,7 +3365,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Everything</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3372,7 +3376,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -3381,16 +3385,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ex021</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -3401,7 +3405,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3412,7 +3416,7 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -3421,16 +3425,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ex021</t>
+          <t>ex022</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>reminds</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -3441,7 +3445,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>them</t>
+          <t>the line</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3452,7 +3456,7 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -3461,11 +3465,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3475,7 +3479,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Would you hold the line, please?</t>
+          <t>Would you hold the call, please?</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3505,11 +3509,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3545,11 +3549,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3585,11 +3589,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ex022</t>
+          <t>ex023</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3605,7 +3609,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>the line</t>
+          <t>the call</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3625,11 +3629,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3639,7 +3643,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Would you hold the call, please?</t>
+          <t>Would you hold the phone, please?</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3669,11 +3673,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3709,11 +3713,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3749,11 +3753,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ex023</t>
+          <t>ex024</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3769,7 +3773,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>the call</t>
+          <t>the phone</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3789,11 +3793,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3803,7 +3807,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Would you hold the phone, please?</t>
+          <t>Would you hold the connection, please?</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3833,11 +3837,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3873,11 +3877,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3913,11 +3917,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ex024</t>
+          <t>ex025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3933,7 +3937,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>the phone</t>
+          <t>the connection</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3953,31 +3957,31 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Would you hold the connection, please?</t>
+          <t>I haven't seen you for a long time.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Would</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3997,27 +4001,27 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>have</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4037,16 +4041,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -4057,7 +4061,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4077,16 +4081,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ex025</t>
+          <t>ex026</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -4097,7 +4101,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>the connection</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4129,19 +4133,15 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>I haven't seen you for a long time.</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>for a long time</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4152,7 +4152,7 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4161,11 +4161,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4173,15 +4173,19 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>You haven't seen me for ages.</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4192,7 +4196,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -4201,11 +4205,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4216,12 +4220,12 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>have</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4232,7 +4236,7 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -4241,11 +4245,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4256,12 +4260,12 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4272,7 +4276,7 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -4281,11 +4285,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ex026</t>
+          <t>ex027</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4296,12 +4300,12 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>for a long time</t>
+          <t>me</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4312,7 +4316,7 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -4333,19 +4337,15 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>You haven't seen me for ages.</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>for ages</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4356,7 +4356,7 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -4365,11 +4365,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4377,15 +4377,19 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>We haven't seen Ken for months.</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4396,7 +4400,7 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4405,11 +4409,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4420,12 +4424,12 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>have</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4436,7 +4440,7 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4445,11 +4449,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4460,12 +4464,12 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4476,7 +4480,7 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4485,11 +4489,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ex027</t>
+          <t>ex028</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4500,12 +4504,12 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>for ages</t>
+          <t>Ken</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4516,7 +4520,7 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -4537,19 +4541,15 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>We haven't seen Ken for months.</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>for months</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4560,7 +4560,7 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -4584,12 +4584,12 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>months</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4600,7 +4600,7 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -4609,11 +4609,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4621,15 +4621,19 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>They haven't seen him for years.</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4640,7 +4644,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4649,11 +4653,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4664,12 +4668,12 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ken</t>
+          <t>have</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4680,7 +4684,7 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -4689,11 +4693,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4704,12 +4708,12 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>for months</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4720,7 +4724,7 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4729,11 +4733,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ex028</t>
+          <t>ex029</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4744,12 +4748,12 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>months</t>
+          <t>him</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4760,7 +4764,7 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -4781,19 +4785,15 @@
           <t>seen</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>They haven't seen him for years.</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>for years</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4804,7 +4804,7 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4828,12 +4828,12 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>years</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4853,27 +4853,31 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>seen</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>I want something hot.</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4884,7 +4888,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4893,27 +4897,27 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>him</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4924,7 +4928,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -4933,27 +4937,27 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex030</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>want</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>for years</t>
+          <t>something hot</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4964,7 +4968,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -4973,27 +4977,31 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ex029</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>seen</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>You want something spicy.</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5004,7 +5012,7 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -5013,11 +5021,11 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5025,19 +5033,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>I want something hot.</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5048,7 +5052,7 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5057,11 +5061,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex031</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5072,12 +5076,12 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>something spicy</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5088,7 +5092,7 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -5097,11 +5101,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ex030</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5109,15 +5113,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>We want something sweet.</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>something hot</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5128,7 +5136,7 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -5137,11 +5145,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5149,19 +5157,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>You want something spicy.</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5172,7 +5176,7 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -5181,11 +5185,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex032</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5196,12 +5200,12 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>something sweet</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5212,7 +5216,7 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -5221,11 +5225,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ex031</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5233,15 +5237,19 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>They want something fresh.</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>something spicy</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5252,7 +5260,7 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -5261,11 +5269,11 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5273,19 +5281,15 @@
           <t>want</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>We want something sweet.</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>want</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5296,7 +5300,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5305,11 +5309,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex033</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5320,12 +5324,12 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>something fresh</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5336,7 +5340,7 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -5345,27 +5349,31 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ex032</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Could you write it down, please?</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>something sweet</t>
+          <t>Could</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5376,7 +5384,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5385,23 +5393,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>They want something fresh.</t>
-        </is>
-      </c>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
           <t>S</t>
@@ -5409,7 +5413,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5420,7 +5424,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5429,16 +5433,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -5449,7 +5453,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>write</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5460,7 +5464,7 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -5469,16 +5473,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ex033</t>
+          <t>ex034</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -5489,7 +5493,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>something fresh</t>
+          <t>it</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5500,7 +5504,7 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -5509,11 +5513,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5523,7 +5527,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Could you write it down, please?</t>
+          <t>Could I write the sentence down, please?</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5553,11 +5557,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5573,7 +5577,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5593,11 +5597,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5633,11 +5637,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ex034</t>
+          <t>ex035</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5653,7 +5657,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>the sentence</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5673,11 +5677,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5687,7 +5691,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Could I write the sentence down, please?</t>
+          <t>Could she write the address down, please?</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5717,11 +5721,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5737,7 +5741,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5757,11 +5761,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5797,11 +5801,11 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ex035</t>
+          <t>ex036</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5817,7 +5821,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>the sentence</t>
+          <t>the address</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5837,11 +5841,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5851,7 +5855,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Could she write the address down, please?</t>
+          <t>Could they write the number down, please?</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5881,11 +5885,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5901,7 +5905,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5921,11 +5925,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5961,11 +5965,11 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ex036</t>
+          <t>ex037</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5981,7 +5985,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>the address</t>
+          <t>the number</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6001,31 +6005,31 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Could they write the number down, please?</t>
+          <t>I can't afford it.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Could</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6045,27 +6049,27 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6085,27 +6089,27 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>it</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6125,27 +6129,27 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ex037</t>
+          <t>ex038</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>the number</t>
+          <t>cannot</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6156,7 +6160,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -6165,11 +6169,11 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6179,7 +6183,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>I can't afford it.</t>
+          <t>You can't afford the jacket.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6189,7 +6193,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6209,11 +6213,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6249,11 +6253,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6269,7 +6273,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>the jacket</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6289,11 +6293,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ex038</t>
+          <t>ex039</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6329,11 +6333,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6343,7 +6347,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>You can't afford the jacket.</t>
+          <t>She can't afford the car.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6353,7 +6357,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6373,11 +6377,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6413,11 +6417,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6433,7 +6437,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>the jacket</t>
+          <t>the car</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6453,11 +6457,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ex039</t>
+          <t>ex040</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6493,11 +6497,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6507,7 +6511,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>She can't afford the car.</t>
+          <t>They can't afford the house.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6517,7 +6521,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6537,11 +6541,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6577,11 +6581,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6597,7 +6601,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>the car</t>
+          <t>the house</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6617,11 +6621,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ex040</t>
+          <t>ex041</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6657,21 +6661,21 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>afford</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>They can't afford the house.</t>
+          <t>I believe you.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6681,7 +6685,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6701,16 +6705,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>afford</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -6721,7 +6725,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>afford</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6741,16 +6745,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex042</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>afford</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -6761,7 +6765,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>the house</t>
+          <t>you</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6781,27 +6785,31 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ex041</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>afford</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>You believe Tom.</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>cannot</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6812,7 +6820,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -6821,11 +6829,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6833,19 +6841,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>I believe you.</t>
-        </is>
-      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6856,7 +6860,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6865,11 +6869,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex043</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6880,12 +6884,12 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6896,7 +6900,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6905,11 +6909,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ex042</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6917,15 +6921,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>We believe her.</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6936,7 +6944,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6945,11 +6953,11 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6957,19 +6965,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>You believe Tom.</t>
-        </is>
-      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6980,7 +6984,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -6989,11 +6993,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex044</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7004,12 +7008,12 @@
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>her</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7020,7 +7024,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7029,11 +7033,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ex043</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7041,15 +7045,19 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>They believe him.</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7060,7 +7068,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -7069,11 +7077,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7081,19 +7089,15 @@
           <t>believe</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>We believe her.</t>
-        </is>
-      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7104,7 +7108,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -7113,11 +7117,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex045</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7128,12 +7132,12 @@
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>him</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7144,7 +7148,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7153,27 +7157,31 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ex044</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Henry mentioned the fact.</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>her</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7184,7 +7192,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7193,31 +7201,27 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>They believe him.</t>
-        </is>
-      </c>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7228,7 +7232,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7237,27 +7241,27 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex046</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>the fact</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7268,7 +7272,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -7277,27 +7281,31 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ex045</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Sarah mentioned the issue.</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>him</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7308,7 +7316,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -7317,11 +7325,11 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7329,19 +7337,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Henry mentioned the fact.</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7352,7 +7356,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -7361,11 +7365,11 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex047</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7376,12 +7380,12 @@
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>the issue</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7392,7 +7396,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -7401,11 +7405,11 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ex046</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7413,15 +7417,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Tom mentioned the problem.</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>the fact</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7432,7 +7440,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -7441,11 +7449,11 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7453,19 +7461,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Sarah mentioned the issue.</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7476,7 +7480,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7485,11 +7489,11 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex048</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7500,12 +7504,12 @@
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>the problem</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7516,7 +7520,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7525,11 +7529,11 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ex047</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7537,15 +7541,19 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>They mentioned the concern.</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>the issue</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7556,7 +7564,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7565,11 +7573,11 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7577,19 +7585,15 @@
           <t>mentioned</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Tom mentioned the problem.</t>
-        </is>
-      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7600,7 +7604,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7609,11 +7613,11 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex049</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7624,12 +7628,12 @@
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>the concern</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7640,7 +7644,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7649,27 +7653,31 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ex048</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>He entered her room.</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>the problem</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7680,7 +7688,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7689,31 +7697,27 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>They mentioned the concern.</t>
-        </is>
-      </c>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7724,7 +7728,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7733,27 +7737,27 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex050</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>room</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7764,7 +7768,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7773,27 +7777,31 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ex049</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>She entered his office.</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>the concern</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7804,7 +7812,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7813,11 +7821,11 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7825,19 +7833,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>He entered her room.</t>
-        </is>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7848,7 +7852,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7857,11 +7861,11 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex051</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7872,12 +7876,12 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>office</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7888,7 +7892,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7897,11 +7901,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ex050</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7909,15 +7913,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Tom entered Sarah's house.</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7928,7 +7936,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7937,11 +7945,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7949,19 +7957,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>She entered his office.</t>
-        </is>
-      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7972,7 +7976,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7981,11 +7985,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex052</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7996,12 +8000,12 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8012,7 +8016,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -8021,11 +8025,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ex051</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8033,15 +8037,19 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>They entered the building.</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8052,7 +8060,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8061,11 +8069,11 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8073,19 +8081,15 @@
           <t>entered</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Tom entered Sarah's house.</t>
-        </is>
-      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8096,7 +8100,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -8105,11 +8109,11 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex053</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8120,23 +8124,23 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>the building</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -8145,27 +8149,31 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ex052</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>He left New York a few days ago.</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8176,7 +8184,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -8185,31 +8193,27 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>They entered the building.</t>
-        </is>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8220,7 +8224,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -8229,27 +8233,27 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8260,7 +8264,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -8269,38 +8273,38 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ex053</t>
+          <t>ex054</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>the building</t>
+          <t>a few days ago</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8309,11 +8313,11 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8323,7 +8327,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>He left New York a few days ago.</t>
+          <t>She left Rome last week.</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8333,7 +8337,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8353,11 +8357,11 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8393,11 +8397,11 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8413,7 +8417,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8433,11 +8437,11 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ex054</t>
+          <t>ex055</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8453,7 +8457,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>a few days ago</t>
+          <t>last week</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8473,11 +8477,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8487,7 +8491,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>She left Rome last week.</t>
+          <t>Tom left Paris yesterday.</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8497,7 +8501,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8517,11 +8521,11 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8557,11 +8561,11 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8577,7 +8581,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8597,11 +8601,11 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ex055</t>
+          <t>ex056</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8617,7 +8621,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>last week</t>
+          <t>yesterday</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8637,11 +8641,11 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8651,7 +8655,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Tom left Paris yesterday.</t>
+          <t>They left London this morning.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8661,7 +8665,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8681,11 +8685,11 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8721,11 +8725,11 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8741,7 +8745,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>London</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8761,11 +8765,11 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ex056</t>
+          <t>ex057</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8781,7 +8785,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>yesterday</t>
+          <t>this morning</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8801,21 +8805,21 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>They left London this morning.</t>
+          <t>He reached Boston the next morning.</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8825,7 +8829,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8845,16 +8849,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
@@ -8865,7 +8869,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8885,16 +8889,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -8905,7 +8909,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8925,16 +8929,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ex057</t>
+          <t>ex058</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>reached</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -8945,7 +8949,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>this morning</t>
+          <t>next morning</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8965,11 +8969,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8979,7 +8983,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>He reached Boston the next morning.</t>
+          <t>She reached Milan that evening.</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -8989,7 +8993,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9009,11 +9013,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9049,11 +9053,11 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9069,7 +9073,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9089,11 +9093,11 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ex058</t>
+          <t>ex059</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9109,7 +9113,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>next morning</t>
+          <t>that evening</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9129,11 +9133,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9143,7 +9147,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>She reached Milan that evening.</t>
+          <t>Tom reached Tokyo at noon.</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9153,7 +9157,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9173,11 +9177,11 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -9213,11 +9217,11 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -9233,7 +9237,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9253,11 +9257,11 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ex059</t>
+          <t>ex060</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9273,7 +9277,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>that evening</t>
+          <t>at noon</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9293,11 +9297,11 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9307,7 +9311,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tom reached Tokyo at noon.</t>
+          <t>They reached Berlin at midnight.</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9317,7 +9321,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9337,11 +9341,11 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9377,11 +9381,11 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9397,7 +9401,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9417,11 +9421,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ex060</t>
+          <t>ex061</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9437,7 +9441,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>at midnight</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9457,21 +9461,21 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>They reached Berlin at midnight.</t>
+          <t>I approach Tokyo.</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9481,7 +9485,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9501,16 +9505,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
@@ -9521,7 +9525,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9541,16 +9545,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex062</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
@@ -9561,7 +9565,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9581,27 +9585,31 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ex061</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>reached</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>You approach the station.</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>midnight</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9612,7 +9620,7 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K223" t="n">
         <v>0</v>
@@ -9621,11 +9629,11 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9633,19 +9641,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>I approach Tokyo.</t>
-        </is>
-      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9656,7 +9660,7 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -9665,11 +9669,11 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex063</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9680,12 +9684,12 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>the station</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9696,7 +9700,7 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -9705,11 +9709,11 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ex062</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9717,15 +9721,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>We approach the building.</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9736,7 +9744,7 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -9745,11 +9753,11 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9757,19 +9765,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>You approach the station.</t>
-        </is>
-      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9780,7 +9784,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K227" t="n">
         <v>0</v>
@@ -9789,11 +9793,11 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex064</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9804,23 +9808,23 @@
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>the building</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -9829,11 +9833,11 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ex063</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9841,15 +9845,19 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>They approach the destination.</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>the station</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9860,7 +9868,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -9869,11 +9877,11 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9881,19 +9889,15 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>We approach the building.</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9904,7 +9908,7 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -9913,11 +9917,11 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex065</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9928,12 +9932,12 @@
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>the destination</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9944,7 +9948,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -9953,38 +9957,42 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ex064</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>He resembles his mother.</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>the building</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -9993,31 +10001,27 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>They approach the destination.</t>
-        </is>
-      </c>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10028,7 +10032,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -10037,27 +10041,27 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex066</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10068,7 +10072,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -10077,27 +10081,31 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ex065</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
+          <t>resembles</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>She resembles her father.</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>the destination</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10108,7 +10116,7 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -10117,11 +10125,11 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10129,19 +10137,15 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>He resembles his mother.</t>
-        </is>
-      </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10152,7 +10156,7 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -10161,11 +10165,11 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex067</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10176,12 +10180,12 @@
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>father</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10192,7 +10196,7 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -10201,11 +10205,11 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ex066</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10213,15 +10217,19 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Tom resembles his uncle.</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10232,7 +10240,7 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -10241,11 +10249,11 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10253,19 +10261,15 @@
           <t>resembles</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>She resembles her father.</t>
-        </is>
-      </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>resembles</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10276,7 +10280,7 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -10285,11 +10289,11 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex068</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10300,12 +10304,12 @@
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>uncle</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10316,7 +10320,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -10325,27 +10329,31 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ex067</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr"/>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>They resemble their parents.</t>
+        </is>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10356,7 +10364,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -10365,31 +10373,27 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Tom resembles his uncle.</t>
-        </is>
-      </c>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10400,7 +10404,7 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -10409,27 +10413,27 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex069</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>resemble</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>resembles</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10440,7 +10444,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -10449,27 +10453,31 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ex068</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>resembles</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>She married a bald man.</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>uncle</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10480,7 +10488,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -10489,31 +10497,27 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>They resemble their parents.</t>
-        </is>
-      </c>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10524,7 +10528,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -10533,27 +10537,27 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex070</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>married</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>resemble</t>
+          <t>a bald man</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10564,7 +10568,7 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -10573,27 +10577,31 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ex069</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr"/>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>He married a quiet woman.</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10604,7 +10612,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -10613,11 +10621,11 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10625,19 +10633,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>She married a bald man.</t>
-        </is>
-      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10648,7 +10652,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -10657,11 +10661,11 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex071</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10672,12 +10676,12 @@
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>a quiet woman</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10688,7 +10692,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -10697,11 +10701,11 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ex070</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10709,15 +10713,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Sarah married a kind person.</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>a bald man</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10728,7 +10736,7 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -10737,11 +10745,11 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10749,19 +10757,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>He married a quiet woman.</t>
-        </is>
-      </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10772,7 +10776,7 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -10781,11 +10785,11 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex072</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10796,12 +10800,12 @@
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>a kind person</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10812,7 +10816,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10821,11 +10825,11 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ex071</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10833,15 +10837,19 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>They married their partners.</t>
+        </is>
+      </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>a quiet woman</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10852,7 +10860,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -10861,11 +10869,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10873,19 +10881,15 @@
           <t>married</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Sarah married a kind person.</t>
-        </is>
-      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>married</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10896,7 +10900,7 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -10905,11 +10909,11 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex073</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10920,12 +10924,12 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>partners</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10936,7 +10940,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10945,38 +10949,42 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ex072</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr"/>
+          <t>unknown_74</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>She's been married to a bald man for 5 years.</t>
+        </is>
+      </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>a kind person</t>
+          <t>to a bald man</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -10985,31 +10993,27 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex074</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>They married their partners.</t>
-        </is>
-      </c>
+          <t>unknown_74</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>5 years</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11020,7 +11024,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -11029,38 +11033,42 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>married</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr"/>
+          <t>unknown_75</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>He's been married to a kind woman for 3 years.</t>
+        </is>
+      </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>to a kind woman</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>phrase</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -11069,27 +11077,27 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ex073</t>
+          <t>ex075</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>unknown_75</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>partners</t>
+          <t>3 years</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11100,7 +11108,7 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -11109,21 +11117,21 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>unknown_74</t>
+          <t>unknown_76</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>She's been married to a bald man for 5 years.</t>
+          <t>Sarah's been married to a nice person for 2 years.</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11133,7 +11141,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>to a bald man</t>
+          <t>to a nice person</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11153,16 +11161,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ex074</t>
+          <t>ex076</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>unknown_74</t>
+          <t>unknown_76</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
@@ -11173,7 +11181,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>5 years</t>
+          <t>2 years</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11193,21 +11201,21 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>unknown_75</t>
+          <t>unknown_77</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>He's been married to a kind woman for 3 years.</t>
+          <t>Tom's been married to a lovely partner for 10 years.</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11217,7 +11225,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>to a kind woman</t>
+          <t>to a lovely partner</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11237,16 +11245,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ex075</t>
+          <t>ex077</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>unknown_75</t>
+          <t>unknown_77</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
@@ -11257,7 +11265,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>3 years</t>
+          <t>10 years</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11277,36 +11285,36 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>unknown_76</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Sarah's been married to a nice person for 2 years.</t>
+          <t>He'll answer your letter soon.</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>to a nice person</t>
+          <t>He</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H264" t="inlineStr"/>
@@ -11321,27 +11329,27 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ex076</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>unknown_76</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11361,42 +11369,38 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>unknown_77</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Tom's been married to a lovely partner for 10 years.</t>
-        </is>
-      </c>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>to a lovely partner</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -11405,27 +11409,27 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ex077</t>
+          <t>ex078</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>unknown_77</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>10 years</t>
+          <t>'ll</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11436,7 +11440,7 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -11445,11 +11449,11 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11459,7 +11463,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>He'll answer your letter soon.</t>
+          <t>She'll answer his message tomorrow.</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -11469,7 +11473,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>She</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11489,11 +11493,11 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11529,11 +11533,11 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11549,7 +11553,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>message</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11569,11 +11573,11 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ex078</t>
+          <t>ex079</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11584,12 +11588,12 @@
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>'ll</t>
+          <t>tomorrow</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11600,7 +11604,7 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
@@ -11621,19 +11625,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>She'll answer his message tomorrow.</t>
-        </is>
-      </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>She</t>
+          <t>'ll</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11644,7 +11644,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
@@ -11653,11 +11653,11 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -11665,15 +11665,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Tom'll answer the email later.</t>
+        </is>
+      </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>Tom'll</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11684,7 +11688,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K273" t="n">
         <v>0</v>
@@ -11693,11 +11697,11 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11708,12 +11712,12 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>message</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11724,7 +11728,7 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -11733,11 +11737,11 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex080</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -11748,12 +11752,12 @@
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>tomorrow</t>
+          <t>the email</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11764,7 +11768,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K275" t="n">
         <v>0</v>
@@ -11773,11 +11777,11 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ex079</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -11785,15 +11789,19 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>They'll answer our call tonight.</t>
+        </is>
+      </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>'ll</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11804,7 +11812,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -11813,11 +11821,11 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -11825,19 +11833,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Tom'll answer the email later.</t>
-        </is>
-      </c>
+      <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Tom'll</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11848,7 +11852,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K277" t="n">
         <v>0</v>
@@ -11857,11 +11861,11 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -11872,12 +11876,12 @@
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>call</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11888,7 +11892,7 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
@@ -11897,11 +11901,11 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ex080</t>
+          <t>ex081</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11912,12 +11916,12 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>the email</t>
+          <t>tonight</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11928,7 +11932,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -11949,19 +11953,15 @@
           <t>answer</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>They'll answer our call tonight.</t>
-        </is>
-      </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Aux</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>'ll</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11972,7 +11972,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K280" t="n">
         <v>0</v>
@@ -11981,27 +11981,31 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr"/>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>We discuss our schedule.</t>
+        </is>
+      </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>We</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12012,7 +12016,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -12021,27 +12025,27 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12052,7 +12056,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -12061,27 +12065,27 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex082</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>tonight</t>
+          <t>schedule</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12092,7 +12096,7 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K283" t="n">
         <v>0</v>
@@ -12101,27 +12105,31 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ex081</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr"/>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>You discuss your project.</t>
+        </is>
+      </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Aux</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>'ll</t>
+          <t>You</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12132,7 +12140,7 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
@@ -12141,11 +12149,11 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -12153,19 +12161,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>We discuss our schedule.</t>
-        </is>
-      </c>
+      <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12176,7 +12180,7 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K285" t="n">
         <v>0</v>
@@ -12185,11 +12189,11 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex083</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -12200,12 +12204,12 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>project</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12216,7 +12220,7 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K286" t="n">
         <v>0</v>
@@ -12225,11 +12229,11 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ex082</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -12237,15 +12241,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr"/>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>They discuss their plan.</t>
+        </is>
+      </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>schedule</t>
+          <t>They</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12256,7 +12264,7 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K287" t="n">
         <v>0</v>
@@ -12265,11 +12273,11 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -12277,19 +12285,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>You discuss your project.</t>
-        </is>
-      </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>You</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12300,7 +12304,7 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K288" t="n">
         <v>0</v>
@@ -12309,11 +12313,11 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex084</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -12324,12 +12328,12 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12340,7 +12344,7 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K289" t="n">
         <v>0</v>
@@ -12349,11 +12353,11 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ex083</t>
+          <t>ex085</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -12361,15 +12365,19 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr"/>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>I discuss my proposal.</t>
+        </is>
+      </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12380,7 +12388,7 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K290" t="n">
         <v>0</v>
@@ -12389,11 +12397,11 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex085</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -12401,19 +12409,15 @@
           <t>discuss</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>They discuss their plan.</t>
-        </is>
-      </c>
+      <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12424,7 +12428,7 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K291" t="n">
         <v>0</v>
@@ -12433,11 +12437,11 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ex084</t>
+          <t>ex085</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -12448,12 +12452,12 @@
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>proposal</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12464,176 +12468,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K292" t="n">
         <v>0</v>
       </c>
       <c r="L292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>ex084</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>plan</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>3</v>
-      </c>
-      <c r="K293" t="n">
-        <v>0</v>
-      </c>
-      <c r="L293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>ex085</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>I discuss my proposal.</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1</v>
-      </c>
-      <c r="K294" t="n">
-        <v>0</v>
-      </c>
-      <c r="L294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>ex085</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr"/>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2</v>
-      </c>
-      <c r="K295" t="n">
-        <v>0</v>
-      </c>
-      <c r="L295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>ex085</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr"/>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>proposal</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>3</v>
-      </c>
-      <c r="K296" t="n">
-        <v>0</v>
-      </c>
-      <c r="L296" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/training/data/例文入力元_分解結果_v2.xlsx
+++ b/training/data/例文入力元_分解結果_v2.xlsx
@@ -770,7 +770,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
@@ -11062,7 +11062,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H260" t="inlineStr"/>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>word</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
